--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -762,19 +762,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.4</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -792,16 +792,16 @@
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
         <v>1.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T2" t="n">
         <v>1.67</v>
@@ -822,13 +822,13 @@
         <v>15.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
@@ -837,10 +837,10 @@
         <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -900,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BA2" t="n">
         <v>34</v>
@@ -912,10 +912,10 @@
         <v>19.5</v>
       </c>
       <c r="BD2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BE2" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="BF2" t="n">
         <v>12</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
         <v>20</v>
@@ -1165,7 +1165,7 @@
         <v>7.2</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>3.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>2.66</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -1571,7 +1571,7 @@
         <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1735,19 +1735,19 @@
         <v>1.6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
         <v>970</v>
@@ -2034,62 +2034,62 @@
         <v>80</v>
       </c>
       <c r="AP8" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AR8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY8" t="n">
         <v>4.1</v>
       </c>
-      <c r="AS8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AV8" t="n">
+      <c r="AZ8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BE8" t="n">
         <v>3.8</v>
       </c>
-      <c r="AW8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>4.6</v>
-      </c>
       <c r="BF8" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="BG8" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>2.56</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
         <v>2.56</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2514,10 +2514,10 @@
         <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
         <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
         <v>2.92</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
         <v>3.45</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3284,13 +3284,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="I15" t="n">
         <v>1000</v>
@@ -3299,7 +3299,7 @@
         <v>2.72</v>
       </c>
       <c r="K15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3478,10 +3478,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
         <v>5.9</v>
@@ -3490,7 +3490,7 @@
         <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K16" t="n">
         <v>5.3</v>
@@ -3508,16 +3508,16 @@
         <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R16" t="n">
         <v>1.76</v>
       </c>
       <c r="S16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T16" t="n">
         <v>1.65</v>
@@ -3586,7 +3586,7 @@
         <v>55</v>
       </c>
       <c r="AP16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ16" t="n">
         <v>26</v>
@@ -3601,7 +3601,7 @@
         <v>12</v>
       </c>
       <c r="AU16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
         <v>19</v>
@@ -3628,7 +3628,7 @@
         <v>12.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BE16" t="n">
         <v>48</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>1.5</v>
       </c>
       <c r="G17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H17" t="n">
         <v>6.8</v>
@@ -3702,7 +3702,7 @@
         <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q17" t="n">
         <v>1.52</v>
@@ -3714,7 +3714,7 @@
         <v>2.28</v>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="n">
         <v>2.32</v>
@@ -3792,7 +3792,7 @@
         <v>46</v>
       </c>
       <c r="AT17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AU17" t="n">
         <v>10.5</v>
@@ -3813,7 +3813,7 @@
         <v>17.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="BB17" t="n">
         <v>13</v>
@@ -3822,7 +3822,7 @@
         <v>13</v>
       </c>
       <c r="BD17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BE17" t="n">
         <v>48</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3875,10 +3875,10 @@
         <v>10.5</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
         <v>7.6</v>
@@ -3893,25 +3893,25 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P18" t="n">
         <v>3.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3932,7 +3932,7 @@
         <v>390</v>
       </c>
       <c r="AB18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC18" t="n">
         <v>18</v>
@@ -3950,7 +3950,7 @@
         <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>95</v>
@@ -3974,28 +3974,28 @@
         <v>120</v>
       </c>
       <c r="AP18" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AQ18" t="n">
         <v>46</v>
       </c>
       <c r="AR18" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AS18" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AT18" t="n">
         <v>14.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AX18" t="n">
         <v>10</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G21" t="n">
         <v>2.04</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4672,10 +4672,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G2" t="n">
         <v>2.24</v>
       </c>
       <c r="H2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.95</v>
@@ -786,7 +786,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
@@ -801,10 +801,10 @@
         <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -900,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA2" t="n">
         <v>34</v>
@@ -912,7 +912,7 @@
         <v>19.5</v>
       </c>
       <c r="BD2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="BE2" t="n">
         <v>60</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I3" t="n">
         <v>2.88</v>
@@ -971,7 +971,7 @@
         <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>1.19</v>
@@ -1165,7 +1165,7 @@
         <v>7.2</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>2.66</v>
       </c>
       <c r="H6" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -1553,7 +1553,7 @@
         <v>2.58</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>2.56</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H9" t="n">
         <v>2.56</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
         <v>1.82</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2514,16 +2514,16 @@
         <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
         <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>3.85</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3478,22 +3478,22 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.56</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.57</v>
-      </c>
       <c r="H16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J16" t="n">
         <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.16</v>
@@ -3586,16 +3586,16 @@
         <v>55</v>
       </c>
       <c r="AP16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ16" t="n">
         <v>26</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AS16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AT16" t="n">
         <v>12</v>
@@ -3616,7 +3616,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BA16" t="n">
         <v>28</v>
@@ -3637,11 +3637,11 @@
         <v>5.1</v>
       </c>
       <c r="BG16" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3681,13 +3681,13 @@
         <v>6.8</v>
       </c>
       <c r="I17" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>1.52</v>
       </c>
       <c r="R17" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
         <v>2.28</v>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U17" t="n">
         <v>2.32</v>
@@ -3756,7 +3756,7 @@
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>70</v>
@@ -3798,7 +3798,7 @@
         <v>10.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW17" t="n">
         <v>55</v>
@@ -3813,7 +3813,7 @@
         <v>17.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="BB17" t="n">
         <v>13</v>
@@ -3822,7 +3822,7 @@
         <v>13</v>
       </c>
       <c r="BD17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE17" t="n">
         <v>48</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3869,10 +3869,10 @@
         <v>1.29</v>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="H18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
         <v>11.5</v>
@@ -3881,7 +3881,7 @@
         <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -3890,7 +3890,7 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.11</v>
@@ -3899,19 +3899,19 @@
         <v>3.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S18" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y18" t="n">
         <v>60</v>
@@ -3932,10 +3932,10 @@
         <v>390</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD18" t="n">
         <v>42</v>
@@ -3950,19 +3950,19 @@
         <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>12</v>
       </c>
       <c r="AL18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>90</v>
@@ -3974,40 +3974,40 @@
         <v>120</v>
       </c>
       <c r="AP18" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AQ18" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AR18" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AS18" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AT18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
       </c>
       <c r="AV18" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AW18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AY18" t="n">
         <v>10.5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA18" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="BB18" t="n">
         <v>11</v>
@@ -4016,20 +4016,20 @@
         <v>11.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BE18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BF18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="BG18" t="n">
         <v>38</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4448,19 +4448,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
         <v>6.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K21" t="n">
         <v>3.45</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
         <v>2.24</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.95</v>
@@ -786,25 +786,25 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R2" t="n">
         <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -831,13 +831,13 @@
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
         <v>15.5</v>
@@ -864,7 +864,7 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
         <v>29</v>
@@ -885,13 +885,13 @@
         <v>10.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AX2" t="n">
         <v>13.5</v>
@@ -900,19 +900,19 @@
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
         <v>24</v>
       </c>
       <c r="BC2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BD2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BE2" t="n">
         <v>60</v>
@@ -921,11 +921,11 @@
         <v>12</v>
       </c>
       <c r="BG2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
         <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I3" t="n">
         <v>2.88</v>
@@ -971,7 +971,7 @@
         <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="Q3" t="n">
         <v>1.9</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1150,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="I4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="J4" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="H6" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -1553,7 +1553,7 @@
         <v>2.58</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -1929,19 +1929,19 @@
         <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="H8" t="n">
         <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.74</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>1.61</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1980,22 +1980,22 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
         <v>30</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
         <v>970</v>
@@ -2010,13 +2010,13 @@
         <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI8" t="n">
         <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
         <v>38</v>
@@ -2025,71 +2025,71 @@
         <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
         <v>80</v>
       </c>
       <c r="AP8" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AQ8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BB8" t="n">
         <v>4</v>
       </c>
-      <c r="AR8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AX8" t="n">
+      <c r="BC8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BE8" t="n">
         <v>4.3</v>
       </c>
-      <c r="AY8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>3.8</v>
-      </c>
       <c r="BF8" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="BG8" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -2123,13 +2123,13 @@
         <v>2.56</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
         <v>2.56</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -2317,19 +2317,19 @@
         <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="H10" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -2511,13 +2511,13 @@
         <v>3.35</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -2702,16 +2702,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="n">
         <v>2.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -2896,16 +2896,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G13" t="n">
         <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J13" t="n">
         <v>3.05</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
         <v>1.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -3284,16 +3284,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.45</v>
+        <v>2.78</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.45</v>
+        <v>2.54</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>2.72</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -3478,22 +3478,22 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.55</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.56</v>
-      </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I16" t="n">
         <v>6.2</v>
       </c>
       <c r="J16" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R16" t="n">
         <v>1.76</v>
       </c>
       <c r="S16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T16" t="n">
         <v>1.65</v>
@@ -3565,22 +3565,22 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
         <v>15.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
         <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO16" t="n">
         <v>55</v>
@@ -3592,7 +3592,7 @@
         <v>26</v>
       </c>
       <c r="AR16" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
         <v>44</v>
@@ -3628,20 +3628,20 @@
         <v>12.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE16" t="n">
         <v>48</v>
       </c>
       <c r="BF16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="BG16" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -3675,19 +3675,19 @@
         <v>1.5</v>
       </c>
       <c r="G17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J17" t="n">
         <v>5.2</v>
       </c>
       <c r="K17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3702,22 +3702,22 @@
         <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S17" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T17" t="n">
         <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
         <v>70</v>
@@ -3768,13 +3768,13 @@
         <v>13.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
         <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
         <v>70</v>
@@ -3795,16 +3795,16 @@
         <v>11.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>22</v>
       </c>
       <c r="AW17" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AX17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AY17" t="n">
         <v>9.6</v>
@@ -3813,7 +3813,7 @@
         <v>17.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="BB17" t="n">
         <v>13</v>
@@ -3828,14 +3828,14 @@
         <v>48</v>
       </c>
       <c r="BF17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="BG17" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
         <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
         <v>7</v>
@@ -3890,25 +3890,25 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O18" t="n">
         <v>1.11</v>
       </c>
       <c r="P18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R18" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S18" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
         <v>2.36</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y18" t="n">
         <v>60</v>
@@ -3932,10 +3932,10 @@
         <v>390</v>
       </c>
       <c r="AB18" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD18" t="n">
         <v>42</v>
@@ -3953,10 +3953,10 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK18" t="n">
         <v>12</v>
@@ -3965,25 +3965,25 @@
         <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN18" t="n">
         <v>3.25</v>
       </c>
       <c r="AO18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AR18" t="n">
         <v>95</v>
       </c>
       <c r="AS18" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AT18" t="n">
         <v>15</v>
@@ -3995,19 +3995,19 @@
         <v>36</v>
       </c>
       <c r="AW18" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AX18" t="n">
         <v>10.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AZ18" t="n">
         <v>22</v>
       </c>
       <c r="BA18" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BB18" t="n">
         <v>11</v>
@@ -4022,14 +4022,14 @@
         <v>60</v>
       </c>
       <c r="BF18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="BG18" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -4448,19 +4448,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>3.45</v>
@@ -4478,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
         <v>3.9</v>
       </c>
       <c r="H22" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I22" t="n">
         <v>2.7</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH23"/>
+  <dimension ref="A1:BH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -748,191 +748,191 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Nakhon Ratchasima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>2.24</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.05</v>
       </c>
-      <c r="N2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.67</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR2" t="n">
-        <v>22</v>
+        <v>1.01</v>
       </c>
       <c r="AS2" t="n">
-        <v>29</v>
+        <v>1.01</v>
       </c>
       <c r="AT2" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AW2" t="n">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="AX2" t="n">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA2" t="n">
-        <v>24</v>
+        <v>1.01</v>
       </c>
       <c r="BB2" t="n">
-        <v>24</v>
+        <v>1.01</v>
       </c>
       <c r="BC2" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="BD2" t="n">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="BE2" t="n">
-        <v>60</v>
+        <v>1.01</v>
       </c>
       <c r="BF2" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="BG2" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -942,66 +942,66 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.84</v>
+        <v>2.18</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1010,123 +1010,123 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1136,36 +1136,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15.5</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>2.94</v>
       </c>
       <c r="H4" t="n">
-        <v>1.17</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.24</v>
+        <v>3.05</v>
       </c>
       <c r="J4" t="n">
-        <v>7.8</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.2</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.22</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1313,14 +1313,14 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1330,36 +1330,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.82</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.64</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>2.84</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,14 +1507,14 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1524,36 +1524,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="G6" t="n">
-        <v>2.74</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1701,14 +1701,14 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1718,36 +1718,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1.71</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,14 +1895,14 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1912,42 +1912,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="G8" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1980,123 +1980,123 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2106,36 +2106,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>15.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>2.56</v>
+        <v>1.17</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>1.21</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.34</v>
+        <v>4.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,36 +2300,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>2.86</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,14 +2477,14 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2494,36 +2494,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.35</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>1.95</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>2.26</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>2.58</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,14 +2671,14 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2688,55 +2688,55 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2.3</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.82</v>
-      </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
@@ -2865,14 +2865,14 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2882,191 +2882,191 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="H13" t="n">
-        <v>2.84</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="K13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV13" t="n">
         <v>3.85</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BG13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3076,36 +3076,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
       <c r="G14" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.56</v>
       </c>
       <c r="I14" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>2.96</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.2</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3270,36 +3270,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.78</v>
+        <v>3.45</v>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H15" t="n">
-        <v>2.54</v>
+        <v>1.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2.08</v>
       </c>
       <c r="J15" t="n">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>2.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.8</v>
+        <v>1.58</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3464,66 +3464,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.54</v>
+        <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>5.9</v>
+        <v>2.82</v>
       </c>
       <c r="I16" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.94</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.49</v>
+        <v>1.91</v>
       </c>
       <c r="R16" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -3532,123 +3532,123 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3658,66 +3658,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>1.51</v>
+        <v>2.62</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>2.96</v>
       </c>
       <c r="I17" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.86</v>
+        <v>1.98</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="R17" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -3726,123 +3726,123 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BE17" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3852,66 +3852,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.29</v>
+        <v>2.14</v>
       </c>
       <c r="G18" t="n">
-        <v>1.31</v>
+        <v>2.44</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>3.95</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>7.4</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.7</v>
+        <v>1.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.34</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3920,123 +3920,123 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC18" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="BE18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BG18" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4046,36 +4046,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -4090,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -4223,14 +4223,14 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4240,36 +4240,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -4417,14 +4417,14 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4434,66 +4434,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="I21" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>5.4</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>1.41</v>
+        <v>2.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.92</v>
+        <v>1.49</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -4502,123 +4502,123 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU21" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BA21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BC21" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BD21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BE21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BF21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG21" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4628,66 +4628,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.45</v>
+        <v>1.49</v>
       </c>
       <c r="G22" t="n">
-        <v>3.9</v>
+        <v>1.51</v>
       </c>
       <c r="H22" t="n">
-        <v>2.48</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>7.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.78</v>
+        <v>5.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>1.42</v>
+        <v>2.86</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.92</v>
+        <v>1.51</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4696,310 +4696,1280 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AV22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BB22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BC22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BD22" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BE22" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BF22" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BG22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 08:31:48</t>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>23</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>60</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>42</v>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>2026-02-23 10:41:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Paraguayan Primera Division</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>2026-02-25</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>2026-02-23 10:41:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Club Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>2026-02-23 10:41:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>2026-02-23 10:41:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>2026-02-23 10:41:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Olimpia</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Libertad</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q28" t="n">
         <v>1.01</v>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH23" t="inlineStr">
-        <is>
-          <t>2026-02-23 08:31:48</t>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>2026-02-23 10:41:59</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -774,7 +774,7 @@
         <v>2.52</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -962,13 +962,13 @@
         <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -980,28 +980,28 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
         <v>26</v>
@@ -1025,16 +1025,16 @@
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -1043,10 +1043,10 @@
         <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>22</v>
@@ -1058,13 +1058,13 @@
         <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>29</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>14</v>
@@ -1073,19 +1073,19 @@
         <v>22</v>
       </c>
       <c r="AS3" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AT3" t="n">
         <v>10.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AX3" t="n">
         <v>13.5</v>
@@ -1097,29 +1097,29 @@
         <v>14.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BB3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BD3" t="n">
         <v>27</v>
       </c>
       <c r="BE3" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="BF3" t="n">
         <v>12</v>
       </c>
       <c r="BG3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1150,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G4" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
         <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
         <v>2.58</v>
@@ -2347,7 +2347,7 @@
         <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -2705,10 +2705,10 @@
         <v>1.63</v>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
         <v>9.800000000000001</v>
@@ -2735,7 +2735,7 @@
         <v>1.54</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -2899,16 +2899,16 @@
         <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="H13" t="n">
         <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K13" t="n">
         <v>3.45</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2938,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2965,13 +2965,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
         <v>970</v>
@@ -2986,80 +2986,80 @@
         <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN13" t="n">
         <v>38</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>36</v>
       </c>
       <c r="AO13" t="n">
         <v>80</v>
       </c>
       <c r="AP13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>3.3</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>3.55</v>
-      </c>
       <c r="AR13" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="AU13" t="n">
         <v>6</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AZ13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BB13" t="n">
         <v>4</v>
       </c>
-      <c r="BA13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BB13" t="n">
+      <c r="BC13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BE13" t="n">
         <v>4.3</v>
       </c>
-      <c r="BC13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>4.7</v>
-      </c>
       <c r="BF13" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="BG13" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -3090,19 +3090,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="H14" t="n">
         <v>2.56</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
         <v>4.3</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -3284,22 +3284,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J15" t="n">
         <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -3484,13 +3484,13 @@
         <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
         <v>3.85</v>
@@ -3511,7 +3511,7 @@
         <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>2.96</v>
@@ -3687,7 +3687,7 @@
         <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
         <v>2.44</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I18" t="n">
         <v>3.95</v>
@@ -3881,7 +3881,7 @@
         <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
         <v>3.2</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>2.56</v>
+        <v>1.44</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -4448,22 +4448,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G21" t="n">
         <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
         <v>6.2</v>
       </c>
       <c r="J21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="Q21" t="n">
         <v>1.49</v>
@@ -4487,13 +4487,13 @@
         <v>1.78</v>
       </c>
       <c r="S21" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T21" t="n">
         <v>1.65</v>
       </c>
       <c r="U21" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y21" t="n">
         <v>32</v>
       </c>
-      <c r="Y21" t="n">
-        <v>30</v>
-      </c>
       <c r="Z21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA21" t="n">
         <v>160</v>
@@ -4517,13 +4517,13 @@
         <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AF21" t="n">
         <v>12.5</v>
@@ -4535,13 +4535,13 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
         <v>25</v>
@@ -4550,34 +4550,34 @@
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="AO21" t="n">
         <v>55</v>
       </c>
       <c r="AP21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ21" t="n">
         <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AS21" t="n">
         <v>44</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AU21" t="n">
         <v>11.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AX21" t="n">
         <v>11</v>
@@ -4586,13 +4586,13 @@
         <v>9.6</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="BB21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BC21" t="n">
         <v>12.5</v>
@@ -4601,17 +4601,17 @@
         <v>22</v>
       </c>
       <c r="BE21" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="BF21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BG21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
         <v>1.49</v>
       </c>
       <c r="G22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
         <v>7</v>
@@ -4672,7 +4672,7 @@
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q22" t="n">
         <v>1.51</v>
@@ -4681,13 +4681,13 @@
         <v>1.76</v>
       </c>
       <c r="S22" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T22" t="n">
         <v>1.7</v>
       </c>
       <c r="U22" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="n">
         <v>34</v>
@@ -4723,7 +4723,7 @@
         <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
         <v>19.5</v>
@@ -4741,22 +4741,22 @@
         <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO22" t="n">
         <v>70</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS22" t="n">
         <v>46</v>
@@ -4765,13 +4765,13 @@
         <v>11.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AX22" t="n">
         <v>10.5</v>
@@ -4780,10 +4780,10 @@
         <v>9.6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="BB22" t="n">
         <v>13</v>
@@ -4792,20 +4792,20 @@
         <v>13</v>
       </c>
       <c r="BD22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BE22" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="BF22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="BG22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -4878,10 +4878,10 @@
         <v>1.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -4896,16 +4896,16 @@
         <v>60</v>
       </c>
       <c r="Z23" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AA23" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AB23" t="n">
         <v>16.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD23" t="n">
         <v>42</v>
@@ -4917,7 +4917,7 @@
         <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
@@ -4953,10 +4953,10 @@
         <v>95</v>
       </c>
       <c r="AS23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AT23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
         <v>16</v>
@@ -4995,11 +4995,11 @@
         <v>3.1</v>
       </c>
       <c r="BG23" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G26" t="n">
         <v>2.04</v>
@@ -5427,7 +5427,7 @@
         <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -5448,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>3.45</v>
       </c>
       <c r="G27" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H27" t="n">
         <v>2.48</v>
@@ -5624,7 +5624,7 @@
         <v>2.74</v>
       </c>
       <c r="J27" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K27" t="n">
         <v>3.1</v>
@@ -5645,7 +5645,7 @@
         <v>1.42</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH28"/>
+  <dimension ref="A1:BH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,13 +768,13 @@
         <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
         <v>2.52</v>
       </c>
       <c r="J2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
@@ -792,7 +792,7 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
         <v>1.83</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -986,16 +986,16 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
         <v>1.66</v>
@@ -1004,13 +1004,13 @@
         <v>2.42</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>16</v>
@@ -1025,70 +1025,70 @@
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
         <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AT3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>8.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AW3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AX3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
@@ -1097,29 +1097,29 @@
         <v>14.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BB3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BE3" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="BF3" t="n">
         <v>12</v>
       </c>
       <c r="BG3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
         <v>2.92</v>
@@ -1159,13 +1159,13 @@
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
         <v>1.9</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
         <v>22</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2499,50 +2499,50 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="G11" t="n">
-        <v>2.74</v>
+        <v>1.76</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.58</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.92</v>
-      </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2693,179 +2693,179 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.63</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>1.76</v>
+        <v>2.66</v>
       </c>
       <c r="H12" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB12" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="AC12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AR12" t="n">
         <v>3.85</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="BG12" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2887,37 +2887,37 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="G13" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2938,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2950,116 +2950,116 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -3081,31 +3081,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.56</v>
+        <v>2.96</v>
       </c>
       <c r="I14" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.34</v>
+        <v>1.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -3275,31 +3275,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.55</v>
+        <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>2.98</v>
       </c>
       <c r="H15" t="n">
-        <v>1.89</v>
+        <v>2.82</v>
       </c>
       <c r="I15" t="n">
-        <v>2.06</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.44</v>
+        <v>1.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -3469,31 +3469,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="I16" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -3663,31 +3663,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.96</v>
+        <v>1.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.96</v>
+        <v>2.46</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -3857,31 +3857,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="G18" t="n">
-        <v>2.44</v>
+        <v>2.94</v>
       </c>
       <c r="H18" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="I18" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -4090,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -4254,13 +4254,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.44</v>
+        <v>2.54</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -4269,7 +4269,7 @@
         <v>2.72</v>
       </c>
       <c r="K20" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.53</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.55</v>
       </c>
       <c r="H21" t="n">
         <v>6</v>
@@ -4478,7 +4478,7 @@
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="Q21" t="n">
         <v>1.49</v>
@@ -4490,7 +4490,7 @@
         <v>2.22</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U21" t="n">
         <v>2.44</v>
@@ -4523,7 +4523,7 @@
         <v>24</v>
       </c>
       <c r="AE21" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AF21" t="n">
         <v>12.5</v>
@@ -4538,7 +4538,7 @@
         <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK21" t="n">
         <v>14</v>
@@ -4562,7 +4562,7 @@
         <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AS21" t="n">
         <v>44</v>
@@ -4577,13 +4577,13 @@
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AX21" t="n">
         <v>11</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ21" t="n">
         <v>17</v>
@@ -4592,7 +4592,7 @@
         <v>44</v>
       </c>
       <c r="BB21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
         <v>12.5</v>
@@ -4607,11 +4607,11 @@
         <v>4.9</v>
       </c>
       <c r="BG21" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
         <v>1.49</v>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H22" t="n">
         <v>7</v>
@@ -4681,13 +4681,13 @@
         <v>1.76</v>
       </c>
       <c r="S22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T22" t="n">
         <v>1.7</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>19.5</v>
@@ -4744,7 +4744,7 @@
         <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
         <v>70</v>
@@ -4765,7 +4765,7 @@
         <v>11.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AV22" t="n">
         <v>24</v>
@@ -4789,7 +4789,7 @@
         <v>13</v>
       </c>
       <c r="BC22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BD22" t="n">
         <v>23</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
         <v>120</v>
       </c>
       <c r="AA23" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AB23" t="n">
         <v>16.5</v>
@@ -4917,7 +4917,7 @@
         <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
@@ -4953,7 +4953,7 @@
         <v>95</v>
       </c>
       <c r="AS23" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AT23" t="n">
         <v>15</v>
@@ -4965,7 +4965,7 @@
         <v>36</v>
       </c>
       <c r="AW23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AX23" t="n">
         <v>10.5</v>
@@ -4989,24 +4989,24 @@
         <v>23</v>
       </c>
       <c r="BE23" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BF23" t="n">
         <v>3.1</v>
       </c>
       <c r="BG23" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5016,36 +5016,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -5060,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -5193,14 +5193,14 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5210,36 +5210,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5387,589 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Velez Sarsfield</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Deportivo Riestra</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH26" t="inlineStr">
-        <is>
-          <t>2026-02-23 12:51:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Newells</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Estudiantes</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH27" t="inlineStr">
-        <is>
-          <t>2026-02-23 12:51:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Olimpia</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Libertad</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH28" t="inlineStr">
-        <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH25"/>
+  <dimension ref="A1:BH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,13 +765,13 @@
         <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -780,7 +780,7 @@
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
@@ -798,43 +798,43 @@
         <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="W2" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -843,7 +843,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -870,62 +870,62 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -986,7 +986,7 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.74</v>
@@ -995,13 +995,13 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V3" t="n">
         <v>1.41</v>
@@ -1025,7 +1025,7 @@
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
         <v>14</v>
@@ -1082,7 +1082,7 @@
         <v>8.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
         <v>32</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>36</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -1150,177 +1150,177 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.7</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.8</v>
-      </c>
       <c r="I4" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BC4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BE4" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BG4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1330,184 +1330,184 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>1.45</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>3.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BE5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BG5" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -1529,179 +1529,179 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>1.61</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -1723,179 +1723,179 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -1917,186 +1917,186 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>9.4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2106,184 +2106,184 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>1.69</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>1.94</v>
       </c>
       <c r="H9" t="n">
-        <v>1.17</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>1.21</v>
+        <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>9.199999999999999</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.22</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -2305,186 +2305,186 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>2.58</v>
+        <v>1.17</v>
       </c>
       <c r="I10" t="n">
-        <v>2.86</v>
+        <v>1.21</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>10.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P10" t="n">
-        <v>1.76</v>
+        <v>4.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>1.23</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BG10" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2494,184 +2494,184 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.63</v>
+        <v>2.82</v>
       </c>
       <c r="G11" t="n">
-        <v>1.76</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>9.800000000000001</v>
+        <v>2.84</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.54</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="BG11" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -2693,179 +2693,179 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>1.63</v>
       </c>
       <c r="G12" t="n">
-        <v>2.66</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.45</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.74</v>
-      </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>1.49</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG12" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>970</v>
-      </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="n">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AR12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BC12" t="n">
         <v>3.85</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="BD12" t="n">
         <v>4.2</v>
       </c>
-      <c r="AT12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BE12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BF12" t="n">
-        <v>3.95</v>
+        <v>12.5</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -2887,186 +2887,186 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY13" t="n">
         <v>3.7</v>
       </c>
-      <c r="I13" t="n">
+      <c r="AZ13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BE13" t="n">
         <v>4.8</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BG13" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3076,184 +3076,184 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="H14" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BF14" t="n">
         <v>3.4</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -3275,179 +3275,179 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.98</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BG15" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -3469,179 +3469,179 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.44</v>
+        <v>2.94</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AX16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="BA16" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -3663,179 +3663,179 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>2.14</v>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>2.44</v>
       </c>
       <c r="H17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.8</v>
       </c>
-      <c r="I17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP17" t="n">
         <v>2.46</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="BA17" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="BC17" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="BE17" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="BF17" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BG17" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -3857,186 +3857,186 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.38</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94</v>
+        <v>4.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2.76</v>
+        <v>1.78</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BC18" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="BE18" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BF18" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BG18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4046,184 +4046,184 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="G19" t="n">
-        <v>3.85</v>
+        <v>2.94</v>
       </c>
       <c r="H19" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="I19" t="n">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.96</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>1.35</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X19" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AY19" t="n">
         <v>3.25</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BB19" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BC19" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="BD19" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BE19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BF19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BG19" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -4245,31 +4245,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.86</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="H20" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="J20" t="n">
         <v>2.72</v>
       </c>
       <c r="K20" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -4417,14 +4417,14 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4439,61 +4439,61 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.52</v>
+        <v>2.82</v>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>4.2</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>2.58</v>
       </c>
       <c r="I21" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>5.4</v>
+        <v>2.72</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.94</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -4502,116 +4502,116 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BC21" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="BD21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BE21" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="BG21" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -4633,25 +4633,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="G22" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="J22" t="n">
         <v>5.2</v>
@@ -4660,152 +4660,152 @@
         <v>5.4</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="R22" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S22" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="T22" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA22" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
         <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AF22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
         <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
         <v>13.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO22" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AP22" t="n">
         <v>27</v>
       </c>
       <c r="AQ22" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AR22" t="n">
         <v>55</v>
       </c>
       <c r="AS22" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AT22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU22" t="n">
         <v>11.5</v>
       </c>
-      <c r="AU22" t="n">
-        <v>11</v>
-      </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>60</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY22" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BC22" t="n">
         <v>12.5</v>
       </c>
       <c r="BD22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE22" t="n">
         <v>60</v>
       </c>
       <c r="BF22" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BG22" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -4827,186 +4827,186 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="G23" t="n">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="K23" t="n">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>9.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>3.7</v>
+        <v>2.84</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="R23" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="S23" t="n">
-        <v>1.85</v>
+        <v>2.26</v>
       </c>
       <c r="T23" t="n">
         <v>1.69</v>
       </c>
       <c r="U23" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="X23" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Y23" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AA23" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="AB23" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="n">
         <v>11.5</v>
       </c>
       <c r="AG23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AT23" t="n">
         <v>12</v>
       </c>
-      <c r="AH23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>48</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>95</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>15</v>
-      </c>
       <c r="AU23" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AV23" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AX23" t="n">
         <v>10.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ23" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BB23" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="BC23" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BD23" t="n">
         <v>23</v>
       </c>
       <c r="BE23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BF23" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="BG23" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5016,184 +5016,184 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.45</v>
+        <v>1.3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.85</v>
+        <v>1.31</v>
       </c>
       <c r="H24" t="n">
-        <v>2.48</v>
+        <v>10.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.74</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>2.78</v>
+        <v>7.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>7.4</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P24" t="n">
-        <v>1.42</v>
+        <v>3.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.96</v>
+        <v>1.35</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AW24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX24" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BC24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BD24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BF24" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="BG24" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -5215,31 +5215,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.89</v>
+        <v>3.35</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>2.52</v>
       </c>
       <c r="I25" t="n">
-        <v>7.4</v>
+        <v>2.76</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5257,137 +5257,331 @@
         <v>1.42</v>
       </c>
       <c r="Q25" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2.92</v>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH25" t="inlineStr">
-        <is>
-          <t>2026-02-23 15:00:26</t>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH26"/>
+  <dimension ref="A1:BH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -780,7 +780,7 @@
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
@@ -798,10 +798,10 @@
         <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>2.52</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
@@ -810,10 +810,10 @@
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -956,16 +956,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -974,22 +974,22 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
         <v>1.5</v>
@@ -1004,10 +1004,10 @@
         <v>2.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X3" t="n">
         <v>19.5</v>
@@ -1028,7 +1028,7 @@
         <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
         <v>38</v>
@@ -1043,7 +1043,7 @@
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -1058,10 +1058,10 @@
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP3" t="n">
         <v>18</v>
@@ -1088,7 +1088,7 @@
         <v>32</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
@@ -1106,20 +1106,20 @@
         <v>19</v>
       </c>
       <c r="BD3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BE3" t="n">
         <v>60</v>
       </c>
       <c r="BF3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BG3" t="n">
         <v>25</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G4" t="n">
         <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I4" t="n">
         <v>2.86</v>
@@ -1180,7 +1180,7 @@
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" t="n">
         <v>1.93</v>
@@ -1195,7 +1195,7 @@
         <v>1.68</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
         <v>1.53</v>
@@ -1246,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
         <v>80</v>
@@ -1267,7 +1267,7 @@
         <v>15.5</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AT4" t="n">
         <v>11</v>
@@ -1288,22 +1288,22 @@
         <v>11.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="BB4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD4" t="n">
         <v>7.4</v>
       </c>
-      <c r="BC4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>7.2</v>
-      </c>
       <c r="BE4" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF4" t="n">
         <v>20</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>1.41</v>
       </c>
       <c r="I5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
@@ -1380,19 +1380,19 @@
         <v>1.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="T5" t="n">
         <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W5" t="n">
         <v>1.13</v>
@@ -1434,7 +1434,7 @@
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AK5" t="n">
         <v>110</v>
@@ -1479,7 +1479,7 @@
         <v>10.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ5" t="n">
         <v>15.5</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="I6" t="n">
         <v>1.61</v>
@@ -1553,7 +1553,7 @@
         <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1562,16 +1562,16 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.04</v>
+        <v>2.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
         <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
         <v>1.4</v>
@@ -1580,10 +1580,10 @@
         <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
         <v>2.64</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
@@ -1765,7 +1765,7 @@
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
@@ -1774,10 +1774,10 @@
         <v>1.23</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -1950,10 +1950,10 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.89</v>
+        <v>2.78</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
         <v>1.89</v>
@@ -1968,10 +1968,10 @@
         <v>2.42</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V8" t="n">
         <v>1.05</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
         <v>1.94</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
         <v>6.4</v>
@@ -2135,7 +2135,7 @@
         <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.27</v>
@@ -2144,7 +2144,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9</v>
+        <v>2.74</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
@@ -2162,16 +2162,16 @@
         <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V9" t="n">
         <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -2347,16 +2347,16 @@
         <v>4.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="R10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="S10" t="n">
         <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -2368,7 +2368,7 @@
         <v>1.04</v>
       </c>
       <c r="X10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="n">
         <v>22</v>
@@ -2377,31 +2377,31 @@
         <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB10" t="n">
         <v>100</v>
       </c>
       <c r="AC10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
         <v>230</v>
       </c>
       <c r="AG10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AH10" t="n">
         <v>44</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -2413,16 +2413,16 @@
         <v>170</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
         <v>220</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="AP10" t="n">
-        <v>4.7</v>
+        <v>50</v>
       </c>
       <c r="AQ10" t="n">
         <v>15.5</v>
@@ -2434,7 +2434,7 @@
         <v>9.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
@@ -2446,38 +2446,38 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="AY10" t="n">
-        <v>4.7</v>
+        <v>50</v>
       </c>
       <c r="AZ10" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BA10" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="BB10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC10" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="BD10" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="BE10" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="BF10" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.82</v>
+        <v>2.34</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
         <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="T11" t="n">
         <v>1.8</v>
@@ -2559,7 +2559,7 @@
         <v>1.54</v>
       </c>
       <c r="W11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X11" t="n">
         <v>17</v>
@@ -2610,68 +2610,68 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="AV11" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="AW11" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="AY11" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="BA11" t="n">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="BB11" t="n">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="BC11" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="BD11" t="n">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="BE11" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="BF11" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.48</v>
+        <v>17.5</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -2693,179 +2693,179 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.63</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.52</v>
-      </c>
       <c r="P12" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="R12" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="S12" t="n">
+        <v>6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X12" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AR12" t="n">
         <v>5.3</v>
       </c>
-      <c r="T12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>230</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AS12" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="AV12" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="AX12" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="BB12" t="n">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.85</v>
+        <v>5.6</v>
       </c>
       <c r="BD12" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="BF12" t="n">
-        <v>12.5</v>
+        <v>5.6</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -2887,31 +2887,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.36</v>
+        <v>1.64</v>
       </c>
       <c r="G13" t="n">
-        <v>2.66</v>
+        <v>1.74</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.7</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2920,146 +2920,146 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="R13" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>2.42</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>2.34</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>6.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
         <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
         <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="AJ13" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.45</v>
+        <v>8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AR13" t="n">
         <v>4.3</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="AY13" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="AZ13" t="n">
         <v>4.1</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="BB13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE13" t="n">
         <v>4.5</v>
       </c>
-      <c r="BC13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BD13" t="n">
+      <c r="BF13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG13" t="n">
         <v>4.6</v>
       </c>
-      <c r="BE13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>4.7</v>
-      </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -3081,179 +3081,179 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G14" t="n">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>4.9</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="BA14" t="n">
         <v>6</v>
       </c>
-      <c r="T14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>3.5</v>
-      </c>
       <c r="BB14" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="BC14" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="BD14" t="n">
-        <v>3.55</v>
+        <v>5.8</v>
       </c>
       <c r="BE14" t="n">
-        <v>3.55</v>
+        <v>6.2</v>
       </c>
       <c r="BF14" t="n">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="BG14" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -3275,179 +3275,179 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>1.97</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="T15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.58</v>
       </c>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.61</v>
-      </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA15" t="n">
         <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
         <v>38</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AM15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>21</v>
-      </c>
       <c r="AO15" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AQ15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AS15" t="n">
-        <v>7.2</v>
+        <v>3.9</v>
       </c>
       <c r="AT15" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV15" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.8</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
         <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="BA15" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="BB15" t="n">
-        <v>6.8</v>
+        <v>24</v>
       </c>
       <c r="BC15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BD15" t="n">
-        <v>6.8</v>
+        <v>3.75</v>
       </c>
       <c r="BE15" t="n">
-        <v>7.6</v>
+        <v>3.95</v>
       </c>
       <c r="BF15" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="BG15" t="n">
-        <v>6.6</v>
+        <v>13.5</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -3469,179 +3469,179 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="G16" t="n">
-        <v>2.94</v>
+        <v>2.44</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>1.86</v>
+        <v>3.35</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="R16" t="n">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>1.93</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
         <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AL16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO16" t="n">
         <v>55</v>
       </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AP16" t="n">
-        <v>1.83</v>
+        <v>4.9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.88</v>
+        <v>2.34</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.77</v>
+        <v>4.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>1.7</v>
+        <v>3.95</v>
       </c>
       <c r="AV16" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="AW16" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>1.79</v>
+        <v>4.6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>1.86</v>
+        <v>2.7</v>
       </c>
       <c r="BA16" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BB16" t="n">
-        <v>1.94</v>
+        <v>2.36</v>
       </c>
       <c r="BC16" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="BE16" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="BF16" t="n">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -3663,179 +3663,179 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.14</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.44</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>1.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.95</v>
+        <v>1.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>1.8</v>
+        <v>2.48</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.59</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>2.42</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>1.69</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS17" t="n">
         <v>18</v>
       </c>
-      <c r="Y17" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AT17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA17" t="n">
         <v>21</v>
       </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>2.84</v>
-      </c>
       <c r="BB17" t="n">
-        <v>2.68</v>
+        <v>5.5</v>
       </c>
       <c r="BC17" t="n">
-        <v>2.64</v>
+        <v>5.2</v>
       </c>
       <c r="BD17" t="n">
-        <v>2.84</v>
+        <v>5.2</v>
       </c>
       <c r="BE17" t="n">
-        <v>2.84</v>
+        <v>5.4</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="BG17" t="n">
-        <v>2.84</v>
+        <v>6.2</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>4.7</v>
+        <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>1.78</v>
+        <v>2.94</v>
       </c>
       <c r="I18" t="n">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.75</v>
       </c>
-      <c r="K18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.2</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.46</v>
+        <v>1.97</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>2.36</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="W18" t="n">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="X18" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>19</v>
       </c>
       <c r="AH18" t="n">
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.6</v>
+        <v>32</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AS18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>9</v>
-      </c>
       <c r="AW18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AX18" t="n">
         <v>14</v>
       </c>
-      <c r="AX18" t="n">
-        <v>5.1</v>
-      </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ18" t="n">
         <v>14</v>
       </c>
       <c r="BA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BC18" t="n">
         <v>21</v>
       </c>
-      <c r="BB18" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>5.3</v>
-      </c>
       <c r="BD18" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="BE18" t="n">
-        <v>5.5</v>
+        <v>7.8</v>
       </c>
       <c r="BF18" t="n">
-        <v>5.1</v>
+        <v>14</v>
       </c>
       <c r="BG18" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -4051,179 +4051,179 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G19" t="n">
         <v>2.94</v>
       </c>
       <c r="H19" t="n">
-        <v>2.48</v>
+        <v>2.84</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>1.86</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="T19" t="n">
-        <v>1.46</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26</v>
+        <v>1.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="X19" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL19" t="n">
         <v>55</v>
       </c>
-      <c r="AB19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF19" t="n">
         <v>15</v>
       </c>
-      <c r="AH19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>40</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BG19" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G20" t="n">
         <v>3.85</v>
@@ -4266,22 +4266,22 @@
         <v>2.78</v>
       </c>
       <c r="J20" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="K20" t="n">
         <v>2.96</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="P20" t="n">
         <v>1.35</v>
@@ -4290,134 +4290,134 @@
         <v>3.25</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AU20" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW20" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="BA20" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BB20" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BC20" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BD20" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BE20" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BF20" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BG20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -4448,170 +4448,170 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="G21" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AU21" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BA21" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BB21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC21" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BD21" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BE21" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="BF21" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BG21" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -4651,16 +4651,16 @@
         <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J22" t="n">
         <v>5.2</v>
       </c>
       <c r="K22" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -4672,13 +4672,13 @@
         <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="Q22" t="n">
         <v>1.49</v>
       </c>
       <c r="R22" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S22" t="n">
         <v>2.22</v>
@@ -4687,10 +4687,10 @@
         <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W22" t="n">
         <v>2.8</v>
@@ -4705,10 +4705,10 @@
         <v>60</v>
       </c>
       <c r="AA22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
         <v>12.5</v>
@@ -4729,7 +4729,7 @@
         <v>18.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4744,22 +4744,22 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO22" t="n">
         <v>50</v>
       </c>
       <c r="AP22" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AR22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS22" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
@@ -4771,13 +4771,13 @@
         <v>21</v>
       </c>
       <c r="AW22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AX22" t="n">
         <v>11</v>
       </c>
       <c r="AY22" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ22" t="n">
         <v>17</v>
@@ -4786,7 +4786,7 @@
         <v>50</v>
       </c>
       <c r="BB22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BC22" t="n">
         <v>12.5</v>
@@ -4801,11 +4801,11 @@
         <v>5</v>
       </c>
       <c r="BG22" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
         <v>1.51</v>
       </c>
       <c r="G23" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H23" t="n">
         <v>6.8</v>
@@ -4848,13 +4848,13 @@
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -4866,7 +4866,7 @@
         <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q23" t="n">
         <v>1.51</v>
@@ -4878,28 +4878,28 @@
         <v>2.26</v>
       </c>
       <c r="T23" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U23" t="n">
         <v>2.4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="X23" t="n">
         <v>29</v>
       </c>
       <c r="Y23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
         <v>65</v>
       </c>
       <c r="AA23" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB23" t="n">
         <v>13</v>
@@ -4944,7 +4944,7 @@
         <v>65</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4974,7 +4974,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
         <v>55</v>
@@ -4995,11 +4995,11 @@
         <v>4.9</v>
       </c>
       <c r="BG23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
         <v>10.5</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J24" t="n">
         <v>7.2</v>
@@ -5048,7 +5048,7 @@
         <v>7.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -5069,7 +5069,7 @@
         <v>2.12</v>
       </c>
       <c r="S24" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T24" t="n">
         <v>1.69</v>
@@ -5105,7 +5105,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AF24" t="n">
         <v>11.5</v>
@@ -5132,7 +5132,7 @@
         <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO24" t="n">
         <v>95</v>
@@ -5144,7 +5144,7 @@
         <v>50</v>
       </c>
       <c r="AR24" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AS24" t="n">
         <v>55</v>
@@ -5193,14 +5193,14 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5210,378 +5210,2124 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>2.8</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>950</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>EC Vitoria Salvador</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K26" t="n">
+        <v>950</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>2026-02-23 19:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K27" t="n">
+        <v>950</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>2026-02-23 19:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Club Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>2026-02-23 19:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X29" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>2026-02-23 19:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>2026-02-23 19:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2026-02-25</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>2026-02-23 19:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Velez Sarsfield</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Deportivo Riestra</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F32" t="n">
         <v>1.89</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G32" t="n">
         <v>2.04</v>
       </c>
-      <c r="H26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="H32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J32" t="n">
         <v>3</v>
       </c>
-      <c r="K26" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="K32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q32" t="n">
         <v>2.92</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH26" t="inlineStr">
-        <is>
-          <t>2026-02-23 17:09:24</t>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>2026-02-23 19:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>2026-02-23 19:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>2026-02-23 19:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH35"/>
+  <dimension ref="A1:BH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="G2" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="I2" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.32</v>
@@ -789,31 +789,31 @@
         <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W2" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -846,7 +846,7 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -867,65 +867,65 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>3.85</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>10</v>
       </c>
       <c r="AU2" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AV2" t="n">
         <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>17.5</v>
+        <v>4.1</v>
       </c>
       <c r="AX2" t="n">
-        <v>19.5</v>
+        <v>4.2</v>
       </c>
       <c r="AY2" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BC2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BE2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF2" t="n">
         <v>4.2</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>4</v>
       </c>
       <c r="BG2" t="n">
         <v>13</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
@@ -1007,10 +1007,10 @@
         <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
         <v>16</v>
@@ -1031,7 +1031,7 @@
         <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
@@ -1067,7 +1067,7 @@
         <v>18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
@@ -1094,13 +1094,13 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BA3" t="n">
         <v>36</v>
       </c>
       <c r="BB3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -1150,37 +1150,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q4" t="n">
         <v>1.93</v>
@@ -1189,7 +1189,7 @@
         <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.68</v>
@@ -1198,19 +1198,19 @@
         <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
         <v>42</v>
@@ -1222,10 +1222,10 @@
         <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
@@ -1240,40 +1240,40 @@
         <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="n">
         <v>25</v>
       </c>
       <c r="AP4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>10</v>
       </c>
       <c r="AR4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AT4" t="n">
         <v>11</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV4" t="n">
         <v>10.5</v>
@@ -1285,35 +1285,35 @@
         <v>17.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="BA4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>38</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>34</v>
+      </c>
+      <c r="BE4" t="n">
         <v>7.6</v>
       </c>
-      <c r="BB4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="BF4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BG4" t="n">
         <v>20</v>
       </c>
-      <c r="BG4" t="n">
-        <v>19.5</v>
-      </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>1.41</v>
       </c>
       <c r="I5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
@@ -1362,7 +1362,7 @@
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1380,10 +1380,10 @@
         <v>1.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S5" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="T5" t="n">
         <v>1.67</v>
@@ -1392,7 +1392,7 @@
         <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W5" t="n">
         <v>1.13</v>
@@ -1404,7 +1404,7 @@
         <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
         <v>14</v>
@@ -1419,7 +1419,7 @@
         <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
         <v>75</v>
@@ -1452,7 +1452,7 @@
         <v>4.4</v>
       </c>
       <c r="AP5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ5" t="n">
         <v>11</v>
@@ -1464,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="AT5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AU5" t="n">
         <v>12.5</v>
@@ -1479,13 +1479,13 @@
         <v>10.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ5" t="n">
         <v>15.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
         <v>11.5</v>
@@ -1500,14 +1500,14 @@
         <v>10.5</v>
       </c>
       <c r="BF5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BG5" t="n">
         <v>3.9</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -1547,13 +1547,13 @@
         <v>1.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J6" t="n">
         <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1568,16 +1568,16 @@
         <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
         <v>1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T6" t="n">
         <v>1.05</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1956,7 +1956,7 @@
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
         <v>1.58</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -2123,19 +2123,19 @@
         <v>1.69</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.27</v>
@@ -2144,16 +2144,16 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="R9" t="n">
         <v>1.31</v>
@@ -2168,10 +2168,10 @@
         <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="G10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
         <v>1.17</v>
@@ -2329,7 +2329,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -2341,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P10" t="n">
         <v>4.1</v>
@@ -2350,31 +2350,31 @@
         <v>1.27</v>
       </c>
       <c r="R10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="S10" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="W10" t="n">
         <v>1.04</v>
       </c>
       <c r="X10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA10" t="n">
         <v>12.5</v>
@@ -2383,13 +2383,13 @@
         <v>100</v>
       </c>
       <c r="AC10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AD10" t="n">
         <v>16.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
         <v>230</v>
@@ -2398,10 +2398,10 @@
         <v>65</v>
       </c>
       <c r="AH10" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -2419,13 +2419,13 @@
         <v>220</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="AP10" t="n">
-        <v>50</v>
+        <v>7.6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AR10" t="n">
         <v>10.5</v>
@@ -2434,7 +2434,7 @@
         <v>9.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
@@ -2443,41 +2443,41 @@
         <v>12</v>
       </c>
       <c r="AW10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="AY10" t="n">
-        <v>50</v>
+        <v>7.6</v>
       </c>
       <c r="AZ10" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="BA10" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="BB10" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="BC10" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="BD10" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE10" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF10" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG10" t="n">
         <v>2.34</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
         <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I11" t="n">
         <v>2.84</v>
@@ -2565,113 +2565,113 @@
         <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI11" t="n">
         <v>65</v>
       </c>
-      <c r="AB11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AJ11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK11" t="n">
         <v>48</v>
       </c>
-      <c r="AF11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>50</v>
-      </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.4</v>
+        <v>1.51</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.52</v>
+        <v>1.56</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.66</v>
+        <v>1.37</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>1.66</v>
       </c>
       <c r="AU11" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="AV11" t="n">
-        <v>2.42</v>
+        <v>1.68</v>
       </c>
       <c r="AW11" t="n">
-        <v>2.62</v>
+        <v>1.46</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.54</v>
+        <v>1.56</v>
       </c>
       <c r="AY11" t="n">
-        <v>2.44</v>
+        <v>1.52</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2.52</v>
+        <v>1.55</v>
       </c>
       <c r="BA11" t="n">
-        <v>2.68</v>
+        <v>1.37</v>
       </c>
       <c r="BB11" t="n">
-        <v>2.68</v>
+        <v>1.48</v>
       </c>
       <c r="BC11" t="n">
-        <v>2.64</v>
+        <v>1.47</v>
       </c>
       <c r="BD11" t="n">
-        <v>2.68</v>
+        <v>1.48</v>
       </c>
       <c r="BE11" t="n">
-        <v>2.78</v>
+        <v>1.4</v>
       </c>
       <c r="BF11" t="n">
-        <v>2.64</v>
+        <v>1.4</v>
       </c>
       <c r="BG11" t="n">
-        <v>17.5</v>
+        <v>1.4</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
         <v>2.6</v>
@@ -2711,7 +2711,7 @@
         <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
         <v>2.54</v>
@@ -2723,31 +2723,31 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="O12" t="n">
         <v>1.63</v>
       </c>
       <c r="P12" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.74</v>
+        <v>2.34</v>
       </c>
       <c r="R12" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="S12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
         <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
         <v>1.3</v>
@@ -2756,13 +2756,13 @@
         <v>1.62</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
         <v>120</v>
@@ -2771,7 +2771,7 @@
         <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
         <v>970</v>
@@ -2792,10 +2792,10 @@
         <v>130</v>
       </c>
       <c r="AJ12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2813,59 +2813,59 @@
         <v>3.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AT12" t="n">
         <v>5.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AY12" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="AZ12" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="BA12" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="BB12" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="BC12" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="BE12" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="BF12" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="BG12" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -2896,28 +2896,28 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G13" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I13" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
         <v>2.58</v>
@@ -2926,7 +2926,7 @@
         <v>1.52</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q13" t="n">
         <v>2.52</v>
@@ -2938,67 +2938,67 @@
         <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="U13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W13" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
         <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -3007,13 +3007,13 @@
         <v>8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="AR13" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AT13" t="n">
         <v>5</v>
@@ -3022,44 +3022,44 @@
         <v>7.6</v>
       </c>
       <c r="AV13" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AY13" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="AZ13" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="BC13" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="BD13" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="BE13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BF13" t="n">
-        <v>12.5</v>
+        <v>4.6</v>
       </c>
       <c r="BG13" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -3093,16 +3093,16 @@
         <v>2.36</v>
       </c>
       <c r="G14" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="K14" t="n">
         <v>3.4</v>
@@ -3114,25 +3114,25 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
         <v>1.87</v>
@@ -3141,7 +3141,7 @@
         <v>1.34</v>
       </c>
       <c r="W14" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -3150,7 +3150,7 @@
         <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
         <v>90</v>
@@ -3165,7 +3165,7 @@
         <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
         <v>970</v>
@@ -3183,77 +3183,77 @@
         <v>44</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
         <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="n">
         <v>80</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AR14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AS14" t="n">
         <v>5.1</v>
       </c>
-      <c r="AS14" t="n">
-        <v>6</v>
-      </c>
       <c r="AT14" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
       </c>
       <c r="AV14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF14" t="n">
         <v>4.6</v>
       </c>
-      <c r="AW14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>21</v>
-      </c>
       <c r="BG14" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -3275,179 +3275,179 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.76</v>
+        <v>1.8</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X15" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB15" t="n">
         <v>5</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X15" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>24</v>
-      </c>
       <c r="BC15" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BD15" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="BE15" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="BF15" t="n">
-        <v>10.5</v>
+        <v>5.4</v>
       </c>
       <c r="BG15" t="n">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
         <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
         <v>4.3</v>
@@ -3511,19 +3511,19 @@
         <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="T16" t="n">
         <v>1.78</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
         <v>1.34</v>
@@ -3568,7 +3568,7 @@
         <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
         <v>27</v>
@@ -3586,62 +3586,62 @@
         <v>55</v>
       </c>
       <c r="AP16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AQ16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AY16" t="n">
         <v>4.8</v>
       </c>
-      <c r="AR16" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>4.6</v>
-      </c>
       <c r="AZ16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BB16" t="n">
         <v>2.7</v>
       </c>
-      <c r="BA16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BB16" t="n">
+      <c r="BC16" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE16" t="n">
         <v>2.36</v>
       </c>
-      <c r="BC16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>1.78</v>
-      </c>
       <c r="BF16" t="n">
-        <v>5.6</v>
+        <v>2.86</v>
       </c>
       <c r="BG16" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -3663,179 +3663,179 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>2.72</v>
       </c>
       <c r="H17" t="n">
-        <v>1.8</v>
+        <v>2.76</v>
       </c>
       <c r="I17" t="n">
-        <v>1.9</v>
+        <v>3.15</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.21</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.19</v>
-      </c>
       <c r="P17" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T17" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="V17" t="n">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="X17" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AA17" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AC17" t="n">
         <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AF17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
         <v>38</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>46</v>
       </c>
       <c r="AM17" t="n">
         <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.6</v>
+        <v>23</v>
       </c>
       <c r="AP17" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="AQ17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AR17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>14</v>
-      </c>
       <c r="BA17" t="n">
-        <v>21</v>
+        <v>4.3</v>
       </c>
       <c r="BB17" t="n">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="BC17" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="BD17" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="BE17" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="BF17" t="n">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="BG17" t="n">
-        <v>6.2</v>
+        <v>13.5</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
         <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
         <v>2.94</v>
@@ -3878,13 +3878,13 @@
         <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3917,40 +3917,40 @@
         <v>1.42</v>
       </c>
       <c r="W18" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>46</v>
@@ -3962,74 +3962,74 @@
         <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP18" t="n">
-        <v>13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>1.33</v>
       </c>
       <c r="AR18" t="n">
-        <v>18.5</v>
+        <v>1.26</v>
       </c>
       <c r="AS18" t="n">
-        <v>7.2</v>
+        <v>1.25</v>
       </c>
       <c r="AT18" t="n">
-        <v>9.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>1.33</v>
       </c>
       <c r="AV18" t="n">
-        <v>11.5</v>
+        <v>1.33</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
       <c r="AX18" t="n">
-        <v>14</v>
+        <v>1.33</v>
       </c>
       <c r="AY18" t="n">
-        <v>9.800000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="AZ18" t="n">
-        <v>14</v>
+        <v>1.33</v>
       </c>
       <c r="BA18" t="n">
-        <v>7</v>
+        <v>1.21</v>
       </c>
       <c r="BB18" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
       <c r="BC18" t="n">
-        <v>21</v>
+        <v>1.27</v>
       </c>
       <c r="BD18" t="n">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="BE18" t="n">
-        <v>7.8</v>
+        <v>1.25</v>
       </c>
       <c r="BF18" t="n">
-        <v>14</v>
+        <v>1.25</v>
       </c>
       <c r="BG18" t="n">
-        <v>6.6</v>
+        <v>1.14</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -4060,25 +4060,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G19" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H19" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
@@ -4096,22 +4096,22 @@
         <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
         <v>2.88</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05</v>
+        <v>1.53</v>
       </c>
       <c r="U19" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W19" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X19" t="n">
         <v>20</v>
@@ -4138,10 +4138,10 @@
         <v>48</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>24</v>
@@ -4153,7 +4153,7 @@
         <v>50</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="n">
         <v>55</v>
@@ -4168,46 +4168,46 @@
         <v>44</v>
       </c>
       <c r="AP19" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>2.64</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>2.58</v>
       </c>
       <c r="AR19" t="n">
         <v>14.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="AU19" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="AW19" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="AX19" t="n">
         <v>12</v>
       </c>
       <c r="AY19" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="BA19" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="BB19" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="BC19" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="BD19" t="n">
         <v>2.9</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="n">
         <v>3.85</v>
@@ -4266,10 +4266,10 @@
         <v>2.78</v>
       </c>
       <c r="J20" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="K20" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -4278,7 +4278,7 @@
         <v>1.15</v>
       </c>
       <c r="N20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="O20" t="n">
         <v>1.74</v>
@@ -4296,10 +4296,10 @@
         <v>6.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U20" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V20" t="n">
         <v>1.56</v>
@@ -4308,37 +4308,37 @@
         <v>1.35</v>
       </c>
       <c r="X20" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AA20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
         <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
         <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
         <v>120</v>
@@ -4347,7 +4347,7 @@
         <v>110</v>
       </c>
       <c r="AK20" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AL20" t="n">
         <v>150</v>
@@ -4368,10 +4368,10 @@
         <v>5.9</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="AT20" t="n">
         <v>7.2</v>
@@ -4383,41 +4383,41 @@
         <v>12</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AX20" t="n">
-        <v>17</v>
+        <v>5.1</v>
       </c>
       <c r="AY20" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="AZ20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA20" t="n">
         <v>6.2</v>
       </c>
-      <c r="BA20" t="n">
-        <v>7.4</v>
-      </c>
       <c r="BB20" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="BC20" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="BE20" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="BF20" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="BG20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -4448,22 +4448,22 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.98</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.15</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -4481,13 +4481,13 @@
         <v>1.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
         <v>1.13</v>
       </c>
       <c r="S21" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="T21" t="n">
         <v>1.05</v>
@@ -4496,10 +4496,10 @@
         <v>1.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X21" t="n">
         <v>8.4</v>
@@ -4511,10 +4511,10 @@
         <v>18</v>
       </c>
       <c r="AA21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC21" t="n">
         <v>8.199999999999999</v>
@@ -4523,13 +4523,13 @@
         <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
@@ -4550,25 +4550,25 @@
         <v>240</v>
       </c>
       <c r="AN21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AP21" t="n">
         <v>6.8</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AR21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.55</v>
+        <v>7.2</v>
       </c>
       <c r="AU21" t="n">
         <v>6.2</v>
@@ -4577,10 +4577,10 @@
         <v>11.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.3</v>
+        <v>14.5</v>
       </c>
       <c r="AY21" t="n">
         <v>4.1</v>
@@ -4592,13 +4592,13 @@
         <v>5.1</v>
       </c>
       <c r="BB21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BC21" t="n">
         <v>5</v>
       </c>
-      <c r="BC21" t="n">
-        <v>4.9</v>
-      </c>
       <c r="BD21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="BE21" t="n">
         <v>5.3</v>
@@ -4607,11 +4607,11 @@
         <v>5.1</v>
       </c>
       <c r="BG21" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -4645,28 +4645,28 @@
         <v>1.54</v>
       </c>
       <c r="G22" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.16</v>
@@ -4678,7 +4678,7 @@
         <v>1.49</v>
       </c>
       <c r="R22" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S22" t="n">
         <v>2.22</v>
@@ -4690,16 +4690,16 @@
         <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W22" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X22" t="n">
         <v>32</v>
       </c>
       <c r="Y22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z22" t="n">
         <v>60</v>
@@ -4723,7 +4723,7 @@
         <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
         <v>18.5</v>
@@ -4747,19 +4747,19 @@
         <v>5.2</v>
       </c>
       <c r="AO22" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AP22" t="n">
         <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR22" t="n">
         <v>50</v>
       </c>
       <c r="AS22" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
@@ -4789,7 +4789,7 @@
         <v>14</v>
       </c>
       <c r="BC22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BD22" t="n">
         <v>22</v>
@@ -4801,11 +4801,11 @@
         <v>5</v>
       </c>
       <c r="BG22" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -4854,19 +4854,19 @@
         <v>5.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q23" t="n">
         <v>1.51</v>
@@ -4878,7 +4878,7 @@
         <v>2.26</v>
       </c>
       <c r="T23" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U23" t="n">
         <v>2.4</v>
@@ -4890,10 +4890,10 @@
         <v>2.94</v>
       </c>
       <c r="X23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="n">
         <v>65</v>
@@ -4917,7 +4917,7 @@
         <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
@@ -4932,7 +4932,7 @@
         <v>13.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM23" t="n">
         <v>75</v>
@@ -4944,7 +4944,7 @@
         <v>65</v>
       </c>
       <c r="AP23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4953,7 +4953,7 @@
         <v>55</v>
       </c>
       <c r="AS23" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AT23" t="n">
         <v>12</v>
@@ -4995,11 +4995,11 @@
         <v>4.9</v>
       </c>
       <c r="BG23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -5042,28 +5042,28 @@
         <v>11.5</v>
       </c>
       <c r="J24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
         <v>7.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.11</v>
       </c>
       <c r="P24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R24" t="n">
         <v>2.12</v>
@@ -5078,7 +5078,7 @@
         <v>2.36</v>
       </c>
       <c r="V24" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W24" t="n">
         <v>4.2</v>
@@ -5117,7 +5117,7 @@
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
@@ -5126,7 +5126,7 @@
         <v>12</v>
       </c>
       <c r="AL24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
         <v>85</v>
@@ -5135,16 +5135,16 @@
         <v>3.2</v>
       </c>
       <c r="AO24" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AP24" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ24" t="n">
         <v>50</v>
       </c>
       <c r="AR24" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AS24" t="n">
         <v>55</v>
@@ -5165,7 +5165,7 @@
         <v>10.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
         <v>22</v>
@@ -5177,23 +5177,23 @@
         <v>11</v>
       </c>
       <c r="BC24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BD24" t="n">
         <v>23</v>
       </c>
       <c r="BE24" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="BF24" t="n">
         <v>3.15</v>
       </c>
       <c r="BG24" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="G25" t="n">
         <v>1000</v>
@@ -5236,7 +5236,7 @@
         <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
         <v>950</v>
@@ -5257,13 +5257,13 @@
         <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>1.06</v>
+        <v>1.92</v>
       </c>
       <c r="T25" t="n">
         <v>1.05</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -5409,19 +5409,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>1.04</v>
       </c>
       <c r="G26" t="n">
-        <v>1000</v>
+        <v>1.79</v>
       </c>
       <c r="H26" t="n">
         <v>1.04</v>
@@ -5430,13 +5430,13 @@
         <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K26" t="n">
         <v>950</v>
       </c>
       <c r="L26" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
@@ -5445,19 +5445,19 @@
         <v>1.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
         <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="R26" t="n">
         <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
         <v>1.05</v>
@@ -5469,7 +5469,7 @@
         <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -5603,19 +5603,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>1.04</v>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>1000</v>
       </c>
       <c r="H27" t="n">
         <v>1.04</v>
@@ -5624,13 +5624,13 @@
         <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K27" t="n">
         <v>950</v>
       </c>
       <c r="L27" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -5639,19 +5639,19 @@
         <v>1.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
         <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>1.41</v>
+        <v>1.94</v>
       </c>
       <c r="T27" t="n">
         <v>1.05</v>
@@ -5663,7 +5663,7 @@
         <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -5830,7 +5830,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.37</v>
@@ -5845,7 +5845,7 @@
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T28" t="n">
         <v>1.05</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -6000,25 +6000,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="I29" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
@@ -6030,7 +6030,7 @@
         <v>1.35</v>
       </c>
       <c r="P29" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
@@ -6042,16 +6042,16 @@
         <v>3.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V29" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="W29" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X29" t="n">
         <v>19</v>
@@ -6102,68 +6102,68 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AP29" t="n">
         <v>10.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="AR29" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="AU29" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="AV29" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="AW29" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="AX29" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="AY29" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="AZ29" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="BA29" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="BB29" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="BC29" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="BD29" t="n">
-        <v>2.34</v>
+        <v>2.64</v>
       </c>
       <c r="BE29" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="BF29" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="BG29" t="n">
-        <v>2.42</v>
+        <v>14</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -6194,79 +6194,79 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G30" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R30" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V30" t="n">
         <v>1.21</v>
       </c>
       <c r="W30" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X30" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
         <v>15.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB30" t="n">
         <v>7.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AE30" t="n">
         <v>90</v>
@@ -6278,10 +6278,10 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ30" t="n">
         <v>22</v>
@@ -6290,16 +6290,16 @@
         <v>24</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AP30" t="n">
         <v>9.800000000000001</v>
@@ -6308,13 +6308,13 @@
         <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>29</v>
+        <v>7.4</v>
       </c>
       <c r="AS30" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
       <c r="AT30" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="AU30" t="n">
         <v>7.2</v>
@@ -6323,19 +6323,19 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>55</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AY30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ30" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="BA30" t="n">
-        <v>5.7</v>
+        <v>8.4</v>
       </c>
       <c r="BB30" t="n">
         <v>16.5</v>
@@ -6344,20 +6344,20 @@
         <v>18.5</v>
       </c>
       <c r="BD30" t="n">
-        <v>5.1</v>
+        <v>7.6</v>
       </c>
       <c r="BE30" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
       <c r="BF30" t="n">
         <v>13</v>
       </c>
       <c r="BG30" t="n">
-        <v>5.7</v>
+        <v>8.4</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -6406,152 +6406,152 @@
         <v>3.1</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P31" t="n">
         <v>1.42</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AU31" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AW31" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AX31" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BA31" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="BB31" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="BC31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BD31" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="BE31" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF31" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="BG31" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G32" t="n">
         <v>2.04</v>
       </c>
       <c r="H32" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="I32" t="n">
         <v>6.4</v>
@@ -6600,16 +6600,16 @@
         <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P32" t="n">
         <v>1.43</v>
@@ -6618,134 +6618,134 @@
         <v>2.92</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS32" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AT32" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AU32" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AV32" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AW32" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AX32" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AY32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BA32" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BB32" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="BC32" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BD32" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="BE32" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BF32" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BG32" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -6762,36 +6762,36 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.84</v>
+        <v>2.7</v>
       </c>
       <c r="G33" t="n">
-        <v>1.97</v>
+        <v>3.85</v>
       </c>
       <c r="H33" t="n">
-        <v>4.6</v>
+        <v>1.35</v>
       </c>
       <c r="I33" t="n">
-        <v>5.9</v>
+        <v>3.05</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -6806,10 +6806,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.77</v>
+        <v>1.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -6939,14 +6939,14 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6956,184 +6956,184 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M34" t="n">
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.02</v>
+        <v>2.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S34" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V34" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W34" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AU34" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AV34" t="n">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AW34" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AX34" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AY34" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AZ34" t="n">
-        <v>1.01</v>
+        <v>18</v>
       </c>
       <c r="BA34" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BB34" t="n">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="BC34" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="BD34" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BE34" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BF34" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="BG34" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -7155,12 +7155,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -7182,16 +7182,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P35" t="n">
         <v>1.24</v>
@@ -7200,134 +7200,328 @@
         <v>1.01</v>
       </c>
       <c r="R35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:25:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
         <v>0</v>
       </c>
-      <c r="S35" t="n">
+      <c r="G36" t="n">
         <v>0</v>
       </c>
-      <c r="T35" t="n">
+      <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="U35" t="n">
+      <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="V35" t="n">
+      <c r="J36" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="n">
+      <c r="K36" t="n">
         <v>0</v>
       </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH35" t="inlineStr">
-        <is>
-          <t>2026-02-23 19:17:22</t>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -768,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I2" t="n">
         <v>2.56</v>
@@ -786,7 +786,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
@@ -801,10 +801,10 @@
         <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
         <v>2.04</v>
@@ -822,7 +822,7 @@
         <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -837,7 +837,7 @@
         <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -870,7 +870,7 @@
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -882,7 +882,7 @@
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AU2" t="n">
         <v>6.8</v>
@@ -894,7 +894,7 @@
         <v>4.1</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.2</v>
+        <v>19.5</v>
       </c>
       <c r="AY2" t="n">
         <v>13</v>
@@ -906,7 +906,7 @@
         <v>4.3</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BC2" t="n">
         <v>4.2</v>
@@ -915,7 +915,7 @@
         <v>4.2</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BF2" t="n">
         <v>4.2</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
@@ -968,10 +968,10 @@
         <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.35</v>
@@ -1007,10 +1007,10 @@
         <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>16</v>
@@ -1019,13 +1019,13 @@
         <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>14.5</v>
@@ -1040,7 +1040,7 @@
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI3" t="n">
         <v>42</v>
@@ -1067,13 +1067,13 @@
         <v>18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AT3" t="n">
         <v>11</v>
@@ -1082,7 +1082,7 @@
         <v>8.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AW3" t="n">
         <v>32</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>36</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>2.9</v>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
         <v>2.7</v>
@@ -1189,7 +1189,7 @@
         <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
         <v>1.68</v>
@@ -1201,7 +1201,7 @@
         <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
         <v>16.5</v>
@@ -1210,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
         <v>42</v>
@@ -1222,7 +1222,7 @@
         <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>32</v>
@@ -1246,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
         <v>80</v>
@@ -1258,7 +1258,7 @@
         <v>25</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>10</v>
@@ -1267,13 +1267,13 @@
         <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AT4" t="n">
         <v>11</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV4" t="n">
         <v>10.5</v>
@@ -1288,10 +1288,10 @@
         <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13</v>
+        <v>5.7</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BB4" t="n">
         <v>38</v>
@@ -1303,7 +1303,7 @@
         <v>34</v>
       </c>
       <c r="BE4" t="n">
-        <v>7.6</v>
+        <v>60</v>
       </c>
       <c r="BF4" t="n">
         <v>19.5</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1380,16 +1380,16 @@
         <v>1.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="T5" t="n">
         <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
         <v>3.2</v>
@@ -1404,7 +1404,7 @@
         <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>14</v>
@@ -1455,7 +1455,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AR5" t="n">
         <v>10.5</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
         <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
         <v>2.42</v>
@@ -1977,7 +1977,7 @@
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
         <v>2.06</v>
@@ -2129,16 +2129,16 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -2350,10 +2350,10 @@
         <v>1.27</v>
       </c>
       <c r="R10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="T10" t="n">
         <v>1.84</v>
@@ -2368,7 +2368,7 @@
         <v>1.04</v>
       </c>
       <c r="X10" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
@@ -2449,16 +2449,16 @@
         <v>8.4</v>
       </c>
       <c r="AY10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>7.6</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="BA10" t="n">
         <v>7.4</v>
       </c>
-      <c r="BA10" t="n">
-        <v>7.2</v>
-      </c>
       <c r="BB10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BC10" t="n">
         <v>8.4</v>
@@ -2470,14 +2470,14 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BF10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
         <v>3.25</v>
@@ -2538,16 +2538,16 @@
         <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
         <v>1.8</v>
@@ -2562,7 +2562,7 @@
         <v>1.47</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
         <v>970</v>
@@ -2616,62 +2616,62 @@
         <v>1000</v>
       </c>
       <c r="AP11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR11" t="n">
         <v>1.51</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AS11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE11" t="n">
         <v>1.37</v>
       </c>
-      <c r="AT11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>1.4</v>
-      </c>
       <c r="BF11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
         <v>2.6</v>
@@ -2711,7 +2711,7 @@
         <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
         <v>2.54</v>
@@ -2762,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
         <v>120</v>
@@ -2792,7 +2792,7 @@
         <v>130</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="n">
         <v>44</v>
@@ -2813,7 +2813,7 @@
         <v>3.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AR12" t="n">
         <v>4.8</v>
@@ -2825,7 +2825,7 @@
         <v>5.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AV12" t="n">
         <v>4.5</v>
@@ -2837,7 +2837,7 @@
         <v>4.3</v>
       </c>
       <c r="AY12" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="AZ12" t="n">
         <v>4.8</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -2908,19 +2908,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="M13" t="n">
         <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="O13" t="n">
         <v>1.52</v>
@@ -2938,7 +2938,7 @@
         <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="U13" t="n">
         <v>1.51</v>
@@ -2947,7 +2947,7 @@
         <v>1.14</v>
       </c>
       <c r="W13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2962,7 +2962,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
@@ -2974,7 +2974,7 @@
         <v>200</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
         <v>970</v>
@@ -2986,7 +2986,7 @@
         <v>210</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2998,7 +2998,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -3007,13 +3007,13 @@
         <v>8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AR13" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="AS13" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AT13" t="n">
         <v>5</v>
@@ -3022,22 +3022,22 @@
         <v>7.6</v>
       </c>
       <c r="AV13" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX13" t="n">
         <v>6.8</v>
       </c>
       <c r="AY13" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AZ13" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB13" t="n">
         <v>13</v>
@@ -3046,20 +3046,20 @@
         <v>19</v>
       </c>
       <c r="BD13" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="BE13" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="BF13" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="BG13" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -3090,10 +3090,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H14" t="n">
         <v>3.55</v>
@@ -3102,10 +3102,10 @@
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -3114,13 +3114,13 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O14" t="n">
         <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q14" t="n">
         <v>2.34</v>
@@ -3132,7 +3132,7 @@
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
         <v>1.87</v>
@@ -3141,7 +3141,7 @@
         <v>1.34</v>
       </c>
       <c r="W14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -3150,7 +3150,7 @@
         <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
         <v>90</v>
@@ -3159,7 +3159,7 @@
         <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
         <v>970</v>
@@ -3171,7 +3171,7 @@
         <v>970</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
         <v>970</v>
@@ -3180,7 +3180,7 @@
         <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
         <v>38</v>
@@ -3198,62 +3198,62 @@
         <v>80</v>
       </c>
       <c r="AP14" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AR14" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="AS14" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AY14" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="BA14" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="BB14" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="BD14" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="BE14" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="BF14" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="BG14" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
         <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I15" t="n">
         <v>1.9</v>
@@ -3299,7 +3299,7 @@
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.24</v>
@@ -3347,7 +3347,7 @@
         <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB15" t="n">
         <v>27</v>
@@ -3416,7 +3416,7 @@
         <v>14.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3428,16 +3428,16 @@
         <v>21</v>
       </c>
       <c r="BB15" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BC15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BD15" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BE15" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BF15" t="n">
         <v>5.4</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>
@@ -3511,7 +3511,7 @@
         <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R16" t="n">
         <v>1.31</v>
@@ -3592,22 +3592,22 @@
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>4.6</v>
+        <v>2.48</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AU16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AV16" t="n">
         <v>5.2</v>
       </c>
       <c r="AW16" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="AX16" t="n">
         <v>5.1</v>
@@ -3619,29 +3619,29 @@
         <v>5.5</v>
       </c>
       <c r="BA16" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="BB16" t="n">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="BC16" t="n">
-        <v>2.94</v>
+        <v>2.48</v>
       </c>
       <c r="BD16" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="BE16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG16" t="n">
         <v>2.36</v>
       </c>
-      <c r="BF16" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>2.3</v>
-      </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -3675,28 +3675,28 @@
         <v>2.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
         <v>2.76</v>
       </c>
       <c r="I17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
@@ -3705,7 +3705,7 @@
         <v>2.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="R17" t="n">
         <v>1.54</v>
@@ -3720,10 +3720,10 @@
         <v>2.26</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W17" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -3750,7 +3750,7 @@
         <v>36</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>15</v>
@@ -3771,7 +3771,7 @@
         <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
         <v>17.5</v>
@@ -3780,7 +3780,7 @@
         <v>23</v>
       </c>
       <c r="AP17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AQ17" t="n">
         <v>3.6</v>
@@ -3792,16 +3792,16 @@
         <v>4.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="AV17" t="n">
-        <v>9.800000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AW17" t="n">
-        <v>20</v>
+        <v>3.85</v>
       </c>
       <c r="AX17" t="n">
         <v>3.7</v>
@@ -3810,32 +3810,32 @@
         <v>3.55</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10.5</v>
+        <v>3.7</v>
       </c>
       <c r="BA17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BB17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="BC17" t="n">
         <v>3.8</v>
       </c>
       <c r="BD17" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="BE17" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="BF17" t="n">
-        <v>10.5</v>
+        <v>3.55</v>
       </c>
       <c r="BG17" t="n">
-        <v>13.5</v>
+        <v>3.7</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
         <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
@@ -3938,7 +3938,7 @@
         <v>970</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
         <v>36</v>
@@ -3953,7 +3953,7 @@
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>36</v>
@@ -3974,62 +3974,62 @@
         <v>30</v>
       </c>
       <c r="AP18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC18" t="n">
         <v>1.24</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>1.27</v>
-      </c>
       <c r="BD18" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BE18" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -4060,25 +4060,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G19" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
         <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
@@ -4108,7 +4108,7 @@
         <v>1.81</v>
       </c>
       <c r="V19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
         <v>1.5</v>
@@ -4171,19 +4171,19 @@
         <v>2.68</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AR19" t="n">
         <v>14.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AT19" t="n">
         <v>2.6</v>
       </c>
       <c r="AU19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="AV19" t="n">
         <v>2.68</v>
@@ -4195,7 +4195,7 @@
         <v>12</v>
       </c>
       <c r="AY19" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AZ19" t="n">
         <v>2.76</v>
@@ -4210,7 +4210,7 @@
         <v>2.84</v>
       </c>
       <c r="BD19" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="BE19" t="n">
         <v>3.05</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -4278,13 +4278,13 @@
         <v>1.15</v>
       </c>
       <c r="N20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O20" t="n">
         <v>1.74</v>
       </c>
       <c r="P20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q20" t="n">
         <v>3.25</v>
@@ -4293,10 +4293,10 @@
         <v>1.12</v>
       </c>
       <c r="S20" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U20" t="n">
         <v>1.58</v>
@@ -4386,19 +4386,19 @@
         <v>5.9</v>
       </c>
       <c r="AX20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AY20" t="n">
         <v>4.8</v>
       </c>
       <c r="AZ20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BA20" t="n">
         <v>6.2</v>
       </c>
       <c r="BB20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="G21" t="n">
         <v>3.35</v>
@@ -4457,7 +4457,7 @@
         <v>2.8</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J21" t="n">
         <v>2.92</v>
@@ -4496,7 +4496,7 @@
         <v>1.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W21" t="n">
         <v>1.43</v>
@@ -4508,10 +4508,10 @@
         <v>9.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB21" t="n">
         <v>10</v>
@@ -4523,7 +4523,7 @@
         <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF21" t="n">
         <v>21</v>
@@ -4565,7 +4565,7 @@
         <v>12.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AT21" t="n">
         <v>7.2</v>
@@ -4577,41 +4577,41 @@
         <v>11.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY21" t="n">
-        <v>4.1</v>
+        <v>12.5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="BA21" t="n">
         <v>5.1</v>
       </c>
       <c r="BB21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BD21" t="n">
         <v>5.1</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>5.2</v>
       </c>
       <c r="BE21" t="n">
         <v>5.3</v>
       </c>
       <c r="BF21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="BG21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
         <v>1.56</v>
       </c>
       <c r="H22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
         <v>6.2</v>
@@ -4681,7 +4681,7 @@
         <v>1.78</v>
       </c>
       <c r="S22" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T22" t="n">
         <v>1.66</v>
@@ -4693,7 +4693,7 @@
         <v>1.19</v>
       </c>
       <c r="W22" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X22" t="n">
         <v>32</v>
@@ -4753,7 +4753,7 @@
         <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR22" t="n">
         <v>50</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -4842,13 +4842,13 @@
         <v>1.52</v>
       </c>
       <c r="H23" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I23" t="n">
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K23" t="n">
         <v>5.3</v>
@@ -4887,7 +4887,7 @@
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="X23" t="n">
         <v>27</v>
@@ -4896,7 +4896,7 @@
         <v>32</v>
       </c>
       <c r="Z23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA23" t="n">
         <v>170</v>
@@ -4974,7 +4974,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA23" t="n">
         <v>55</v>
@@ -4995,11 +4995,11 @@
         <v>4.9</v>
       </c>
       <c r="BG23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
         <v>7</v>
       </c>
       <c r="K24" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.2</v>
@@ -5117,7 +5117,7 @@
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
@@ -5144,13 +5144,13 @@
         <v>50</v>
       </c>
       <c r="AR24" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AS24" t="n">
         <v>55</v>
       </c>
       <c r="AT24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AU24" t="n">
         <v>16</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -5257,10 +5257,10 @@
         <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S25" t="n">
         <v>1.92</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
         <v>1.33</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S26" t="n">
         <v>2</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
         <v>1.28</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S27" t="n">
         <v>1.94</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
         <v>2.32</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="J29" t="n">
         <v>3.35</v>
@@ -6039,7 +6039,7 @@
         <v>1.26</v>
       </c>
       <c r="S29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
         <v>1.05</v>
@@ -6048,7 +6048,7 @@
         <v>1.05</v>
       </c>
       <c r="V29" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W29" t="n">
         <v>1.37</v>
@@ -6111,7 +6111,7 @@
         <v>10.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AR29" t="n">
         <v>2.46</v>
@@ -6120,13 +6120,13 @@
         <v>2.6</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AU29" t="n">
         <v>2.2</v>
       </c>
       <c r="AV29" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AW29" t="n">
         <v>2.56</v>
@@ -6135,10 +6135,10 @@
         <v>2.54</v>
       </c>
       <c r="AY29" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="AZ29" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="BA29" t="n">
         <v>2.62</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G30" t="n">
         <v>1.92</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
         <v>2.76</v>
       </c>
       <c r="J31" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="K31" t="n">
         <v>3.1</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -6594,13 +6594,13 @@
         <v>6.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
         <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="M32" t="n">
         <v>1.14</v>
@@ -6609,10 +6609,10 @@
         <v>2.32</v>
       </c>
       <c r="O32" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="P32" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
         <v>2.92</v>
@@ -6648,7 +6648,7 @@
         <v>250</v>
       </c>
       <c r="AB32" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC32" t="n">
         <v>8.199999999999999</v>
@@ -6699,19 +6699,19 @@
         <v>6</v>
       </c>
       <c r="AS32" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AT32" t="n">
         <v>5.1</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV32" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AW32" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AX32" t="n">
         <v>8.4</v>
@@ -6720,19 +6720,19 @@
         <v>10</v>
       </c>
       <c r="AZ32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BC32" t="n">
         <v>5.6</v>
       </c>
-      <c r="BA32" t="n">
+      <c r="BD32" t="n">
         <v>6.4</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>6.2</v>
       </c>
       <c r="BE32" t="n">
         <v>6.6</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -6776,13 +6776,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="G33" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H33" t="n">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="I33" t="n">
         <v>3.05</v>
@@ -6791,7 +6791,7 @@
         <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -6809,7 +6809,7 @@
         <v>1.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -7006,10 +7006,10 @@
         <v>2.08</v>
       </c>
       <c r="R34" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T34" t="n">
         <v>1.05</v>
@@ -7084,7 +7084,7 @@
         <v>12.5</v>
       </c>
       <c r="AR34" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AS34" t="n">
         <v>6.2</v>
@@ -7120,7 +7120,7 @@
         <v>19</v>
       </c>
       <c r="BD34" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BE34" t="n">
         <v>6.2</v>
@@ -7129,11 +7129,11 @@
         <v>11.5</v>
       </c>
       <c r="BG34" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH36"/>
+  <dimension ref="A1:BH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,10 +792,10 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
         <v>1.23</v>
@@ -837,13 +837,13 @@
         <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH2" t="n">
         <v>970</v>
@@ -867,16 +867,16 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR2" t="n">
         <v>10</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>11.5</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -885,22 +885,22 @@
         <v>11.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW2" t="n">
         <v>4.1</v>
       </c>
       <c r="AX2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>13</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>4.3</v>
@@ -921,11 +921,11 @@
         <v>4.2</v>
       </c>
       <c r="BG2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
@@ -974,7 +974,7 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -995,7 +995,7 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
         <v>1.67</v>
@@ -1010,16 +1010,16 @@
         <v>1.86</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
@@ -1043,16 +1043,16 @@
         <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>70</v>
@@ -1064,10 +1064,10 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G4" t="n">
         <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I4" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
@@ -1198,10 +1198,10 @@
         <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X4" t="n">
         <v>16.5</v>
@@ -1240,7 +1240,7 @@
         <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="n">
         <v>34</v>
@@ -1252,7 +1252,7 @@
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
         <v>25</v>
@@ -1288,7 +1288,7 @@
         <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="BA4" t="n">
         <v>7.4</v>
@@ -1297,7 +1297,7 @@
         <v>38</v>
       </c>
       <c r="BC4" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BD4" t="n">
         <v>34</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>1.41</v>
       </c>
       <c r="I5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
@@ -1362,7 +1362,7 @@
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1377,22 +1377,22 @@
         <v>3.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S5" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="T5" t="n">
         <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W5" t="n">
         <v>1.13</v>
@@ -1404,7 +1404,7 @@
         <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
         <v>14</v>
@@ -1455,7 +1455,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AQ5" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AR5" t="n">
         <v>10.5</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -2305,179 +2305,179 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>16.5</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.17</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.21</v>
+        <v>2.84</v>
       </c>
       <c r="J10" t="n">
-        <v>9.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X10" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>1.08</v>
       </c>
-      <c r="P10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="X10" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>230</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>260</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>220</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>16</v>
-      </c>
       <c r="AR10" t="n">
-        <v>10.5</v>
+        <v>1.08</v>
       </c>
       <c r="AS10" t="n">
-        <v>9.4</v>
+        <v>1.08</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>1.08</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>1.08</v>
       </c>
       <c r="AV10" t="n">
-        <v>12</v>
+        <v>1.08</v>
       </c>
       <c r="AW10" t="n">
-        <v>11.5</v>
+        <v>1.08</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.4</v>
+        <v>1.08</v>
       </c>
       <c r="AY10" t="n">
-        <v>8</v>
+        <v>1.08</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7.6</v>
+        <v>1.08</v>
       </c>
       <c r="BA10" t="n">
-        <v>7.4</v>
+        <v>1.08</v>
       </c>
       <c r="BB10" t="n">
-        <v>8.6</v>
+        <v>1.08</v>
       </c>
       <c r="BC10" t="n">
-        <v>8.4</v>
+        <v>1.08</v>
       </c>
       <c r="BD10" t="n">
-        <v>8.199999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="BE10" t="n">
-        <v>8.199999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="BF10" t="n">
-        <v>8.4</v>
+        <v>1.08</v>
       </c>
       <c r="BG10" t="n">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -2499,179 +2499,179 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.82</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>2.58</v>
+        <v>1.17</v>
       </c>
       <c r="I11" t="n">
-        <v>2.84</v>
+        <v>1.21</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>10.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>4.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>1.27</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>2.26</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>1.64</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.54</v>
+        <v>5.8</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC11" t="n">
         <v>25</v>
       </c>
-      <c r="AA11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>970</v>
-      </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AG11" t="n">
         <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>2.56</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.37</v>
+        <v>7.6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.78</v>
+        <v>16</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.51</v>
+        <v>10.5</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.34</v>
+        <v>9.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.78</v>
+        <v>7.8</v>
       </c>
       <c r="AU11" t="n">
-        <v>2.32</v>
+        <v>21</v>
       </c>
       <c r="AV11" t="n">
-        <v>1.62</v>
+        <v>12</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.33</v>
+        <v>11.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.48</v>
+        <v>50</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.4</v>
+        <v>7.6</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.34</v>
+        <v>7.4</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.34</v>
+        <v>8.6</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.33</v>
+        <v>8.4</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.34</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.37</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.33</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.33</v>
+        <v>2.12</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -2702,28 +2702,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
         <v>2.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N12" t="n">
         <v>2.04</v>
@@ -2756,13 +2756,13 @@
         <v>1.62</v>
       </c>
       <c r="X12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA12" t="n">
         <v>120</v>
@@ -2795,7 +2795,7 @@
         <v>40</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2810,40 +2810,40 @@
         <v>150</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AR12" t="n">
         <v>4.8</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AT12" t="n">
         <v>5.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AX12" t="n">
         <v>4.3</v>
       </c>
       <c r="AY12" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AZ12" t="n">
         <v>4.8</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="BB12" t="n">
         <v>5.1</v>
@@ -2852,20 +2852,20 @@
         <v>5.1</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="BE12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="BF12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="BG12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -2923,13 +2923,13 @@
         <v>2.62</v>
       </c>
       <c r="O13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P13" t="n">
         <v>1.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
         <v>1.19</v>
@@ -2962,10 +2962,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD13" t="n">
         <v>970</v>
@@ -2989,7 +2989,7 @@
         <v>970</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
         <v>70</v>
@@ -3007,59 +3007,59 @@
         <v>8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AR13" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AU13" t="n">
         <v>7.6</v>
       </c>
       <c r="AV13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AW13" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AX13" t="n">
         <v>6.8</v>
       </c>
       <c r="AY13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AZ13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BC13" t="n">
         <v>6.6</v>
       </c>
-      <c r="BA13" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>19</v>
-      </c>
       <c r="BD13" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BE13" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="BF13" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="BG13" t="n">
-        <v>5.4</v>
+        <v>2.92</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
         <v>1.87</v>
@@ -3192,7 +3192,7 @@
         <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
         <v>80</v>
@@ -3204,34 +3204,34 @@
         <v>4.7</v>
       </c>
       <c r="AR14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AS14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AW14" t="n">
         <v>6.2</v>
       </c>
       <c r="AX14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AY14" t="n">
         <v>4.7</v>
       </c>
-      <c r="AY14" t="n">
-        <v>4.8</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BA14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BB14" t="n">
         <v>5.9</v>
@@ -3246,14 +3246,14 @@
         <v>6.6</v>
       </c>
       <c r="BF14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BG14" t="n">
         <v>6.2</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -3275,179 +3275,179 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.78</v>
+        <v>2.94</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>2.48</v>
+        <v>1.97</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="R15" t="n">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="S15" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="W15" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="X15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="AQ15" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR15" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS15" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="AT15" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AV15" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AW15" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="AX15" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="BA15" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="BB15" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="BC15" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="BD15" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="BE15" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="BF15" t="n">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="BG15" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -3469,179 +3469,179 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.44</v>
+        <v>2.94</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>1.86</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
         <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AK16" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AP16" t="n">
-        <v>5.1</v>
+        <v>11</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>2.64</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.48</v>
+        <v>14.5</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="AT16" t="n">
-        <v>4.7</v>
+        <v>2.58</v>
       </c>
       <c r="AU16" t="n">
-        <v>4.2</v>
+        <v>2.44</v>
       </c>
       <c r="AV16" t="n">
-        <v>5.2</v>
+        <v>2.68</v>
       </c>
       <c r="AW16" t="n">
-        <v>2.02</v>
+        <v>3.05</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.1</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>4.8</v>
+        <v>2.64</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5.5</v>
+        <v>2.76</v>
       </c>
       <c r="BA16" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="BB16" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="BC16" t="n">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="BD16" t="n">
-        <v>2</v>
+        <v>2.94</v>
       </c>
       <c r="BE16" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="BF16" t="n">
-        <v>2.42</v>
+        <v>15</v>
       </c>
       <c r="BG16" t="n">
-        <v>2.36</v>
+        <v>19</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -3663,179 +3663,179 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="H17" t="n">
-        <v>2.76</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.3</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>1.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.99</v>
       </c>
       <c r="R17" t="n">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="S17" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.46</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE17" t="n">
         <v>55</v>
       </c>
-      <c r="AB17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>36</v>
       </c>
-      <c r="AF17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>42</v>
-      </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AP17" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AR17" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="AU17" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="AV17" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.85</v>
+        <v>2.18</v>
       </c>
       <c r="AX17" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="AY17" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>4.2</v>
+        <v>2.64</v>
       </c>
       <c r="BB17" t="n">
-        <v>3.9</v>
+        <v>2.54</v>
       </c>
       <c r="BC17" t="n">
-        <v>3.8</v>
+        <v>2.48</v>
       </c>
       <c r="BD17" t="n">
-        <v>3.85</v>
+        <v>2.16</v>
       </c>
       <c r="BE17" t="n">
-        <v>4</v>
+        <v>2.22</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.55</v>
+        <v>2.42</v>
       </c>
       <c r="BG17" t="n">
-        <v>3.7</v>
+        <v>2.58</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2.94</v>
+        <v>1.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>1.97</v>
+        <v>2.48</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>2.42</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="X18" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.3</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.4</v>
+        <v>10.5</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.23</v>
+        <v>11.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.3</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.3</v>
+        <v>18.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.3</v>
+        <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.25</v>
+        <v>14.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="AY18" t="n">
-        <v>1.4</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>1.3</v>
+        <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.25</v>
+        <v>5.2</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.24</v>
+        <v>5.1</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="BE18" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.22</v>
+        <v>5.3</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.17</v>
+        <v>6.2</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -4051,186 +4051,186 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="I19" t="n">
         <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>1.86</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.88</v>
+        <v>2.28</v>
       </c>
       <c r="T19" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="U19" t="n">
-        <v>1.81</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
         <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK19" t="n">
         <v>29</v>
       </c>
-      <c r="AA19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>40</v>
-      </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.68</v>
+        <v>3.75</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="AR19" t="n">
-        <v>14.5</v>
+        <v>3.75</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="AU19" t="n">
-        <v>2.46</v>
+        <v>3.15</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.68</v>
+        <v>3.4</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="AX19" t="n">
-        <v>12</v>
+        <v>3.65</v>
       </c>
       <c r="AY19" t="n">
-        <v>2.66</v>
+        <v>3.55</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2.76</v>
+        <v>3.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="BB19" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="BC19" t="n">
-        <v>2.84</v>
+        <v>3.8</v>
       </c>
       <c r="BD19" t="n">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="BE19" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="BF19" t="n">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="BG19" t="n">
-        <v>19</v>
+        <v>3.7</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4245,186 +4245,186 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="G20" t="n">
-        <v>3.85</v>
+        <v>1.31</v>
       </c>
       <c r="H20" t="n">
-        <v>2.58</v>
+        <v>10.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.78</v>
+        <v>11.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.76</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>2.94</v>
+        <v>7.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>2.16</v>
+        <v>9.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>1.36</v>
+        <v>3.8</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN20" t="n">
         <v>3.25</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AO20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AX20" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>380</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>160</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5.2</v>
-      </c>
       <c r="AY20" t="n">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="AZ20" t="n">
-        <v>5.6</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>6.2</v>
+        <v>75</v>
       </c>
       <c r="BB20" t="n">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="BD20" t="n">
-        <v>6.2</v>
+        <v>23</v>
       </c>
       <c r="BE20" t="n">
-        <v>6.4</v>
+        <v>55</v>
       </c>
       <c r="BF20" t="n">
-        <v>6.2</v>
+        <v>3.15</v>
       </c>
       <c r="BG20" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4439,186 +4439,186 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.94</v>
+        <v>1.51</v>
       </c>
       <c r="G21" t="n">
-        <v>3.35</v>
+        <v>1.52</v>
       </c>
       <c r="H21" t="n">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.15</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W21" t="n">
         <v>2.92</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X21" t="n">
-        <v>8.4</v>
+        <v>27</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.4</v>
+        <v>32</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AA21" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS21" t="n">
         <v>60</v>
       </c>
-      <c r="AB21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AT21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA21" t="n">
         <v>55</v>
       </c>
-      <c r="AF21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="BB21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BC21" t="n">
         <v>12.5</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="BD21" t="n">
+        <v>23</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>65</v>
+      </c>
+      <c r="BF21" t="n">
         <v>4.9</v>
       </c>
-      <c r="AT21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>5</v>
-      </c>
       <c r="BG21" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4633,186 +4633,186 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.54</v>
+        <v>3.5</v>
       </c>
       <c r="G22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.56</v>
       </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="W22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>380</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>160</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AU22" t="n">
         <v>6.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="AV22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW22" t="n">
         <v>5.3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="AX22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC22" t="n">
         <v>5.4</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X22" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>13</v>
-      </c>
       <c r="BD22" t="n">
-        <v>22</v>
+        <v>5.6</v>
       </c>
       <c r="BE22" t="n">
-        <v>60</v>
+        <v>5.7</v>
       </c>
       <c r="BF22" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="BG22" t="n">
-        <v>42</v>
+        <v>5.3</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4827,179 +4827,179 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.51</v>
+        <v>2.94</v>
       </c>
       <c r="G23" t="n">
-        <v>1.52</v>
+        <v>3.35</v>
       </c>
       <c r="H23" t="n">
-        <v>6.6</v>
+        <v>2.82</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S23" t="n">
         <v>5.1</v>
       </c>
-      <c r="K23" t="n">
+      <c r="T23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BE23" t="n">
         <v>5.3</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="X23" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>23</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>65</v>
-      </c>
       <c r="BF23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BG23" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -5021,179 +5021,179 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="G24" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG24" t="n">
         <v>10.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>48</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AL24" t="n">
         <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AO24" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AP24" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR24" t="n">
         <v>50</v>
       </c>
-      <c r="AR24" t="n">
-        <v>100</v>
-      </c>
       <c r="AS24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW24" t="n">
         <v>55</v>
       </c>
-      <c r="AT24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>100</v>
-      </c>
       <c r="AX24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ24" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>48</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD24" t="n">
         <v>22</v>
       </c>
-      <c r="BA24" t="n">
-        <v>75</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>23</v>
-      </c>
       <c r="BE24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BF24" t="n">
-        <v>3.15</v>
+        <v>5.1</v>
       </c>
       <c r="BG24" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -5215,16 +5215,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
         <v>1000</v>
@@ -5236,13 +5236,13 @@
         <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K25" t="n">
         <v>950</v>
       </c>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
@@ -5257,13 +5257,13 @@
         <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T25" t="n">
         <v>1.05</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -5409,19 +5409,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>1.04</v>
       </c>
       <c r="G26" t="n">
-        <v>1.79</v>
+        <v>1000</v>
       </c>
       <c r="H26" t="n">
         <v>1.04</v>
@@ -5436,7 +5436,7 @@
         <v>950</v>
       </c>
       <c r="L26" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
@@ -5445,19 +5445,19 @@
         <v>1.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.21</v>
-      </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T26" t="n">
         <v>1.05</v>
@@ -5469,7 +5469,7 @@
         <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -5603,19 +5603,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>1.04</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>1.79</v>
       </c>
       <c r="H27" t="n">
         <v>1.04</v>
@@ -5624,13 +5624,13 @@
         <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K27" t="n">
         <v>950</v>
       </c>
       <c r="L27" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -5639,19 +5639,19 @@
         <v>1.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
         <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="R27" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
         <v>1.05</v>
@@ -5663,7 +5663,7 @@
         <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
         <v>1.1</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
         <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
         <v>3.35</v>
@@ -6054,7 +6054,7 @@
         <v>1.37</v>
       </c>
       <c r="X29" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
         <v>14.5</v>
@@ -6108,62 +6108,62 @@
         <v>34</v>
       </c>
       <c r="AP29" t="n">
-        <v>10.5</v>
+        <v>2.4</v>
       </c>
       <c r="AQ29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD29" t="n">
         <v>2.32</v>
       </c>
-      <c r="AR29" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AT29" t="n">
+      <c r="BE29" t="n">
         <v>2.4</v>
       </c>
-      <c r="AU29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>2.74</v>
-      </c>
       <c r="BF29" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="BG29" t="n">
         <v>14</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
         <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z30" t="n">
         <v>40</v>
@@ -6311,7 +6311,7 @@
         <v>7.4</v>
       </c>
       <c r="AS30" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AT30" t="n">
         <v>6.2</v>
@@ -6323,7 +6323,7 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AX30" t="n">
         <v>8.800000000000001</v>
@@ -6347,24 +6347,24 @@
         <v>7.6</v>
       </c>
       <c r="BE30" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF30" t="n">
         <v>13</v>
       </c>
       <c r="BG30" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6379,179 +6379,179 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2.52</v>
+        <v>1.37</v>
       </c>
       <c r="I31" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>3.1</v>
+        <v>950</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2.34</v>
       </c>
       <c r="R31" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AQ31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AT31" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AX31" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AY31" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AZ31" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="BA31" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="BB31" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="BC31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BD31" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="BE31" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF31" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="BG31" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -6573,186 +6573,186 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.88</v>
+        <v>3.35</v>
       </c>
       <c r="G32" t="n">
-        <v>2.04</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
-        <v>5.4</v>
+        <v>2.52</v>
       </c>
       <c r="I32" t="n">
-        <v>6.4</v>
+        <v>2.76</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.65</v>
       </c>
-      <c r="M32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S32" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.58</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="W32" t="n">
-        <v>1.96</v>
+        <v>1.37</v>
       </c>
       <c r="X32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB32" t="n">
         <v>9</v>
       </c>
-      <c r="Y32" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>5.9</v>
-      </c>
       <c r="AC32" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AH32" t="n">
         <v>970</v>
       </c>
       <c r="AI32" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AL32" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AM32" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="AN32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AQ32" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="AR32" t="n">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AT32" t="n">
-        <v>5.1</v>
+        <v>7.6</v>
       </c>
       <c r="AU32" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AV32" t="n">
-        <v>5.6</v>
+        <v>11.5</v>
       </c>
       <c r="AW32" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AX32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BA32" t="n">
         <v>8.4</v>
       </c>
-      <c r="AY32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>6.6</v>
-      </c>
       <c r="BB32" t="n">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="BC32" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="BD32" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="BE32" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF32" t="n">
-        <v>21</v>
+        <v>8.6</v>
       </c>
       <c r="BG32" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6767,179 +6767,179 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>2.04</v>
       </c>
       <c r="H33" t="n">
-        <v>2.14</v>
+        <v>5.4</v>
       </c>
       <c r="I33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.05</v>
       </c>
-      <c r="J33" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.34</v>
+        <v>2.92</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS33" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AU33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AW33" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="BA33" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BB33" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="BC33" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BD33" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BE33" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BF33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BG33" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G34" t="n">
         <v>1.97</v>
@@ -6982,7 +6982,7 @@
         <v>5.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K34" t="n">
         <v>4</v>
@@ -6991,7 +6991,7 @@
         <v>1.44</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
         <v>2.9</v>
@@ -7105,7 +7105,7 @@
         <v>9.6</v>
       </c>
       <c r="AY34" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ34" t="n">
         <v>18</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
         <v>1.1</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -7379,7 +7379,7 @@
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
         <v>1.25</v>
@@ -7391,7 +7391,7 @@
         <v>1.24</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="R36" t="n">
         <v>1.18</v>
@@ -7521,7 +7521,589 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medellin</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X37" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>2026-02-24 01:41:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>26</v>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>2026-02-24 01:41:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.32</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.23</v>
-      </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
@@ -810,10 +810,10 @@
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="W2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -837,13 +837,13 @@
         <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>970</v>
@@ -867,16 +867,16 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
         <v>11.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -885,22 +885,22 @@
         <v>11.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AW2" t="n">
         <v>4.1</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>4.3</v>
@@ -921,11 +921,11 @@
         <v>4.2</v>
       </c>
       <c r="BG2" t="n">
-        <v>13.5</v>
+        <v>4</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
         <v>3.45</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -986,13 +986,13 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S3" t="n">
         <v>2.92</v>
@@ -1058,16 +1058,16 @@
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -1153,19 +1153,19 @@
         <v>2.88</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J4" t="n">
         <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -1180,19 +1180,19 @@
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
         <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
         <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
         <v>2.32</v>
@@ -1219,7 +1219,7 @@
         <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
@@ -1267,7 +1267,7 @@
         <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AT4" t="n">
         <v>11</v>
@@ -1288,16 +1288,16 @@
         <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BB4" t="n">
         <v>38</v>
       </c>
       <c r="BC4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BD4" t="n">
         <v>34</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1353,22 @@
         <v>1.41</v>
       </c>
       <c r="I5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K5" t="n">
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.14</v>
@@ -1380,19 +1380,19 @@
         <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S5" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="T5" t="n">
         <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W5" t="n">
         <v>1.13</v>
@@ -1452,7 +1452,7 @@
         <v>4.4</v>
       </c>
       <c r="AP5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AQ5" t="n">
         <v>11</v>
@@ -1464,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="AT5" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU5" t="n">
         <v>12.5</v>
@@ -1476,38 +1476,38 @@
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AZ5" t="n">
         <v>15.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BD5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF5" t="n">
         <v>10.5</v>
       </c>
-      <c r="BE5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>11</v>
-      </c>
       <c r="BG5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -1538,22 +1538,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>32</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1562,16 +1562,16 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
         <v>1.37</v>
@@ -1586,10 +1586,10 @@
         <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -1759,19 +1759,19 @@
         <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T7" t="n">
         <v>1.05</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="H8" t="n">
         <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>19.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>9.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1950,16 +1950,16 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R8" t="n">
         <v>1.34</v>
@@ -1974,10 +1974,10 @@
         <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -2314,19 +2314,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="G10" t="n">
         <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I10" t="n">
         <v>2.84</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
         <v>3.6</v>
@@ -2338,146 +2338,146 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>1.54</v>
       </c>
       <c r="W10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.08</v>
+        <v>9</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.08</v>
+        <v>15.5</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.08</v>
+        <v>4</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.08</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.08</v>
+        <v>6.6</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.08</v>
+        <v>11</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.08</v>
+        <v>3.9</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.08</v>
+        <v>16.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.08</v>
+        <v>11</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.08</v>
+        <v>15.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.08</v>
+        <v>4</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.08</v>
+        <v>4</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.08</v>
+        <v>3.95</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.08</v>
+        <v>4</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.08</v>
+        <v>4.2</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.08</v>
+        <v>3.9</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.08</v>
+        <v>3.9</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -2547,13 +2547,13 @@
         <v>2.26</v>
       </c>
       <c r="S11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="T11" t="n">
         <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V11" t="n">
         <v>5.8</v>
@@ -2562,7 +2562,7 @@
         <v>1.05</v>
       </c>
       <c r="X11" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
         <v>21</v>
@@ -2589,7 +2589,7 @@
         <v>230</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AH11" t="n">
         <v>36</v>
@@ -2613,7 +2613,7 @@
         <v>220</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="AP11" t="n">
         <v>7.6</v>
@@ -2628,7 +2628,7 @@
         <v>9.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AU11" t="n">
         <v>21</v>
@@ -2646,32 +2646,32 @@
         <v>50</v>
       </c>
       <c r="AZ11" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="BA11" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="BB11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BC11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BE11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BF11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -2702,58 +2702,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.25</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N12" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="O12" t="n">
         <v>1.63</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.34</v>
+        <v>2.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="T12" t="n">
         <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="V12" t="n">
         <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X12" t="n">
         <v>9</v>
@@ -2810,10 +2810,10 @@
         <v>150</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AR12" t="n">
         <v>4.8</v>
@@ -2825,10 +2825,10 @@
         <v>5.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AW12" t="n">
         <v>5.4</v>
@@ -2837,7 +2837,7 @@
         <v>4.3</v>
       </c>
       <c r="AY12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AZ12" t="n">
         <v>4.8</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>1.65</v>
       </c>
       <c r="G13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H13" t="n">
         <v>6.4</v>
@@ -2908,28 +2908,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
         <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="O13" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P13" t="n">
         <v>1.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="R13" t="n">
         <v>1.19</v>
@@ -2938,7 +2938,7 @@
         <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="U13" t="n">
         <v>1.51</v>
@@ -2947,7 +2947,7 @@
         <v>1.14</v>
       </c>
       <c r="W13" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2962,7 +2962,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AC13" t="n">
         <v>970</v>
@@ -3010,13 +3010,13 @@
         <v>6.2</v>
       </c>
       <c r="AR13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="AT13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
         <v>7.6</v>
@@ -3025,41 +3025,41 @@
         <v>6.8</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AX13" t="n">
         <v>6.8</v>
       </c>
       <c r="AY13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="BA13" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BB13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="BC13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="BD13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BE13" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="BF13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="BG13" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -3090,19 +3090,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="K14" t="n">
         <v>3.45</v>
@@ -3114,7 +3114,7 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.45</v>
@@ -3132,16 +3132,16 @@
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
         <v>1.87</v>
       </c>
       <c r="V14" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -3198,46 +3198,46 @@
         <v>80</v>
       </c>
       <c r="AP14" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AR14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AS14" t="n">
         <v>6.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AW14" t="n">
         <v>6.2</v>
       </c>
       <c r="AX14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AY14" t="n">
         <v>4.8</v>
       </c>
-      <c r="AY14" t="n">
-        <v>4.7</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BA14" t="n">
         <v>6.4</v>
       </c>
       <c r="BB14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>6.2</v>
@@ -3249,11 +3249,11 @@
         <v>5.7</v>
       </c>
       <c r="BG14" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -3338,116 +3338,116 @@
         <v>1.62</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ15" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BB15" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
         <v>2.84</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
@@ -3586,7 +3586,7 @@
         <v>44</v>
       </c>
       <c r="AP16" t="n">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.64</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -3696,16 +3696,16 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="n">
         <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
         <v>1.31</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
         <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.24</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -4060,16 +4060,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H19" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
         <v>3.3</v>
@@ -4084,7 +4084,7 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
@@ -4099,7 +4099,7 @@
         <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="T19" t="n">
         <v>1.46</v>
@@ -4108,10 +4108,10 @@
         <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W19" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -4120,7 +4120,7 @@
         <v>19.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="n">
         <v>55</v>
@@ -4132,13 +4132,13 @@
         <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -4147,64 +4147,64 @@
         <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL19" t="n">
         <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP19" t="n">
         <v>3.75</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.75</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.65</v>
+        <v>11</v>
       </c>
       <c r="AU19" t="n">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="AV19" t="n">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.85</v>
+        <v>19.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AY19" t="n">
         <v>3.55</v>
       </c>
       <c r="AZ19" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="BA19" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="BB19" t="n">
-        <v>3.9</v>
+        <v>25</v>
       </c>
       <c r="BC19" t="n">
         <v>3.8</v>
@@ -4219,11 +4219,11 @@
         <v>3.6</v>
       </c>
       <c r="BG19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>1.31</v>
       </c>
       <c r="H20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
         <v>11.5</v>
@@ -4278,28 +4278,28 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O20" t="n">
         <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q20" t="n">
         <v>1.34</v>
       </c>
       <c r="R20" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="S20" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T20" t="n">
         <v>1.69</v>
       </c>
       <c r="U20" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V20" t="n">
         <v>1.09</v>
@@ -4308,7 +4308,7 @@
         <v>4.2</v>
       </c>
       <c r="X20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y20" t="n">
         <v>60</v>
@@ -4332,13 +4332,13 @@
         <v>120</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
         <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>90</v>
@@ -4356,10 +4356,10 @@
         <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AP20" t="n">
         <v>42</v>
@@ -4386,16 +4386,16 @@
         <v>100</v>
       </c>
       <c r="AX20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY20" t="n">
         <v>11</v>
       </c>
       <c r="AZ20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB20" t="n">
         <v>11.5</v>
@@ -4404,20 +4404,20 @@
         <v>11.5</v>
       </c>
       <c r="BD20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE20" t="n">
         <v>55</v>
       </c>
       <c r="BF20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="BG20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>1.51</v>
       </c>
       <c r="G21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
         <v>6.6</v>
@@ -4478,7 +4478,7 @@
         <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q21" t="n">
         <v>1.51</v>
@@ -4490,7 +4490,7 @@
         <v>2.26</v>
       </c>
       <c r="T21" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U21" t="n">
         <v>2.4</v>
@@ -4499,7 +4499,7 @@
         <v>1.17</v>
       </c>
       <c r="W21" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="X21" t="n">
         <v>27</v>
@@ -4508,7 +4508,7 @@
         <v>32</v>
       </c>
       <c r="Z21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA21" t="n">
         <v>170</v>
@@ -4565,7 +4565,7 @@
         <v>55</v>
       </c>
       <c r="AS21" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -4666,13 +4666,13 @@
         <v>1.17</v>
       </c>
       <c r="N22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O22" t="n">
         <v>1.74</v>
       </c>
       <c r="P22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q22" t="n">
         <v>3.25</v>
@@ -4684,7 +4684,7 @@
         <v>7.6</v>
       </c>
       <c r="T22" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U22" t="n">
         <v>1.58</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="G23" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
         <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -4884,10 +4884,10 @@
         <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X23" t="n">
         <v>8.4</v>
@@ -4899,7 +4899,7 @@
         <v>20</v>
       </c>
       <c r="AA23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB23" t="n">
         <v>10</v>
@@ -4926,7 +4926,7 @@
         <v>90</v>
       </c>
       <c r="AJ23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK23" t="n">
         <v>60</v>
@@ -4941,7 +4941,7 @@
         <v>80</v>
       </c>
       <c r="AO23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP23" t="n">
         <v>6.8</v>
@@ -4968,7 +4968,7 @@
         <v>4.9</v>
       </c>
       <c r="AX23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY23" t="n">
         <v>12.5</v>
@@ -4977,10 +4977,10 @@
         <v>4.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="BB23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BC23" t="n">
         <v>4.9</v>
@@ -4989,7 +4989,7 @@
         <v>5.1</v>
       </c>
       <c r="BE23" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="BF23" t="n">
         <v>5</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -5030,13 +5030,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G24" t="n">
         <v>1.56</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I24" t="n">
         <v>6.2</v>
@@ -5075,13 +5075,13 @@
         <v>1.66</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V24" t="n">
         <v>1.19</v>
       </c>
       <c r="W24" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X24" t="n">
         <v>32</v>
@@ -5180,7 +5180,7 @@
         <v>13</v>
       </c>
       <c r="BD24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BE24" t="n">
         <v>60</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
         <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
         <v>950</v>
@@ -5275,7 +5275,7 @@
         <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
         <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K26" t="n">
         <v>950</v>
@@ -5469,7 +5469,7 @@
         <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
         <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H29" t="n">
         <v>2.32</v>
@@ -6021,13 +6021,13 @@
         <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
         <v>1.83</v>
@@ -6036,134 +6036,134 @@
         <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S29" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="V29" t="n">
         <v>1.63</v>
       </c>
       <c r="W29" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AB29" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP29" t="n">
         <v>11</v>
       </c>
-      <c r="AD29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AQ29" t="n">
-        <v>2.08</v>
+        <v>8.4</v>
       </c>
       <c r="AR29" t="n">
-        <v>2.18</v>
+        <v>13</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.12</v>
+        <v>10</v>
       </c>
       <c r="AU29" t="n">
-        <v>1.98</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>2.12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW29" t="n">
-        <v>2.26</v>
+        <v>6.6</v>
       </c>
       <c r="AX29" t="n">
-        <v>2.24</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>2.16</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="BA29" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="BB29" t="n">
-        <v>2.34</v>
+        <v>7.6</v>
       </c>
       <c r="BC29" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="BD29" t="n">
-        <v>2.32</v>
+        <v>7.6</v>
       </c>
       <c r="BE29" t="n">
-        <v>2.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF29" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="BG29" t="n">
-        <v>14</v>
+        <v>6.4</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -6388,22 +6388,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
-        <v>1.37</v>
+        <v>2.52</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="J31" t="n">
         <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -6418,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -6585,10 +6585,10 @@
         <v>3.35</v>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I32" t="n">
         <v>2.76</v>
@@ -6597,7 +6597,7 @@
         <v>2.84</v>
       </c>
       <c r="K32" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -6633,7 +6633,7 @@
         <v>1.56</v>
       </c>
       <c r="W32" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X32" t="n">
         <v>7.4</v>
@@ -6645,7 +6645,7 @@
         <v>16</v>
       </c>
       <c r="AA32" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB32" t="n">
         <v>9</v>
@@ -6699,7 +6699,7 @@
         <v>12.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AT32" t="n">
         <v>7.6</v>
@@ -6711,7 +6711,7 @@
         <v>11.5</v>
       </c>
       <c r="AW32" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AX32" t="n">
         <v>19</v>
@@ -6720,32 +6720,32 @@
         <v>14.5</v>
       </c>
       <c r="AZ32" t="n">
-        <v>6.8</v>
+        <v>23</v>
       </c>
       <c r="BA32" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BB32" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BC32" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="BD32" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BE32" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BF32" t="n">
         <v>8.6</v>
       </c>
       <c r="BG32" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -6794,13 +6794,13 @@
         <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="M33" t="n">
         <v>1.14</v>
       </c>
       <c r="N33" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O33" t="n">
         <v>1.64</v>
@@ -6857,7 +6857,7 @@
         <v>10.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
         <v>970</v>
@@ -6890,10 +6890,10 @@
         <v>10.5</v>
       </c>
       <c r="AR33" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AS33" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AT33" t="n">
         <v>5.1</v>
@@ -6902,10 +6902,10 @@
         <v>7</v>
       </c>
       <c r="AV33" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AW33" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AX33" t="n">
         <v>8.4</v>
@@ -6914,32 +6914,32 @@
         <v>10</v>
       </c>
       <c r="AZ33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB33" t="n">
         <v>5.7</v>
       </c>
-      <c r="BA33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>5.4</v>
-      </c>
       <c r="BC33" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="BD33" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BE33" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BF33" t="n">
         <v>21</v>
       </c>
       <c r="BG33" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G34" t="n">
         <v>1.97</v>
@@ -6979,7 +6979,7 @@
         <v>4.6</v>
       </c>
       <c r="I34" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J34" t="n">
         <v>3.45</v>
@@ -6994,28 +6994,28 @@
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P34" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q34" t="n">
         <v>2.08</v>
       </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S34" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T34" t="n">
-        <v>1.05</v>
+        <v>1.91</v>
       </c>
       <c r="U34" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="V34" t="n">
         <v>1.23</v>
@@ -7042,7 +7042,7 @@
         <v>8.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE34" t="n">
         <v>85</v>
@@ -7060,7 +7060,7 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK34" t="n">
         <v>27</v>
@@ -7084,10 +7084,10 @@
         <v>12.5</v>
       </c>
       <c r="AR34" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AS34" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AT34" t="n">
         <v>7</v>
@@ -7099,7 +7099,7 @@
         <v>16</v>
       </c>
       <c r="AW34" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AX34" t="n">
         <v>9.6</v>
@@ -7111,7 +7111,7 @@
         <v>18</v>
       </c>
       <c r="BA34" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BB34" t="n">
         <v>18.5</v>
@@ -7120,20 +7120,20 @@
         <v>19</v>
       </c>
       <c r="BD34" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BE34" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BF34" t="n">
         <v>11.5</v>
       </c>
       <c r="BG34" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -7552,19 +7552,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
         <v>2.52</v>
       </c>
       <c r="I37" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
         <v>3.8</v>
@@ -7573,37 +7573,37 @@
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="O37" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q37" t="n">
         <v>2.08</v>
       </c>
       <c r="R37" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S37" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T37" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="V37" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W37" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X37" t="n">
         <v>970</v>
@@ -7612,7 +7612,7 @@
         <v>970</v>
       </c>
       <c r="Z37" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AA37" t="n">
         <v>55</v>
@@ -7627,7 +7627,7 @@
         <v>970</v>
       </c>
       <c r="AE37" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AF37" t="n">
         <v>1000</v>
@@ -7645,13 +7645,13 @@
         <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="n">
         <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN37" t="n">
         <v>1000</v>
@@ -7660,62 +7660,62 @@
         <v>1000</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.54</v>
+        <v>5.7</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="AR37" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.92</v>
+        <v>2.32</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.48</v>
+        <v>5.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>2.28</v>
+        <v>4.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="AW37" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="AX37" t="n">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
       <c r="AY37" t="n">
-        <v>2.64</v>
+        <v>5.9</v>
       </c>
       <c r="AZ37" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="BA37" t="n">
-        <v>3.05</v>
+        <v>2.32</v>
       </c>
       <c r="BB37" t="n">
-        <v>3.05</v>
+        <v>9</v>
       </c>
       <c r="BC37" t="n">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="BD37" t="n">
-        <v>3.05</v>
+        <v>2.06</v>
       </c>
       <c r="BE37" t="n">
-        <v>3.05</v>
+        <v>1.63</v>
       </c>
       <c r="BF37" t="n">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG37" t="n">
-        <v>2.84</v>
+        <v>1.82</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G38" t="n">
         <v>2.4</v>
@@ -7758,40 +7758,40 @@
         <v>3.7</v>
       </c>
       <c r="J38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L38" t="n">
         <v>1.41</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R38" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="U38" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="V38" t="n">
         <v>1.37</v>
@@ -7800,116 +7800,116 @@
         <v>1.71</v>
       </c>
       <c r="X38" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD38" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF38" t="n">
         <v>16</v>
       </c>
-      <c r="Z38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>50</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>42</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BG38" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -7940,7 +7940,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="G39" t="n">
         <v>2.02</v>
@@ -7949,19 +7949,19 @@
         <v>4.4</v>
       </c>
       <c r="I39" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J39" t="n">
         <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L39" t="n">
         <v>1.42</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
         <v>3.4</v>
@@ -7973,7 +7973,7 @@
         <v>1.83</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R39" t="n">
         <v>1.31</v>
@@ -7982,13 +7982,13 @@
         <v>3.7</v>
       </c>
       <c r="T39" t="n">
-        <v>1.05</v>
+        <v>1.88</v>
       </c>
       <c r="U39" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="V39" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W39" t="n">
         <v>1.98</v>
@@ -7997,10 +7997,10 @@
         <v>13.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z39" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA39" t="n">
         <v>130</v>
@@ -8042,7 +8042,7 @@
         <v>150</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO39" t="n">
         <v>95</v>
@@ -8054,10 +8054,10 @@
         <v>13</v>
       </c>
       <c r="AR39" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AS39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT39" t="n">
         <v>7.4</v>
@@ -8069,7 +8069,7 @@
         <v>16</v>
       </c>
       <c r="AW39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AX39" t="n">
         <v>10</v>
@@ -8081,29 +8081,29 @@
         <v>17.5</v>
       </c>
       <c r="BA39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BB39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BC39" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="BC39" t="n">
-        <v>8</v>
-      </c>
       <c r="BD39" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BE39" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BF39" t="n">
         <v>13.5</v>
       </c>
       <c r="BG39" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -765,13 +765,13 @@
         <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -792,7 +792,7 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
         <v>1.94</v>
@@ -813,7 +813,7 @@
         <v>1.72</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -879,19 +879,19 @@
         <v>11.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AT2" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AU2" t="n">
         <v>6.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
         <v>4.2</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -980,16 +980,16 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
         <v>1.51</v>
@@ -1001,7 +1001,7 @@
         <v>1.67</v>
       </c>
       <c r="U3" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
         <v>1.4</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G4" t="n">
         <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I4" t="n">
         <v>2.86</v>
@@ -1165,7 +1165,7 @@
         <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -1183,7 +1183,7 @@
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
@@ -1198,7 +1198,7 @@
         <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W4" t="n">
         <v>1.48</v>
@@ -1261,7 +1261,7 @@
         <v>12.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AR4" t="n">
         <v>16</v>
@@ -1276,7 +1276,7 @@
         <v>6.8</v>
       </c>
       <c r="AV4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>22</v>
@@ -1285,7 +1285,7 @@
         <v>17.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AZ4" t="n">
         <v>13.5</v>
@@ -1306,14 +1306,14 @@
         <v>60</v>
       </c>
       <c r="BF4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BG4" t="n">
         <v>20</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1380,10 +1380,10 @@
         <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="T5" t="n">
         <v>1.67</v>
@@ -1404,7 +1404,7 @@
         <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="n">
         <v>14</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1544,13 +1544,13 @@
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1562,7 +1562,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.23</v>
@@ -1586,7 +1586,7 @@
         <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="W6" t="n">
         <v>1.07</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
@@ -1977,7 +1977,7 @@
         <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.28</v>
@@ -2144,16 +2144,16 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
         <v>1.31</v>
@@ -2168,10 +2168,10 @@
         <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
         <v>2.78</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
         <v>2.64</v>
@@ -2326,10 +2326,10 @@
         <v>2.84</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -2338,13 +2338,13 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
         <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" t="n">
         <v>2.1</v>
@@ -2353,19 +2353,19 @@
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
         <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
         <v>1.54</v>
       </c>
       <c r="W10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -2383,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
         <v>15.5</v>
@@ -2431,10 +2431,10 @@
         <v>15.5</v>
       </c>
       <c r="AS10" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="AT10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AU10" t="n">
         <v>6.6</v>
@@ -2443,41 +2443,41 @@
         <v>11</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AX10" t="n">
         <v>16.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AZ10" t="n">
         <v>15.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>4</v>
+        <v>2.92</v>
       </c>
       <c r="BB10" t="n">
-        <v>4</v>
+        <v>2.92</v>
       </c>
       <c r="BC10" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="BD10" t="n">
-        <v>4</v>
+        <v>2.94</v>
       </c>
       <c r="BE10" t="n">
-        <v>4.2</v>
+        <v>2.96</v>
       </c>
       <c r="BF10" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2511,13 +2511,13 @@
         <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="H11" t="n">
         <v>1.17</v>
       </c>
       <c r="I11" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="J11" t="n">
         <v>9.199999999999999</v>
@@ -2544,7 +2544,7 @@
         <v>1.27</v>
       </c>
       <c r="R11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="S11" t="n">
         <v>1.66</v>
@@ -2553,7 +2553,7 @@
         <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
         <v>5.8</v>
@@ -2640,7 +2640,7 @@
         <v>11.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AY11" t="n">
         <v>50</v>
@@ -2652,26 +2652,26 @@
         <v>7</v>
       </c>
       <c r="BB11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BC11" t="n">
         <v>8.4</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BD11" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="BD11" t="n">
-        <v>8</v>
-      </c>
       <c r="BE11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2705,19 +2705,19 @@
         <v>2.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
         <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2726,7 +2726,7 @@
         <v>1.15</v>
       </c>
       <c r="N12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O12" t="n">
         <v>1.63</v>
@@ -2747,7 +2747,7 @@
         <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
         <v>1.3</v>
@@ -2759,7 +2759,7 @@
         <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
         <v>28</v>
@@ -2780,7 +2780,7 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>970</v>
@@ -2810,62 +2810,62 @@
         <v>150</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AQ12" t="n">
         <v>4.1</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>5.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AV12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX12" t="n">
         <v>4.5</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AY12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB12" t="n">
         <v>5.4</v>
       </c>
-      <c r="AX12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BA12" t="n">
+      <c r="BC12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BF12" t="n">
         <v>5.5</v>
       </c>
-      <c r="BB12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BG12" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>1.65</v>
       </c>
       <c r="G13" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H13" t="n">
         <v>6.4</v>
@@ -2908,10 +2908,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2929,7 +2929,7 @@
         <v>1.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R13" t="n">
         <v>1.19</v>
@@ -2938,7 +2938,7 @@
         <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
         <v>1.51</v>
@@ -2947,7 +2947,7 @@
         <v>1.14</v>
       </c>
       <c r="W13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -3016,7 +3016,7 @@
         <v>5.7</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AU13" t="n">
         <v>7.6</v>
@@ -3031,7 +3031,7 @@
         <v>6.8</v>
       </c>
       <c r="AY13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AZ13" t="n">
         <v>6.8</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
         <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K14" t="n">
         <v>3.45</v>
@@ -3129,7 +3129,7 @@
         <v>1.23</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T14" t="n">
         <v>1.94</v>
@@ -3141,7 +3141,7 @@
         <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -3180,7 +3180,7 @@
         <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="n">
         <v>38</v>
@@ -3198,19 +3198,19 @@
         <v>80</v>
       </c>
       <c r="AP14" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AR14" t="n">
         <v>6</v>
       </c>
       <c r="AS14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
@@ -3219,19 +3219,19 @@
         <v>5</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AX14" t="n">
         <v>4.9</v>
       </c>
       <c r="AY14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AZ14" t="n">
         <v>5.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BB14" t="n">
         <v>6</v>
@@ -3240,20 +3240,20 @@
         <v>6</v>
       </c>
       <c r="BD14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BE14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BF14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BG14" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.28</v>
@@ -3326,10 +3326,10 @@
         <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
         <v>1.42</v>
@@ -3359,7 +3359,7 @@
         <v>16.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -3481,13 +3481,13 @@
         <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I16" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
@@ -3502,13 +3502,13 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.86</v>
+        <v>2.74</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" t="n">
         <v>1.93</v>
@@ -3523,13 +3523,13 @@
         <v>1.55</v>
       </c>
       <c r="U16" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V16" t="n">
         <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
         <v>20</v>
@@ -3586,10 +3586,10 @@
         <v>44</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AR16" t="n">
         <v>14.5</v>
@@ -3598,13 +3598,13 @@
         <v>3.05</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="AU16" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="AV16" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AW16" t="n">
         <v>3.05</v>
@@ -3613,7 +3613,7 @@
         <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AZ16" t="n">
         <v>2.76</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -3672,22 +3672,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -3696,16 +3696,16 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>1.31</v>
@@ -3720,10 +3720,10 @@
         <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -3735,7 +3735,7 @@
         <v>27</v>
       </c>
       <c r="AA17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="n">
         <v>970</v>
@@ -3747,7 +3747,7 @@
         <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF17" t="n">
         <v>970</v>
@@ -3759,7 +3759,7 @@
         <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
         <v>36</v>
@@ -3774,34 +3774,34 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP17" t="n">
         <v>5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AR17" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="AT17" t="n">
         <v>4.7</v>
       </c>
       <c r="AU17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AV17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="AX17" t="n">
         <v>5.1</v>
@@ -3810,32 +3810,32 @@
         <v>4.8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="BA17" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="BB17" t="n">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="BC17" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="BD17" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="BE17" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="BG17" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -3875,13 +3875,13 @@
         <v>1.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.24</v>
@@ -3914,7 +3914,7 @@
         <v>2.4</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W18" t="n">
         <v>1.27</v>
@@ -4007,7 +4007,7 @@
         <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BB18" t="n">
         <v>5.2</v>
@@ -4022,14 +4022,14 @@
         <v>5.2</v>
       </c>
       <c r="BF18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BG18" t="n">
         <v>6.2</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -4060,19 +4060,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G19" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="H19" t="n">
         <v>2.7</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>4.2</v>
@@ -4087,19 +4087,19 @@
         <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
         <v>1.53</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="T19" t="n">
         <v>1.46</v>
@@ -4108,10 +4108,10 @@
         <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="W19" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -4162,34 +4162,34 @@
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO19" t="n">
         <v>22</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.75</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AR19" t="n">
         <v>16</v>
       </c>
       <c r="AS19" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AT19" t="n">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="AV19" t="n">
-        <v>9.6</v>
+        <v>3.5</v>
       </c>
       <c r="AW19" t="n">
-        <v>19.5</v>
+        <v>4.2</v>
       </c>
       <c r="AX19" t="n">
         <v>3.7</v>
@@ -4216,14 +4216,14 @@
         <v>4.1</v>
       </c>
       <c r="BF19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="BG19" t="n">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>1.31</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I20" t="n">
         <v>11.5</v>
@@ -4269,7 +4269,7 @@
         <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.2</v>
@@ -4278,13 +4278,13 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P20" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q20" t="n">
         <v>1.34</v>
@@ -4299,7 +4299,7 @@
         <v>1.69</v>
       </c>
       <c r="U20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V20" t="n">
         <v>1.09</v>
@@ -4308,7 +4308,7 @@
         <v>4.2</v>
       </c>
       <c r="X20" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="n">
         <v>60</v>
@@ -4332,19 +4332,19 @@
         <v>120</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
         <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>90</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK20" t="n">
         <v>12</v>
@@ -4368,7 +4368,7 @@
         <v>50</v>
       </c>
       <c r="AR20" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AS20" t="n">
         <v>55</v>
@@ -4386,16 +4386,16 @@
         <v>100</v>
       </c>
       <c r="AX20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY20" t="n">
         <v>11</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BB20" t="n">
         <v>11.5</v>
@@ -4407,7 +4407,7 @@
         <v>22</v>
       </c>
       <c r="BE20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BF20" t="n">
         <v>3.1</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G21" t="n">
         <v>1.53</v>
@@ -4463,7 +4463,7 @@
         <v>5.1</v>
       </c>
       <c r="K21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.26</v>
@@ -4490,10 +4490,10 @@
         <v>2.26</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V21" t="n">
         <v>1.17</v>
@@ -4565,7 +4565,7 @@
         <v>55</v>
       </c>
       <c r="AS21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4604,14 +4604,14 @@
         <v>65</v>
       </c>
       <c r="BF21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BG21" t="n">
         <v>50</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -4651,13 +4651,13 @@
         <v>2.58</v>
       </c>
       <c r="I22" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J22" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="K22" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -4726,7 +4726,7 @@
         <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI22" t="n">
         <v>120</v>
@@ -4759,7 +4759,7 @@
         <v>12.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AT22" t="n">
         <v>7.2</v>
@@ -4777,35 +4777,35 @@
         <v>4.7</v>
       </c>
       <c r="AY22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AZ22" t="n">
         <v>5</v>
       </c>
       <c r="BA22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BC22" t="n">
         <v>5.5</v>
       </c>
-      <c r="BB22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BC22" t="n">
+      <c r="BD22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BG22" t="n">
         <v>5.4</v>
       </c>
-      <c r="BD22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>5.3</v>
-      </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
         <v>3.2</v>
@@ -4845,7 +4845,7 @@
         <v>2.92</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>2.92</v>
@@ -4860,146 +4860,146 @@
         <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1</v>
+        <v>2.48</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="R23" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S23" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W23" t="n">
         <v>1.46</v>
       </c>
       <c r="X23" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
         <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
         <v>90</v>
       </c>
       <c r="AJ23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM23" t="n">
         <v>240</v>
       </c>
       <c r="AN23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO23" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AP23" t="n">
         <v>6.8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AR23" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>4.9</v>
+        <v>26</v>
       </c>
       <c r="AT23" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AU23" t="n">
         <v>6.2</v>
       </c>
       <c r="AV23" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.9</v>
+        <v>25</v>
       </c>
       <c r="AX23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
-        <v>4.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="BB23" t="n">
-        <v>4.9</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
-        <v>4.9</v>
+        <v>27</v>
       </c>
       <c r="BD23" t="n">
-        <v>5.1</v>
+        <v>36</v>
       </c>
       <c r="BE23" t="n">
-        <v>5.2</v>
+        <v>48</v>
       </c>
       <c r="BF23" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="BG23" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
         <v>1.56</v>
       </c>
       <c r="H24" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
         <v>6.2</v>
@@ -5054,7 +5054,7 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.16</v>
@@ -5069,7 +5069,7 @@
         <v>1.78</v>
       </c>
       <c r="S24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T24" t="n">
         <v>1.66</v>
@@ -5141,13 +5141,13 @@
         <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AS24" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AT24" t="n">
         <v>13</v>
@@ -5168,7 +5168,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA24" t="n">
         <v>48</v>
@@ -5186,14 +5186,14 @@
         <v>60</v>
       </c>
       <c r="BF24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="BG24" t="n">
         <v>42</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -5236,13 +5236,13 @@
         <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
         <v>950</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
@@ -5251,7 +5251,7 @@
         <v>1.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
         <v>1.25</v>
@@ -5263,7 +5263,7 @@
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>1.93</v>
+        <v>1.05</v>
       </c>
       <c r="T25" t="n">
         <v>1.05</v>
@@ -5275,7 +5275,7 @@
         <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -5430,13 +5430,13 @@
         <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K26" t="n">
         <v>950</v>
       </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
@@ -5445,19 +5445,19 @@
         <v>1.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="T26" t="n">
         <v>1.05</v>
@@ -5469,7 +5469,7 @@
         <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>950</v>
       </c>
       <c r="L27" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -5639,19 +5639,19 @@
         <v>1.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
         <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="T27" t="n">
         <v>1.05</v>
@@ -5663,7 +5663,7 @@
         <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6003,13 +6003,13 @@
         <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I29" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="J29" t="n">
         <v>3.35</v>
@@ -6048,10 +6048,10 @@
         <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="W29" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X29" t="n">
         <v>14</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="G30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I30" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J30" t="n">
         <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
         <v>1.49</v>
@@ -6218,7 +6218,7 @@
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O30" t="n">
         <v>1.42</v>
@@ -6227,7 +6227,7 @@
         <v>1.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
         <v>1.25</v>
@@ -6236,13 +6236,13 @@
         <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U30" t="n">
         <v>1.79</v>
       </c>
       <c r="V30" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W30" t="n">
         <v>2.08</v>
@@ -6254,7 +6254,7 @@
         <v>15</v>
       </c>
       <c r="Z30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AA30" t="n">
         <v>170</v>
@@ -6272,7 +6272,7 @@
         <v>90</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>
@@ -6284,7 +6284,7 @@
         <v>110</v>
       </c>
       <c r="AJ30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
         <v>24</v>
@@ -6296,7 +6296,7 @@
         <v>200</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>150</v>
@@ -6308,10 +6308,10 @@
         <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AT30" t="n">
         <v>6.2</v>
@@ -6323,7 +6323,7 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX30" t="n">
         <v>8.800000000000001</v>
@@ -6332,10 +6332,10 @@
         <v>9</v>
       </c>
       <c r="AZ30" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BA30" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>16.5</v>
@@ -6344,20 +6344,20 @@
         <v>18.5</v>
       </c>
       <c r="BD30" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE30" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BF30" t="n">
         <v>13</v>
       </c>
       <c r="BG30" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
         <v>2.76</v>
       </c>
       <c r="J32" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="K32" t="n">
         <v>3.15</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6902,10 +6902,10 @@
         <v>7</v>
       </c>
       <c r="AV33" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AW33" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AX33" t="n">
         <v>8.4</v>
@@ -6917,10 +6917,10 @@
         <v>6</v>
       </c>
       <c r="BA33" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BB33" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BC33" t="n">
         <v>6</v>
@@ -6929,7 +6929,7 @@
         <v>6.8</v>
       </c>
       <c r="BE33" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BF33" t="n">
         <v>21</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6970,22 +6970,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G34" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L34" t="n">
         <v>1.44</v>
@@ -7021,19 +7021,19 @@
         <v>1.23</v>
       </c>
       <c r="W34" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X34" t="n">
         <v>13.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z34" t="n">
         <v>38</v>
       </c>
       <c r="AA34" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB34" t="n">
         <v>9.6</v>
@@ -7045,7 +7045,7 @@
         <v>20</v>
       </c>
       <c r="AE34" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF34" t="n">
         <v>12</v>
@@ -7060,10 +7060,10 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK34" t="n">
         <v>26</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>27</v>
       </c>
       <c r="AL34" t="n">
         <v>44</v>
@@ -7084,13 +7084,13 @@
         <v>12.5</v>
       </c>
       <c r="AR34" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AS34" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AT34" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AU34" t="n">
         <v>7.2</v>
@@ -7099,7 +7099,7 @@
         <v>16</v>
       </c>
       <c r="AW34" t="n">
-        <v>6.2</v>
+        <v>55</v>
       </c>
       <c r="AX34" t="n">
         <v>9.6</v>
@@ -7111,7 +7111,7 @@
         <v>18</v>
       </c>
       <c r="BA34" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="BB34" t="n">
         <v>18.5</v>
@@ -7120,20 +7120,20 @@
         <v>19</v>
       </c>
       <c r="BD34" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="BE34" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="BF34" t="n">
         <v>11.5</v>
       </c>
       <c r="BG34" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -7567,7 +7567,7 @@
         <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -7612,7 +7612,7 @@
         <v>970</v>
       </c>
       <c r="Z37" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AA37" t="n">
         <v>55</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -7752,7 +7752,7 @@
         <v>2.4</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
         <v>3.7</v>
@@ -7797,7 +7797,7 @@
         <v>1.37</v>
       </c>
       <c r="W38" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X38" t="n">
         <v>15</v>
@@ -7863,7 +7863,7 @@
         <v>20</v>
       </c>
       <c r="AS38" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="AT38" t="n">
         <v>8.800000000000001</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH39"/>
+  <dimension ref="A1:BH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,28 +765,28 @@
         <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
@@ -795,7 +795,7 @@
         <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -810,10 +810,10 @@
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -837,7 +837,7 @@
         <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -846,7 +846,7 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -870,7 +870,7 @@
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -879,25 +879,25 @@
         <v>11.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>10</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AV2" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>17.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.2</v>
+        <v>19.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -956,16 +956,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -995,7 +995,7 @@
         <v>1.51</v>
       </c>
       <c r="S3" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T3" t="n">
         <v>1.67</v>
@@ -1007,7 +1007,7 @@
         <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X3" t="n">
         <v>19</v>
@@ -1061,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP3" t="n">
         <v>18</v>
@@ -1112,14 +1112,14 @@
         <v>60</v>
       </c>
       <c r="BF3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BG3" t="n">
         <v>25</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1150,82 +1150,82 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G4" t="n">
         <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I4" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
         <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
         <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
         <v>1.48</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
         <v>19.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
@@ -1234,31 +1234,31 @@
         <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
         <v>10.5</v>
@@ -1267,53 +1267,53 @@
         <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.8</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
         <v>11.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13.5</v>
+        <v>5.7</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="BB4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD4" t="n">
         <v>38</v>
       </c>
-      <c r="BC4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>34</v>
-      </c>
       <c r="BE4" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="BF4" t="n">
-        <v>20</v>
+        <v>6.8</v>
       </c>
       <c r="BG4" t="n">
         <v>20</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I5" t="n">
         <v>1.45</v>
@@ -1362,7 +1362,7 @@
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1371,40 +1371,40 @@
         <v>7.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
         <v>3.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
         <v>3.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>70</v>
+        <v>12.5</v>
       </c>
       <c r="AA5" t="n">
         <v>14</v>
@@ -1413,7 +1413,7 @@
         <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
         <v>11.5</v>
@@ -1434,7 +1434,7 @@
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AK5" t="n">
         <v>110</v>
@@ -1446,16 +1446,16 @@
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AP5" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AR5" t="n">
         <v>10.5</v>
@@ -1464,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="AT5" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>12.5</v>
@@ -1476,38 +1476,38 @@
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="BA5" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="BB5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BD5" t="n">
         <v>11</v>
       </c>
-      <c r="BC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>10</v>
-      </c>
       <c r="BE5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BG5" t="n">
         <v>3.8</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1538,28 +1538,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="H6" t="n">
         <v>1.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
         <v>3.2</v>
@@ -1574,19 +1574,19 @@
         <v>1.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
         <v>2.36</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="W6" t="n">
         <v>1.07</v>
@@ -1646,62 +1646,62 @@
         <v>1000</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.01</v>
+        <v>2.7</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1926,13 +1926,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I8" t="n">
         <v>9.199999999999999</v>
@@ -1944,7 +1944,7 @@
         <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1953,7 +1953,7 @@
         <v>2.84</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
         <v>1.96</v>
@@ -1962,7 +1962,7 @@
         <v>1.61</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
         <v>2.42</v>
@@ -1977,7 +1977,7 @@
         <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2120,52 +2120,52 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
         <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>2.84</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
         <v>1.71</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
         <v>1.18</v>
@@ -2186,10 +2186,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -2228,62 +2228,62 @@
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2305,179 +2305,179 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.78</v>
+        <v>16.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>2.64</v>
+        <v>1.17</v>
       </c>
       <c r="I10" t="n">
-        <v>2.84</v>
+        <v>1.21</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.08</v>
       </c>
-      <c r="N10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.37</v>
-      </c>
       <c r="P10" t="n">
-        <v>1.77</v>
+        <v>4.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>1.26</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>2.28</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>1.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>1.54</v>
+        <v>5.9</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z10" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>22</v>
-      </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AD10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>280</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AP10" t="n">
+      <c r="AR10" t="n">
         <v>10.5</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AS10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BA10" t="n">
         <v>9</v>
       </c>
-      <c r="AR10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV10" t="n">
+      <c r="BB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BE10" t="n">
         <v>11</v>
       </c>
-      <c r="AW10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY10" t="n">
+      <c r="BF10" t="n">
         <v>11.5</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>4.4</v>
-      </c>
       <c r="BG10" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2499,179 +2499,179 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG11" t="n">
         <v>16</v>
       </c>
-      <c r="G11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="AH11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP11" t="n">
         <v>10.5</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X11" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AQ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX11" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>230</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>260</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>220</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW11" t="n">
+      <c r="AY11" t="n">
         <v>11.5</v>
       </c>
-      <c r="AX11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>50</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="BB11" t="n">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
       <c r="BC11" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="BD11" t="n">
-        <v>8.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="BE11" t="n">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="BF11" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.32</v>
+        <v>4.3</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2705,10 +2705,10 @@
         <v>2.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
         <v>4.3</v>
@@ -2717,10 +2717,10 @@
         <v>2.86</v>
       </c>
       <c r="K12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
         <v>1.15</v>
@@ -2732,31 +2732,31 @@
         <v>1.63</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="R12" t="n">
         <v>1.15</v>
       </c>
       <c r="S12" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="V12" t="n">
         <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
@@ -2765,13 +2765,13 @@
         <v>28</v>
       </c>
       <c r="AA12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
         <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
         <v>970</v>
@@ -2780,7 +2780,7 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
         <v>970</v>
@@ -2810,62 +2810,62 @@
         <v>150</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="AT12" t="n">
         <v>5.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.75</v>
+        <v>6.2</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="AZ12" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="BA12" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="BB12" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="BC12" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="BE12" t="n">
-        <v>6.2</v>
+        <v>2.42</v>
       </c>
       <c r="BF12" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="BG12" t="n">
-        <v>6</v>
+        <v>2.22</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2896,16 +2896,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G13" t="n">
         <v>1.77</v>
       </c>
       <c r="H13" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2914,13 +2914,13 @@
         <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.52</v>
@@ -2929,31 +2929,31 @@
         <v>1.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="R13" t="n">
         <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U13" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="V13" t="n">
         <v>1.14</v>
       </c>
       <c r="W13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Z13" t="n">
         <v>65</v>
@@ -2965,7 +2965,7 @@
         <v>6</v>
       </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>970</v>
@@ -2974,7 +2974,7 @@
         <v>200</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
         <v>970</v>
@@ -2995,7 +2995,7 @@
         <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN13" t="n">
         <v>970</v>
@@ -3004,62 +3004,62 @@
         <v>1000</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6.2</v>
+        <v>12.5</v>
       </c>
       <c r="AR13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AS13" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT13" t="n">
         <v>5.1</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV13" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX13" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AY13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AZ13" t="n">
         <v>6.8</v>
       </c>
       <c r="BA13" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="BB13" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="BC13" t="n">
         <v>6.4</v>
       </c>
       <c r="BD13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="BE13" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="BG13" t="n">
-        <v>3.45</v>
+        <v>7.4</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -3090,70 +3090,70 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G14" t="n">
         <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
         <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="K14" t="n">
         <v>3.45</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="O14" t="n">
         <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T14" t="n">
         <v>1.94</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
         <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
         <v>970</v>
@@ -3177,83 +3177,83 @@
         <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AP14" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AR14" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AS14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AT14" t="n">
         <v>6.6</v>
       </c>
-      <c r="AT14" t="n">
-        <v>4</v>
-      </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AV14" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="AY14" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="BA14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BF14" t="n">
         <v>6.6</v>
       </c>
-      <c r="BB14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>5.8</v>
-      </c>
       <c r="BG14" t="n">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -3275,179 +3275,179 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
-        <v>2.94</v>
+        <v>1.74</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>1.87</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P15" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="T15" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="V15" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
       <c r="W15" t="n">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
-        <v>38</v>
+        <v>8.4</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AR15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AT15" t="n">
         <v>18.5</v>
       </c>
-      <c r="AS15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.95</v>
+        <v>14.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>14</v>
       </c>
       <c r="BA15" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="BB15" t="n">
-        <v>3.95</v>
+        <v>8.4</v>
       </c>
       <c r="BC15" t="n">
-        <v>21</v>
+        <v>7.6</v>
       </c>
       <c r="BD15" t="n">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="BE15" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="BF15" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="BG15" t="n">
-        <v>21</v>
+        <v>6.8</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -3469,179 +3469,179 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="H16" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S16" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="T16" t="n">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
         <v>48</v>
       </c>
       <c r="AF16" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN16" t="n">
         <v>23</v>
       </c>
-      <c r="AI16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="AO16" t="n">
         <v>50</v>
       </c>
-      <c r="AK16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>44</v>
-      </c>
       <c r="AP16" t="n">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.66</v>
+        <v>5.1</v>
       </c>
       <c r="AR16" t="n">
-        <v>14.5</v>
+        <v>3.95</v>
       </c>
       <c r="AS16" t="n">
-        <v>3.05</v>
+        <v>2.42</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="AU16" t="n">
-        <v>2.46</v>
+        <v>4.4</v>
       </c>
       <c r="AV16" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>2.66</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2.76</v>
+        <v>5.8</v>
       </c>
       <c r="BA16" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="BB16" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="BC16" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="BD16" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="BE16" t="n">
-        <v>3.1</v>
+        <v>1.99</v>
       </c>
       <c r="BF16" t="n">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="BG16" t="n">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -3663,67 +3663,67 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="G17" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>1.82</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="R17" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -3735,107 +3735,107 @@
         <v>27</v>
       </c>
       <c r="AA17" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="n">
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL17" t="n">
         <v>36</v>
       </c>
-      <c r="AK17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>48</v>
-      </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AP17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS17" t="n">
         <v>5</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>2.34</v>
-      </c>
       <c r="AT17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB17" t="n">
         <v>4.7</v>
       </c>
-      <c r="AU17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>3</v>
-      </c>
       <c r="BC17" t="n">
-        <v>2.92</v>
+        <v>4.5</v>
       </c>
       <c r="BD17" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="BE17" t="n">
-        <v>2.36</v>
+        <v>5</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.88</v>
+        <v>10.5</v>
       </c>
       <c r="BG17" t="n">
-        <v>2.3</v>
+        <v>10.5</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>4.7</v>
+        <v>2.58</v>
       </c>
       <c r="H18" t="n">
-        <v>1.8</v>
+        <v>2.96</v>
       </c>
       <c r="I18" t="n">
-        <v>1.89</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>2.42</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>2.12</v>
+        <v>1.42</v>
       </c>
       <c r="W18" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB18" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD18" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AE18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK18" t="n">
         <v>27</v>
       </c>
-      <c r="AC18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH18" t="n">
+      <c r="AL18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN18" t="n">
         <v>20</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AO18" t="n">
         <v>32</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AS18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>9</v>
-      </c>
       <c r="AW18" t="n">
-        <v>14.5</v>
+        <v>6.4</v>
       </c>
       <c r="AX18" t="n">
-        <v>5.2</v>
+        <v>14</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ18" t="n">
         <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="BC18" t="n">
-        <v>5.1</v>
+        <v>21</v>
       </c>
       <c r="BD18" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="BE18" t="n">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="BF18" t="n">
-        <v>5.4</v>
+        <v>13.5</v>
       </c>
       <c r="BG18" t="n">
-        <v>6.2</v>
+        <v>21</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -4051,186 +4051,186 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="G19" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
         <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
         <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>1.87</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.53</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="S19" t="n">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="W19" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF19" t="n">
         <v>18</v>
       </c>
-      <c r="AC19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>24</v>
-      </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>18</v>
       </c>
       <c r="AI19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK19" t="n">
         <v>40</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AL19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO19" t="n">
         <v>44</v>
       </c>
-      <c r="AK19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>22</v>
-      </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>3.35</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.55</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU19" t="n">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="AV19" t="n">
-        <v>3.5</v>
+        <v>2.86</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AX19" t="n">
-        <v>3.7</v>
+        <v>14.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="AZ19" t="n">
-        <v>3.7</v>
+        <v>14.5</v>
       </c>
       <c r="BA19" t="n">
         <v>3.9</v>
       </c>
       <c r="BB19" t="n">
-        <v>25</v>
+        <v>3.8</v>
       </c>
       <c r="BC19" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="BD19" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="BE19" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="BF19" t="n">
-        <v>3.55</v>
+        <v>14.5</v>
       </c>
       <c r="BG19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4245,186 +4245,186 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.3</v>
+        <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>1.31</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>10.5</v>
+        <v>2.52</v>
       </c>
       <c r="I20" t="n">
-        <v>11.5</v>
+        <v>2.76</v>
       </c>
       <c r="J20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y20" t="n">
         <v>7</v>
       </c>
-      <c r="K20" t="n">
+      <c r="Z20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC20" t="n">
         <v>7.4</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="AD20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI20" t="n">
         <v>120</v>
       </c>
-      <c r="AA20" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>90</v>
-      </c>
       <c r="AJ20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>390</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AR20" t="n">
         <v>12.5</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AS20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV20" t="n">
         <v>12</v>
       </c>
-      <c r="AL20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>36</v>
-      </c>
       <c r="AW20" t="n">
-        <v>100</v>
+        <v>7.6</v>
       </c>
       <c r="AX20" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="AY20" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
-        <v>60</v>
+        <v>8.4</v>
       </c>
       <c r="BB20" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC20" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
-        <v>22</v>
+        <v>8.4</v>
       </c>
       <c r="BE20" t="n">
-        <v>60</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF20" t="n">
-        <v>3.1</v>
+        <v>8.4</v>
       </c>
       <c r="BG20" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4439,186 +4439,186 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.52</v>
+        <v>3.05</v>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
-        <v>6.6</v>
+        <v>2.96</v>
       </c>
       <c r="I21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC21" t="n">
         <v>7</v>
       </c>
-      <c r="J21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="X21" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>12</v>
-      </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AL21" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.1</v>
+        <v>70</v>
       </c>
       <c r="AO21" t="n">
         <v>65</v>
       </c>
       <c r="AP21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AS21" t="n">
         <v>26</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>60</v>
-      </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AU21" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="AV21" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AW21" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AX21" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AZ21" t="n">
         <v>17.5</v>
       </c>
       <c r="BA21" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="BB21" t="n">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="BC21" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="BD21" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="BE21" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="BF21" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="BG21" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4633,186 +4633,186 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5</v>
+        <v>1.54</v>
       </c>
       <c r="G22" t="n">
-        <v>3.85</v>
+        <v>1.56</v>
       </c>
       <c r="H22" t="n">
-        <v>2.58</v>
+        <v>5.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.76</v>
+        <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.74</v>
+        <v>5.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.92</v>
+        <v>5.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>2.16</v>
+        <v>6.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.74</v>
+        <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>1.36</v>
+        <v>2.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.25</v>
+        <v>1.48</v>
       </c>
       <c r="R22" t="n">
-        <v>1.12</v>
+        <v>1.78</v>
       </c>
       <c r="S22" t="n">
-        <v>7.6</v>
+        <v>2.22</v>
       </c>
       <c r="T22" t="n">
-        <v>2.36</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>1.58</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.56</v>
+        <v>1.19</v>
       </c>
       <c r="W22" t="n">
-        <v>1.35</v>
+        <v>2.8</v>
       </c>
       <c r="X22" t="n">
-        <v>7.6</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Z22" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AA22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI22" t="n">
         <v>60</v>
       </c>
-      <c r="AB22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AJ22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>48</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>23</v>
+      </c>
+      <c r="BE22" t="n">
         <v>60</v>
       </c>
-      <c r="AF22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>380</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>160</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AZ22" t="n">
+      <c r="BF22" t="n">
         <v>5</v>
       </c>
-      <c r="BA22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>5.7</v>
-      </c>
       <c r="BG22" t="n">
-        <v>5.4</v>
+        <v>42</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4827,179 +4827,179 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1.51</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>1.53</v>
       </c>
       <c r="H23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W23" t="n">
         <v>2.92</v>
       </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.46</v>
-      </c>
       <c r="X23" t="n">
-        <v>7.6</v>
+        <v>28</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>16.5</v>
+        <v>65</v>
       </c>
       <c r="AA23" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR23" t="n">
         <v>55</v>
       </c>
-      <c r="AB23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AS23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>23</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>65</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BG23" t="n">
         <v>50</v>
       </c>
-      <c r="AF23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>36</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>28</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>27</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>36</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>48</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>32</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>28</v>
-      </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -5021,186 +5021,186 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="G24" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="I24" t="n">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="K24" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="P24" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="R24" t="n">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="S24" t="n">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="T24" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="V24" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="X24" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Y24" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z24" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AA24" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF24" t="n">
+      <c r="AK24" t="n">
         <v>12</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>13.5</v>
       </c>
       <c r="AL24" t="n">
         <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="AO24" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AP24" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AQ24" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AR24" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AS24" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AT24" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AW24" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AX24" t="n">
         <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="BB24" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="BC24" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="BD24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE24" t="n">
         <v>60</v>
       </c>
       <c r="BF24" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="BG24" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5210,51 +5210,51 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
         <v>1.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
         <v>1.01</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -5404,184 +5404,184 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="G26" t="n">
-        <v>1000</v>
+        <v>1.86</v>
       </c>
       <c r="H26" t="n">
-        <v>1.04</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="J26" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>1.1</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S26" t="n">
-        <v>1.05</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="U26" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="AU26" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AV26" t="n">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="AW26" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AX26" t="n">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY26" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AZ26" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BA26" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BB26" t="n">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="BC26" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BD26" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BE26" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF26" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="BG26" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -5598,60 +5598,60 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="G27" t="n">
-        <v>1.79</v>
+        <v>3.65</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.81</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="T27" t="n">
         <v>1.05</v>
@@ -5660,10 +5660,10 @@
         <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -5720,34 +5720,34 @@
         <v>1000</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>1.01</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW27" t="n">
         <v>1.01</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AZ27" t="n">
         <v>1.01</v>
@@ -5771,18 +5771,18 @@
         <v>1.01</v>
       </c>
       <c r="BG27" t="n">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5792,120 +5792,120 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="N28" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S28" t="n">
-        <v>1.05</v>
+        <v>6.6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="U28" t="n">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="n">
         <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN28" t="n">
         <v>1000</v>
@@ -5914,69 +5914,69 @@
         <v>1000</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AU28" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AV28" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AW28" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AX28" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="AY28" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BA28" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BB28" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BC28" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="BD28" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BE28" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF28" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BG28" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5986,184 +5986,184 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>1.88</v>
       </c>
       <c r="G29" t="n">
-        <v>3.55</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.34</v>
+        <v>5.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.52</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N29" t="n">
-        <v>3.4</v>
+        <v>2.44</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="P29" t="n">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="Q29" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W29" t="n">
         <v>2</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.39</v>
-      </c>
       <c r="X29" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z29" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AA29" t="n">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AC29" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>370</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR29" t="n">
         <v>29</v>
       </c>
-      <c r="AF29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>13</v>
-      </c>
       <c r="AS29" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>6.6</v>
+        <v>40</v>
       </c>
       <c r="AX29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BC29" t="n">
         <v>19</v>
       </c>
-      <c r="AY29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>7.2</v>
-      </c>
       <c r="BD29" t="n">
-        <v>7.6</v>
+        <v>34</v>
       </c>
       <c r="BE29" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BF29" t="n">
-        <v>7.2</v>
+        <v>17.5</v>
       </c>
       <c r="BG29" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -6180,184 +6180,184 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.76</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.79</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="W30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU30" t="n">
         <v>2.08</v>
       </c>
-      <c r="X30" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>2.28</v>
       </c>
       <c r="AW30" t="n">
-        <v>8.800000000000001</v>
+        <v>2.52</v>
       </c>
       <c r="AX30" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>9</v>
+        <v>2.34</v>
       </c>
       <c r="AZ30" t="n">
-        <v>7</v>
+        <v>2.44</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>2.58</v>
       </c>
       <c r="BB30" t="n">
-        <v>16.5</v>
+        <v>2.58</v>
       </c>
       <c r="BC30" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="BD30" t="n">
-        <v>8.199999999999999</v>
+        <v>2.58</v>
       </c>
       <c r="BE30" t="n">
-        <v>9.4</v>
+        <v>2.66</v>
       </c>
       <c r="BF30" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="BG30" t="n">
-        <v>9.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -6374,191 +6374,191 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>2.52</v>
+        <v>4.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.76</v>
+        <v>5.4</v>
       </c>
       <c r="J31" t="n">
         <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P31" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AS31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU31" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AX31" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AY31" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BA31" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BB31" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="BC31" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BD31" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BE31" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BF31" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BG31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6568,120 +6568,120 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.28</v>
+        <v>1.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="P32" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="R32" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>6.6</v>
+        <v>1.05</v>
       </c>
       <c r="T32" t="n">
-        <v>2.28</v>
+        <v>1.05</v>
       </c>
       <c r="U32" t="n">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
       <c r="V32" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="W32" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="X32" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
@@ -6690,69 +6690,69 @@
         <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AQ32" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AR32" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS32" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AT32" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AV32" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW32" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AX32" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AY32" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="AZ32" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="BA32" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="BB32" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="BC32" t="n">
-        <v>55</v>
+        <v>1.01</v>
       </c>
       <c r="BD32" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="BE32" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="BF32" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="BG32" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6762,191 +6762,191 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.34</v>
+        <v>1.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.92</v>
+        <v>1.01</v>
       </c>
       <c r="R33" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>6.2</v>
+        <v>1.45</v>
       </c>
       <c r="T33" t="n">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="U33" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="V33" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W33" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="X33" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
       </c>
       <c r="AP33" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ33" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR33" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AS33" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AT33" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="AU33" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AV33" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AW33" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AX33" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AY33" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AZ33" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="BA33" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="BB33" t="n">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="BC33" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="BD33" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="BE33" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="BF33" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="BG33" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6956,191 +6956,191 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.88</v>
+        <v>2.92</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>3.45</v>
       </c>
       <c r="H34" t="n">
-        <v>4.5</v>
+        <v>2.52</v>
       </c>
       <c r="I34" t="n">
-        <v>5.4</v>
+        <v>2.88</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O34" t="n">
         <v>1.37</v>
       </c>
       <c r="P34" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="R34" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X34" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AV34" t="n">
         <v>3.75</v>
       </c>
-      <c r="T34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W34" t="n">
-        <v>2</v>
-      </c>
-      <c r="X34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>16</v>
-      </c>
       <c r="AW34" t="n">
-        <v>55</v>
+        <v>4.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>9.6</v>
+        <v>4.2</v>
       </c>
       <c r="AY34" t="n">
-        <v>9.199999999999999</v>
+        <v>3.85</v>
       </c>
       <c r="AZ34" t="n">
-        <v>18</v>
+        <v>4.1</v>
       </c>
       <c r="BA34" t="n">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="BB34" t="n">
-        <v>18.5</v>
+        <v>4.7</v>
       </c>
       <c r="BC34" t="n">
-        <v>19</v>
+        <v>4.6</v>
       </c>
       <c r="BD34" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="BE34" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="BF34" t="n">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="BG34" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7150,108 +7150,108 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>1.1</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>1.24</v>
+        <v>1.82</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R35" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S35" t="n">
-        <v>1.05</v>
+        <v>3.1</v>
       </c>
       <c r="T35" t="n">
         <v>1.05</v>
       </c>
       <c r="U35" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="V35" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W35" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ35" t="n">
         <v>1000</v>
@@ -7266,75 +7266,75 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AR35" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AU35" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AV35" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AW35" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AX35" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AY35" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ35" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="BA35" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BB35" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BC35" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BD35" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BE35" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="BF35" t="n">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="BG35" t="n">
-        <v>1.01</v>
+        <v>32</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7344,72 +7344,72 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="P36" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="R36" t="n">
         <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>1.45</v>
+        <v>3.7</v>
       </c>
       <c r="T36" t="n">
         <v>1.05</v>
       </c>
       <c r="U36" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="V36" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W36" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -7418,692 +7418,110 @@
         <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AR36" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="AU36" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AV36" t="n">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="AW36" t="n">
-        <v>1.01</v>
+        <v>44</v>
       </c>
       <c r="AX36" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AY36" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="AZ36" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="BA36" t="n">
-        <v>1.01</v>
+        <v>48</v>
       </c>
       <c r="BB36" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="BC36" t="n">
-        <v>1.01</v>
+        <v>18</v>
       </c>
       <c r="BD36" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="BE36" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BF36" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="BG36" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X37" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="BH37" t="inlineStr">
-        <is>
-          <t>2026-02-24 05:57:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Gremio</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Atletico MG</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X38" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>21</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>16</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>32</v>
-      </c>
-      <c r="BH38" t="inlineStr">
-        <is>
-          <t>2026-02-24 05:57:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>SE Palmeiras</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="X39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>95</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>55</v>
-      </c>
-      <c r="BH39" t="inlineStr">
-        <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -762,40 +762,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -804,13 +804,13 @@
         <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="W2" t="n">
         <v>1.32</v>
@@ -828,10 +828,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>13.5</v>
@@ -840,10 +840,10 @@
         <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH2" t="n">
         <v>22</v>
@@ -870,10 +870,10 @@
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR2" t="n">
         <v>11.5</v>
@@ -882,31 +882,31 @@
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AW2" t="n">
-        <v>17.5</v>
+        <v>3.95</v>
       </c>
       <c r="AX2" t="n">
         <v>19.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="BA2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BB2" t="n">
         <v>4.3</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>4.2</v>
       </c>
       <c r="BC2" t="n">
         <v>4.2</v>
@@ -915,17 +915,17 @@
         <v>4.2</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF2" t="n">
         <v>4.2</v>
       </c>
       <c r="BG2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -974,37 +974,37 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
         <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
         <v>1.51</v>
       </c>
       <c r="S3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
         <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W3" t="n">
         <v>1.85</v>
@@ -1013,7 +1013,7 @@
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z3" t="n">
         <v>25</v>
@@ -1031,7 +1031,7 @@
         <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
@@ -1058,7 +1058,7 @@
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO3" t="n">
         <v>27</v>
@@ -1079,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AV3" t="n">
         <v>13.5</v>
@@ -1112,14 +1112,14 @@
         <v>60</v>
       </c>
       <c r="BF3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BG3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I4" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
@@ -1168,152 +1168,152 @@
         <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
         <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
         <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
         <v>19.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR4" t="n">
         <v>16.5</v>
       </c>
-      <c r="AI4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>16</v>
-      </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AT4" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
         <v>11.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.7</v>
+        <v>13.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.4</v>
+        <v>36</v>
       </c>
       <c r="BB4" t="n">
-        <v>7.4</v>
+        <v>38</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BD4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BE4" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="BF4" t="n">
-        <v>6.8</v>
+        <v>20</v>
       </c>
       <c r="BG4" t="n">
         <v>20</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -1344,170 +1344,170 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="G5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.42</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.45</v>
-      </c>
       <c r="J5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K5" t="n">
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.13</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.14</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
         <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AK5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="n">
         <v>110</v>
       </c>
-      <c r="AL5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>75</v>
-      </c>
       <c r="AN5" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AP5" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AR5" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AS5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU5" t="n">
         <v>12</v>
       </c>
-      <c r="AT5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AV5" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AW5" t="n">
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AY5" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AZ5" t="n">
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="BA5" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD5" t="n">
         <v>9.6</v>
       </c>
-      <c r="BB5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>11</v>
-      </c>
       <c r="BE5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BF5" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BG5" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -1538,55 +1538,55 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="G6" t="n">
         <v>14.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="I6" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>85</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="V6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
         <v>1.07</v>
@@ -1646,62 +1646,62 @@
         <v>1000</v>
       </c>
       <c r="AP6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AW6" t="n">
         <v>3.75</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.55</v>
-      </c>
       <c r="AX6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY6" t="n">
         <v>4.2</v>
       </c>
-      <c r="AY6" t="n">
-        <v>4</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="BA6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BC6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BE6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -1926,13 +1926,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="G8" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
         <v>9.199999999999999</v>
@@ -1941,28 +1941,28 @@
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
         <v>2.42</v>
@@ -1977,7 +1977,7 @@
         <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>1.69</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H9" t="n">
         <v>4.4</v>
@@ -2132,13 +2132,13 @@
         <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
         <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -2171,7 +2171,7 @@
         <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -2314,22 +2314,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
         <v>1.17</v>
       </c>
       <c r="I10" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="J10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -2338,67 +2338,67 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="R10" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="S10" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V10" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="W10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
         <v>25</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AG10" t="n">
         <v>65</v>
       </c>
       <c r="AH10" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
         <v>34</v>
@@ -2407,77 +2407,77 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AL10" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="AP10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AR10" t="n">
         <v>10</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AX10" t="n">
         <v>10.5</v>
       </c>
-      <c r="AS10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AT10" t="n">
+      <c r="AY10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BB10" t="n">
         <v>11</v>
       </c>
-      <c r="AU10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY10" t="n">
+      <c r="BC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE10" t="n">
         <v>10</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>11</v>
-      </c>
       <c r="BF10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>2.64</v>
@@ -2523,7 +2523,7 @@
         <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -2541,7 +2541,7 @@
         <v>1.77</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
         <v>1.29</v>
@@ -2559,7 +2559,7 @@
         <v>1.54</v>
       </c>
       <c r="W11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
@@ -2577,16 +2577,16 @@
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
         <v>16</v>
@@ -2607,7 +2607,7 @@
         <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
         <v>42</v>
@@ -2625,10 +2625,10 @@
         <v>15.5</v>
       </c>
       <c r="AS11" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU11" t="n">
         <v>6.6</v>
@@ -2637,41 +2637,41 @@
         <v>11</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="AX11" t="n">
         <v>16.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA11" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="BB11" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="BC11" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="BD11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE11" t="n">
         <v>4.2</v>
       </c>
-      <c r="BE11" t="n">
-        <v>4.3</v>
-      </c>
       <c r="BF11" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -2702,61 +2702,61 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
         <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="M12" t="n">
         <v>1.15</v>
       </c>
       <c r="N12" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.63</v>
       </c>
       <c r="P12" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S12" t="n">
         <v>5.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
         <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
@@ -2765,7 +2765,7 @@
         <v>28</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
         <v>970</v>
@@ -2807,65 +2807,65 @@
         <v>46</v>
       </c>
       <c r="AO12" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AP12" t="n">
         <v>4.2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.35</v>
+        <v>7.4</v>
       </c>
       <c r="AT12" t="n">
         <v>5.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="AV12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>6</v>
       </c>
-      <c r="AW12" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AZ12" t="n">
+      <c r="BA12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF12" t="n">
         <v>6.6</v>
       </c>
-      <c r="BA12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>7.4</v>
-      </c>
       <c r="BG12" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -2896,19 +2896,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G13" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="H13" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
@@ -2917,64 +2917,64 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.52</v>
       </c>
       <c r="R13" t="n">
         <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="T13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W13" t="n">
         <v>2.36</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.3</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
         <v>65</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AB13" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG13" t="n">
         <v>970</v>
@@ -2983,10 +2983,10 @@
         <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ13" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
         <v>25</v>
@@ -2995,71 +2995,71 @@
         <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="AN13" t="n">
         <v>970</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AP13" t="n">
         <v>7.8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AR13" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AT13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AV13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AX13" t="n">
         <v>7.2</v>
       </c>
       <c r="AY13" t="n">
-        <v>5.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ13" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="BA13" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BB13" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="BC13" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="BD13" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="BE13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="BF13" t="n">
-        <v>5.9</v>
+        <v>12.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -3090,49 +3090,49 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G14" t="n">
         <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
         <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="O14" t="n">
         <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q14" t="n">
         <v>2.32</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S14" t="n">
         <v>4.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U14" t="n">
         <v>1.84</v>
@@ -3165,7 +3165,7 @@
         <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
         <v>970</v>
@@ -3180,10 +3180,10 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -3198,62 +3198,62 @@
         <v>1000</v>
       </c>
       <c r="AP14" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5.1</v>
+        <v>9.6</v>
       </c>
       <c r="AR14" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AS14" t="n">
-        <v>3.75</v>
+        <v>8.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AU14" t="n">
         <v>6.2</v>
       </c>
       <c r="AV14" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="AX14" t="n">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>5.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BA14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB14" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="BC14" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="BD14" t="n">
-        <v>3.7</v>
+        <v>7.8</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.56</v>
+        <v>8.6</v>
       </c>
       <c r="BF14" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BG14" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -3287,16 +3287,16 @@
         <v>4.1</v>
       </c>
       <c r="G15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="I15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
         <v>4.9</v>
@@ -3308,76 +3308,76 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.19</v>
       </c>
       <c r="P15" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T15" t="n">
         <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V15" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="W15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AB15" t="n">
         <v>24</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG15" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>28</v>
       </c>
       <c r="AJ15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL15" t="n">
         <v>48</v>
@@ -3386,7 +3386,7 @@
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO15" t="n">
         <v>8.4</v>
@@ -3401,7 +3401,7 @@
         <v>11.5</v>
       </c>
       <c r="AS15" t="n">
-        <v>6.4</v>
+        <v>18</v>
       </c>
       <c r="AT15" t="n">
         <v>18.5</v>
@@ -3413,41 +3413,41 @@
         <v>9</v>
       </c>
       <c r="AW15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AX15" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ15" t="n">
         <v>14</v>
       </c>
       <c r="BA15" t="n">
-        <v>6.8</v>
+        <v>20</v>
       </c>
       <c r="BB15" t="n">
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="BC15" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="BD15" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="BE15" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="BF15" t="n">
-        <v>7.4</v>
+        <v>4.9</v>
       </c>
       <c r="BG15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -3481,25 +3481,25 @@
         <v>2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
         <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
         <v>3.35</v>
@@ -3511,7 +3511,7 @@
         <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
         <v>1.31</v>
@@ -3520,7 +3520,7 @@
         <v>3.55</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
         <v>2.04</v>
@@ -3529,7 +3529,7 @@
         <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -3538,7 +3538,7 @@
         <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
         <v>75</v>
@@ -3568,7 +3568,7 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
         <v>28</v>
@@ -3586,62 +3586,62 @@
         <v>50</v>
       </c>
       <c r="AP16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX16" t="n">
         <v>5.3</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="BA16" t="n">
-        <v>2.82</v>
+        <v>2.44</v>
       </c>
       <c r="BB16" t="n">
-        <v>2.72</v>
+        <v>2.08</v>
       </c>
       <c r="BC16" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="BD16" t="n">
-        <v>2.8</v>
+        <v>1.49</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.99</v>
+        <v>1.25</v>
       </c>
       <c r="BF16" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="BG16" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -3672,10 +3672,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G17" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
         <v>2.7</v>
@@ -3705,40 +3705,40 @@
         <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="R17" t="n">
         <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U17" t="n">
         <v>2.52</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Z17" t="n">
         <v>27</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AC17" t="n">
         <v>11.5</v>
@@ -3750,7 +3750,7 @@
         <v>34</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
         <v>15</v>
@@ -3759,16 +3759,16 @@
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="n">
         <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
         <v>70</v>
@@ -3777,65 +3777,65 @@
         <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP17" t="n">
-        <v>4.3</v>
+        <v>16</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AR17" t="n">
         <v>16</v>
       </c>
       <c r="AS17" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>3.85</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="AW17" t="n">
         <v>19.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="AY17" t="n">
-        <v>4.2</v>
+        <v>10.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="BA17" t="n">
         <v>23</v>
       </c>
       <c r="BB17" t="n">
-        <v>4.7</v>
+        <v>25</v>
       </c>
       <c r="BC17" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="BD17" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="BE17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BG17" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G18" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H18" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I18" t="n">
         <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.29</v>
@@ -3899,16 +3899,16 @@
         <v>1.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
         <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
         <v>2.18</v>
@@ -3917,7 +3917,7 @@
         <v>1.42</v>
       </c>
       <c r="W18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X18" t="n">
         <v>16.5</v>
@@ -3932,10 +3932,10 @@
         <v>60</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
         <v>14.5</v>
@@ -3944,10 +3944,10 @@
         <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>17.5</v>
@@ -3956,22 +3956,22 @@
         <v>46</v>
       </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK18" t="n">
         <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AP18" t="n">
         <v>13</v>
@@ -3980,13 +3980,13 @@
         <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3995,10 +3995,10 @@
         <v>11.5</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AX18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY18" t="n">
         <v>9.800000000000001</v>
@@ -4007,29 +4007,29 @@
         <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="BB18" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
       </c>
       <c r="BD18" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BE18" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="BF18" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="BG18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -4060,22 +4060,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G19" t="n">
         <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J19" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.4</v>
@@ -4084,146 +4084,146 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W19" t="n">
         <v>1.56</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.35</v>
+        <v>12</v>
       </c>
       <c r="AQ19" t="n">
         <v>10</v>
       </c>
       <c r="AR19" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="AT19" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AU19" t="n">
-        <v>2.58</v>
+        <v>6.8</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.86</v>
+        <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
-        <v>2.82</v>
+        <v>10</v>
       </c>
       <c r="AZ19" t="n">
         <v>14.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="BB19" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="BC19" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="BD19" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="BE19" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="BF19" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="BG19" t="n">
-        <v>19</v>
+        <v>4.4</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -4254,22 +4254,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="H20" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="I20" t="n">
         <v>2.76</v>
       </c>
       <c r="J20" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L20" t="n">
         <v>1.71</v>
@@ -4278,34 +4278,34 @@
         <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="O20" t="n">
         <v>1.74</v>
       </c>
       <c r="P20" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="Q20" t="n">
         <v>3.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S20" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="U20" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="V20" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W20" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="X20" t="n">
         <v>6.8</v>
@@ -4353,16 +4353,16 @@
         <v>150</v>
       </c>
       <c r="AM20" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AN20" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AO20" t="n">
         <v>70</v>
       </c>
       <c r="AP20" t="n">
-        <v>3.85</v>
+        <v>5.9</v>
       </c>
       <c r="AQ20" t="n">
         <v>5.9</v>
@@ -4383,7 +4383,7 @@
         <v>12</v>
       </c>
       <c r="AW20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AX20" t="n">
         <v>6.6</v>
@@ -4398,7 +4398,7 @@
         <v>8.4</v>
       </c>
       <c r="BB20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BC20" t="n">
         <v>8</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
         <v>2.92</v>
       </c>
       <c r="K21" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -4499,7 +4499,7 @@
         <v>1.49</v>
       </c>
       <c r="W21" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X21" t="n">
         <v>7.6</v>
@@ -4583,7 +4583,7 @@
         <v>15</v>
       </c>
       <c r="AY21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AZ21" t="n">
         <v>17.5</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -4645,10 +4645,10 @@
         <v>1.54</v>
       </c>
       <c r="G22" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
         <v>6.2</v>
@@ -4660,7 +4660,7 @@
         <v>5.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -4669,7 +4669,7 @@
         <v>6.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
         <v>2.96</v>
@@ -4687,7 +4687,7 @@
         <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V22" t="n">
         <v>1.19</v>
@@ -4699,7 +4699,7 @@
         <v>32</v>
       </c>
       <c r="Y22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z22" t="n">
         <v>60</v>
@@ -4708,7 +4708,7 @@
         <v>150</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
         <v>12.5</v>
@@ -4729,7 +4729,7 @@
         <v>18.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
         <v>14.5</v>
@@ -4744,7 +4744,7 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO22" t="n">
         <v>46</v>
@@ -4759,7 +4759,7 @@
         <v>48</v>
       </c>
       <c r="AS22" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
@@ -4792,7 +4792,7 @@
         <v>12.5</v>
       </c>
       <c r="BD22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE22" t="n">
         <v>60</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
         <v>1.51</v>
       </c>
       <c r="G23" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H23" t="n">
         <v>6.8</v>
@@ -4848,10 +4848,10 @@
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L23" t="n">
         <v>1.26</v>
@@ -4866,13 +4866,13 @@
         <v>1.16</v>
       </c>
       <c r="P23" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q23" t="n">
         <v>1.51</v>
       </c>
       <c r="R23" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S23" t="n">
         <v>2.26</v>
@@ -4884,10 +4884,10 @@
         <v>2.42</v>
       </c>
       <c r="V23" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X23" t="n">
         <v>28</v>
@@ -4917,7 +4917,7 @@
         <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
         <v>18.5</v>
@@ -4941,7 +4941,7 @@
         <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP23" t="n">
         <v>27</v>
@@ -4968,10 +4968,10 @@
         <v>65</v>
       </c>
       <c r="AX23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ23" t="n">
         <v>18</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -5030,19 +5030,19 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.3</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.31</v>
-      </c>
       <c r="H24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
         <v>7.4</v>
@@ -5054,22 +5054,22 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.1</v>
       </c>
       <c r="P24" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q24" t="n">
         <v>1.34</v>
       </c>
       <c r="R24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="S24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T24" t="n">
         <v>1.68</v>
@@ -5078,49 +5078,49 @@
         <v>2.38</v>
       </c>
       <c r="V24" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z24" t="n">
         <v>120</v>
       </c>
       <c r="AA24" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="AB24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD24" t="n">
         <v>40</v>
       </c>
       <c r="AE24" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF24" t="n">
         <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>12</v>
@@ -5138,13 +5138,13 @@
         <v>85</v>
       </c>
       <c r="AP24" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ24" t="n">
         <v>50</v>
       </c>
       <c r="AR24" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AS24" t="n">
         <v>55</v>
@@ -5162,16 +5162,16 @@
         <v>100</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AZ24" t="n">
         <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BB24" t="n">
         <v>11.5</v>
@@ -5189,11 +5189,11 @@
         <v>3.1</v>
       </c>
       <c r="BG24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G26" t="n">
         <v>1.86</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I26" t="n">
         <v>5.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
         <v>1.49</v>
@@ -5445,13 +5445,13 @@
         <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R26" t="n">
         <v>1.26</v>
@@ -5463,7 +5463,7 @@
         <v>2.06</v>
       </c>
       <c r="U26" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V26" t="n">
         <v>1.21</v>
@@ -5472,13 +5472,13 @@
         <v>2.16</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
         <v>16</v>
       </c>
       <c r="Z26" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA26" t="n">
         <v>180</v>
@@ -5487,10 +5487,10 @@
         <v>7.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>110</v>
@@ -5502,10 +5502,10 @@
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -5532,56 +5532,56 @@
         <v>12.5</v>
       </c>
       <c r="AR26" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AS26" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="AU26" t="n">
         <v>7.4</v>
       </c>
       <c r="AV26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW26" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AX26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AY26" t="n">
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BA26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD26" t="n">
         <v>7.8</v>
       </c>
-      <c r="BB26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>7.2</v>
-      </c>
       <c r="BE26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF26" t="n">
         <v>12</v>
       </c>
       <c r="BG26" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -5612,22 +5612,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G27" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="I27" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.44</v>
@@ -5636,55 +5636,55 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.66</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.05</v>
+        <v>1.82</v>
       </c>
       <c r="U27" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="V27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W27" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -5693,7 +5693,7 @@
         <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -5711,7 +5711,7 @@
         <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
@@ -5729,19 +5729,19 @@
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AT27" t="n">
         <v>10</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AX27" t="n">
         <v>19</v>
@@ -5750,32 +5750,32 @@
         <v>12</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="BC27" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="BE27" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BG27" t="n">
         <v>16.5</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -5806,22 +5806,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G28" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H28" t="n">
         <v>2.5</v>
       </c>
       <c r="I28" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J28" t="n">
         <v>2.82</v>
       </c>
-      <c r="J28" t="n">
-        <v>2.58</v>
-      </c>
       <c r="K28" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -5830,10 +5830,10 @@
         <v>1.15</v>
       </c>
       <c r="N28" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="O28" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="P28" t="n">
         <v>1.42</v>
@@ -5848,16 +5848,16 @@
         <v>6.6</v>
       </c>
       <c r="T28" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U28" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V28" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W28" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X28" t="n">
         <v>7.6</v>
@@ -5887,10 +5887,10 @@
         <v>24</v>
       </c>
       <c r="AG28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH28" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AI28" t="n">
         <v>100</v>
@@ -5902,7 +5902,7 @@
         <v>70</v>
       </c>
       <c r="AL28" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM28" t="n">
         <v>310</v>
@@ -5941,16 +5941,16 @@
         <v>19</v>
       </c>
       <c r="AY28" t="n">
-        <v>5.7</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>6.4</v>
+        <v>23</v>
       </c>
       <c r="BA28" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BB28" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BC28" t="n">
         <v>7.4</v>
@@ -5959,17 +5959,17 @@
         <v>7.8</v>
       </c>
       <c r="BE28" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BF28" t="n">
-        <v>7.8</v>
+        <v>70</v>
       </c>
       <c r="BG28" t="n">
         <v>7.2</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -6000,13 +6000,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H29" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I29" t="n">
         <v>6</v>
@@ -6015,49 +6015,49 @@
         <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
         <v>1.63</v>
       </c>
       <c r="M29" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O29" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P29" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="R29" t="n">
         <v>1.15</v>
       </c>
       <c r="S29" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T29" t="n">
         <v>2.46</v>
       </c>
       <c r="U29" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
         <v>1.2</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X29" t="n">
         <v>7.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="n">
         <v>44</v>
@@ -6066,10 +6066,10 @@
         <v>250</v>
       </c>
       <c r="AB29" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
         <v>970</v>
@@ -6078,7 +6078,7 @@
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
         <v>12.5</v>
@@ -6111,25 +6111,25 @@
         <v>6.8</v>
       </c>
       <c r="AQ29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW29" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>40</v>
       </c>
       <c r="AX29" t="n">
         <v>8.4</v>
@@ -6141,10 +6141,10 @@
         <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BB29" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -6153,17 +6153,17 @@
         <v>34</v>
       </c>
       <c r="BE29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BF29" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="BG29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G30" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H30" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I30" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.51</v>
@@ -6218,146 +6218,146 @@
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="O30" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R30" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S30" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T30" t="n">
-        <v>1.05</v>
+        <v>1.97</v>
       </c>
       <c r="U30" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="V30" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="W30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY30" t="n">
         <v>12</v>
       </c>
-      <c r="Z30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>2.34</v>
-      </c>
       <c r="AZ30" t="n">
-        <v>2.44</v>
+        <v>6</v>
       </c>
       <c r="BA30" t="n">
-        <v>2.58</v>
+        <v>7.2</v>
       </c>
       <c r="BB30" t="n">
-        <v>2.58</v>
+        <v>7.4</v>
       </c>
       <c r="BC30" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
-        <v>2.58</v>
+        <v>7.4</v>
       </c>
       <c r="BE30" t="n">
-        <v>2.66</v>
+        <v>8</v>
       </c>
       <c r="BF30" t="n">
-        <v>36</v>
+        <v>7.2</v>
       </c>
       <c r="BG30" t="n">
-        <v>23</v>
+        <v>6.8</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -6388,64 +6388,64 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H31" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="O31" t="n">
         <v>1.37</v>
       </c>
       <c r="P31" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="R31" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T31" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="U31" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V31" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X31" t="n">
         <v>15.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z31" t="n">
         <v>38</v>
@@ -6490,13 +6490,13 @@
         <v>160</v>
       </c>
       <c r="AN31" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AP31" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AQ31" t="n">
         <v>12.5</v>
@@ -6508,7 +6508,7 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="AU31" t="n">
         <v>7.2</v>
@@ -6517,31 +6517,31 @@
         <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AX31" t="n">
         <v>9.6</v>
       </c>
       <c r="AY31" t="n">
-        <v>4.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
         <v>6.8</v>
       </c>
       <c r="BB31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>5.6</v>
+        <v>19.5</v>
       </c>
       <c r="BD31" t="n">
         <v>6.4</v>
       </c>
       <c r="BE31" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BF31" t="n">
         <v>11.5</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
         <v>1.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P32" t="n">
         <v>1.24</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -6970,22 +6970,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G34" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H34" t="n">
         <v>2.52</v>
       </c>
       <c r="I34" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="K34" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L34" t="n">
         <v>1.39</v>
@@ -6994,34 +6994,34 @@
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="O34" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P34" t="n">
         <v>1.78</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R34" t="n">
         <v>1.3</v>
       </c>
       <c r="S34" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T34" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U34" t="n">
         <v>2.04</v>
       </c>
       <c r="V34" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W34" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X34" t="n">
         <v>970</v>
@@ -7078,13 +7078,13 @@
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AQ34" t="n">
         <v>3.55</v>
       </c>
       <c r="AR34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AS34" t="n">
         <v>4.6</v>
@@ -7105,7 +7105,7 @@
         <v>4.2</v>
       </c>
       <c r="AY34" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AZ34" t="n">
         <v>4.1</v>
@@ -7129,11 +7129,11 @@
         <v>4.6</v>
       </c>
       <c r="BG34" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -7164,22 +7164,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G35" t="n">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.2</v>
       </c>
       <c r="L35" t="n">
         <v>1.41</v>
@@ -7188,37 +7188,37 @@
         <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="O35" t="n">
         <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R35" t="n">
         <v>1.35</v>
       </c>
       <c r="S35" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.05</v>
+        <v>1.77</v>
       </c>
       <c r="U35" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V35" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W35" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y35" t="n">
         <v>14</v>
@@ -7227,7 +7227,7 @@
         <v>26</v>
       </c>
       <c r="AA35" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
         <v>10.5</v>
@@ -7239,7 +7239,7 @@
         <v>15.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
         <v>15.5</v>
@@ -7263,7 +7263,7 @@
         <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN35" t="n">
         <v>20</v>
@@ -7272,7 +7272,7 @@
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
-        <v>5.4</v>
+        <v>12.5</v>
       </c>
       <c r="AQ35" t="n">
         <v>11</v>
@@ -7281,10 +7281,10 @@
         <v>20</v>
       </c>
       <c r="AS35" t="n">
-        <v>7.4</v>
+        <v>42</v>
       </c>
       <c r="AT35" t="n">
-        <v>4.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU35" t="n">
         <v>7</v>
@@ -7293,7 +7293,7 @@
         <v>12.5</v>
       </c>
       <c r="AW35" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AX35" t="n">
         <v>12.5</v>
@@ -7302,32 +7302,32 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ35" t="n">
-        <v>5.8</v>
+        <v>15.5</v>
       </c>
       <c r="BA35" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB35" t="n">
         <v>7.2</v>
       </c>
-      <c r="BB35" t="n">
-        <v>6.6</v>
-      </c>
       <c r="BC35" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="BD35" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BE35" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF35" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="BG35" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -7358,16 +7358,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G36" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>4.3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J36" t="n">
         <v>3.45</v>
@@ -7382,52 +7382,52 @@
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O36" t="n">
         <v>1.35</v>
       </c>
       <c r="P36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S36" t="n">
         <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="U36" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V36" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z36" t="n">
         <v>34</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD36" t="n">
         <v>970</v>
@@ -7457,7 +7457,7 @@
         <v>40</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN36" t="n">
         <v>16</v>
@@ -7466,19 +7466,19 @@
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>4.2</v>
+        <v>11.5</v>
       </c>
       <c r="AQ36" t="n">
         <v>13</v>
       </c>
       <c r="AR36" t="n">
-        <v>3.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS36" t="n">
-        <v>4.2</v>
+        <v>10.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.84</v>
+        <v>7.4</v>
       </c>
       <c r="AU36" t="n">
         <v>7.2</v>
@@ -7487,41 +7487,41 @@
         <v>15.5</v>
       </c>
       <c r="AW36" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AX36" t="n">
         <v>10</v>
       </c>
       <c r="AY36" t="n">
-        <v>3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ36" t="n">
-        <v>3.5</v>
+        <v>7.4</v>
       </c>
       <c r="BA36" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="BB36" t="n">
-        <v>3.6</v>
+        <v>19.5</v>
       </c>
       <c r="BC36" t="n">
-        <v>18</v>
+        <v>7.6</v>
       </c>
       <c r="BD36" t="n">
-        <v>3.85</v>
+        <v>34</v>
       </c>
       <c r="BE36" t="n">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="BF36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BG36" t="n">
-        <v>4.1</v>
+        <v>10</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH36"/>
+  <dimension ref="A1:BH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
         <v>2.42</v>
@@ -777,25 +777,25 @@
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -813,10 +813,10 @@
         <v>1.71</v>
       </c>
       <c r="W2" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
         <v>11.5</v>
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>16</v>
@@ -846,7 +846,7 @@
         <v>18.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -879,7 +879,7 @@
         <v>11.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>4.2</v>
       </c>
       <c r="AT2" t="n">
         <v>11.5</v>
@@ -891,7 +891,7 @@
         <v>9.4</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AX2" t="n">
         <v>19.5</v>
@@ -900,39 +900,39 @@
         <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BC2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BG2" t="n">
         <v>4.2</v>
       </c>
-      <c r="BD2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>3.75</v>
-      </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -942,191 +942,191 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>ES Metlaoui</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>990</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.05</v>
       </c>
-      <c r="N3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.88</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AR3" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="AS3" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AV3" t="n">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW3" t="n">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="AX3" t="n">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="BA3" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="BD3" t="n">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="BE3" t="n">
-        <v>60</v>
+        <v>1.01</v>
       </c>
       <c r="BF3" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="BG3" t="n">
-        <v>24</v>
+        <v>1.01</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1136,191 +1136,191 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>1.97</v>
+        <v>2.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>2.86</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="V4" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.86</v>
       </c>
       <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AV4" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>11</v>
-      </c>
       <c r="AW4" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA4" t="n">
         <v>36</v>
       </c>
       <c r="BB4" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="BC4" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="BE4" t="n">
+        <v>60</v>
+      </c>
+      <c r="BF4" t="n">
         <v>11.5</v>
       </c>
-      <c r="BF4" t="n">
-        <v>20</v>
-      </c>
       <c r="BG4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1335,186 +1335,186 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.8</v>
+        <v>2.98</v>
       </c>
       <c r="G5" t="n">
-        <v>8.4</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.39</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.42</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>2.98</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V5" t="n">
-        <v>3.3</v>
+        <v>1.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
         <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.6</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>11</v>
       </c>
       <c r="AR5" t="n">
-        <v>9.6</v>
+        <v>16.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AT5" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="AV5" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AX5" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="AY5" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="BA5" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>38</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF5" t="n">
         <v>20</v>
       </c>
-      <c r="BB5" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="BG5" t="n">
-        <v>4.1</v>
+        <v>20</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1524,184 +1524,184 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
         <v>8.6</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X6" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
         <v>14.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="AF6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BG6" t="n">
         <v>3.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>5.7</v>
-      </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -1723,67 +1723,67 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.02</v>
+        <v>8.6</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>1.02</v>
+        <v>1.34</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>1.41</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>2.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>1.24</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1840,62 +1840,62 @@
         <v>1000</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -1917,67 +1917,67 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.49</v>
+        <v>1.02</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>1.02</v>
       </c>
       <c r="I8" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>1.24</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -2111,73 +2111,73 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="I9" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -2186,111 +2186,111 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BD9" t="n">
         <v>3.95</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>4.4</v>
-      </c>
       <c r="BE9" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="BG9" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,184 +2300,184 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>1.64</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>1.89</v>
       </c>
       <c r="H10" t="n">
-        <v>1.17</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
-        <v>9.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>10.5</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9.6</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP10" t="n">
         <v>3.95</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X10" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>230</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>270</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>180</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>14.5</v>
+        <v>4</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="AS10" t="n">
-        <v>9</v>
+        <v>4.8</v>
       </c>
       <c r="AT10" t="n">
-        <v>9.800000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>3.4</v>
       </c>
       <c r="AV10" t="n">
-        <v>11.5</v>
+        <v>4.1</v>
       </c>
       <c r="AW10" t="n">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY10" t="n">
-        <v>50</v>
+        <v>3.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="BA10" t="n">
-        <v>8.6</v>
+        <v>4.6</v>
       </c>
       <c r="BB10" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BC10" t="n">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="BD10" t="n">
-        <v>10.5</v>
+        <v>4.4</v>
       </c>
       <c r="BE10" t="n">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="BF10" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.46</v>
+        <v>4.7</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -2499,186 +2499,186 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.76</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>2.64</v>
+        <v>1.17</v>
       </c>
       <c r="I11" t="n">
-        <v>2.84</v>
+        <v>1.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>10.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>9.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>1.77</v>
+        <v>3.95</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>1.29</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>2.18</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>1.73</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="V11" t="n">
-        <v>1.54</v>
+        <v>5.8</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>25</v>
       </c>
       <c r="AD11" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>38</v>
+        <v>2.68</v>
       </c>
       <c r="AP11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AX11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV11" t="n">
+      <c r="AY11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BB11" t="n">
         <v>11</v>
       </c>
-      <c r="AW11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>4</v>
-      </c>
       <c r="BC11" t="n">
-        <v>3.95</v>
+        <v>10.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="BE11" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="BF11" t="n">
-        <v>3.9</v>
+        <v>10.5</v>
       </c>
       <c r="BG11" t="n">
-        <v>3.9</v>
+        <v>2.46</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2688,184 +2688,184 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.78</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.85</v>
+        <v>2.64</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>2.84</v>
       </c>
       <c r="J12" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.84</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>5.5</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
-        <v>2.26</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>9</v>
       </c>
-      <c r="Y12" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>140</v>
-      </c>
-      <c r="AP12" t="n">
+      <c r="AR12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE12" t="n">
         <v>4.2</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>2.46</v>
-      </c>
       <c r="BF12" t="n">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.44</v>
+        <v>3.9</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -2887,94 +2887,94 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>2.48</v>
       </c>
       <c r="H13" t="n">
-        <v>7.2</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="N13" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="O13" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="S13" t="n">
         <v>5.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="U13" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>2.36</v>
+        <v>1.67</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
         <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="AB13" t="n">
-        <v>5.7</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AD13" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
         <v>970</v>
@@ -2983,83 +2983,83 @@
         <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AO13" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="AP13" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="AQ13" t="n">
-        <v>11.5</v>
+        <v>4.8</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.8</v>
+        <v>3.95</v>
       </c>
       <c r="AV13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BB13" t="n">
         <v>6.4</v>
       </c>
-      <c r="AW13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AX13" t="n">
+      <c r="BC13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BD13" t="n">
         <v>7.2</v>
       </c>
-      <c r="AY13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>7</v>
-      </c>
       <c r="BE13" t="n">
-        <v>7.6</v>
+        <v>1.95</v>
       </c>
       <c r="BF13" t="n">
-        <v>12.5</v>
+        <v>6.6</v>
       </c>
       <c r="BG13" t="n">
-        <v>7.6</v>
+        <v>1.93</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -3081,148 +3081,148 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.26</v>
+        <v>1.62</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>1.72</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="P14" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="R14" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.96</v>
+        <v>2.48</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>2.38</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
         <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>5.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AF14" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
         <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AP14" t="n">
-        <v>4.9</v>
+        <v>7.8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AS14" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AT14" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AW14" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AY14" t="n">
         <v>9.800000000000001</v>
@@ -3231,36 +3231,36 @@
         <v>6.4</v>
       </c>
       <c r="BA14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="BB14" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="BC14" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE14" t="n">
         <v>7.8</v>
       </c>
-      <c r="BE14" t="n">
-        <v>8.6</v>
-      </c>
       <c r="BF14" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3270,184 +3270,184 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.1</v>
+        <v>2.26</v>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.81</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.89</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>5.3</v>
+        <v>2.88</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>2.46</v>
+        <v>1.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>2.32</v>
       </c>
       <c r="R15" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
-        <v>2.42</v>
+        <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="U15" t="n">
-        <v>2.4</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>2.12</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.27</v>
+        <v>1.66</v>
       </c>
       <c r="X15" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI15" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AS15" t="n">
         <v>8.4</v>
       </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>18</v>
-      </c>
       <c r="AT15" t="n">
-        <v>18.5</v>
+        <v>6.8</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="AV15" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AW15" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>6.4</v>
       </c>
       <c r="BA15" t="n">
-        <v>20</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB15" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="BC15" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="BD15" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="BE15" t="n">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="BF15" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="BG15" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -3469,179 +3469,179 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="G16" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU16" t="n">
         <v>3.35</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X16" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>4</v>
-      </c>
       <c r="AV16" t="n">
-        <v>5.2</v>
+        <v>3.65</v>
       </c>
       <c r="AW16" t="n">
-        <v>2.68</v>
+        <v>3.9</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.3</v>
+        <v>3.85</v>
       </c>
       <c r="AY16" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="BA16" t="n">
-        <v>2.44</v>
+        <v>3.9</v>
       </c>
       <c r="BB16" t="n">
-        <v>2.08</v>
+        <v>3.95</v>
       </c>
       <c r="BC16" t="n">
-        <v>2.84</v>
+        <v>3.85</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.49</v>
+        <v>4.3</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="BF16" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="BG16" t="n">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -3663,179 +3663,179 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
       </c>
       <c r="L17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X17" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE17" t="n">
         <v>1.25</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X17" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>25</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>4</v>
-      </c>
       <c r="BF17" t="n">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="BG17" t="n">
-        <v>12.5</v>
+        <v>2.12</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.54</v>
+        <v>4.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2.98</v>
+        <v>1.81</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>1.87</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>1.98</v>
+        <v>2.46</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>2.42</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
       <c r="W18" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="X18" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z18" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AA18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW18" t="n">
         <v>14</v>
       </c>
-      <c r="Z18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AX18" t="n">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="AY18" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AZ18" t="n">
         <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="BB18" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="BC18" t="n">
-        <v>21</v>
+        <v>5.2</v>
       </c>
       <c r="BD18" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="BE18" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="BF18" t="n">
-        <v>15.5</v>
+        <v>5.4</v>
       </c>
       <c r="BG18" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -4051,67 +4051,67 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="H19" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="I19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
         <v>3.8</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.5</v>
-      </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W19" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="X19" t="n">
         <v>16.5</v>
@@ -4126,111 +4126,111 @@
         <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF19" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>18</v>
-      </c>
       <c r="BG19" t="n">
-        <v>4.4</v>
+        <v>22</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4240,184 +4240,184 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>2.76</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>2.16</v>
+        <v>3.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.74</v>
+        <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>1.36</v>
+        <v>1.86</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.25</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>7.2</v>
+        <v>3.35</v>
       </c>
       <c r="T20" t="n">
-        <v>2.36</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>1.59</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.56</v>
       </c>
-      <c r="W20" t="n">
-        <v>1.39</v>
-      </c>
       <c r="X20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AU20" t="n">
         <v>6.8</v>
       </c>
-      <c r="Y20" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>380</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>6.6</v>
+        <v>13</v>
       </c>
       <c r="AY20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>14.5</v>
       </c>
-      <c r="AZ20" t="n">
-        <v>7</v>
-      </c>
       <c r="BA20" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="BB20" t="n">
-        <v>8.4</v>
+        <v>4.5</v>
       </c>
       <c r="BC20" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BD20" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="BE20" t="n">
-        <v>8.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="BF20" t="n">
-        <v>8.4</v>
+        <v>18</v>
       </c>
       <c r="BG20" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -4439,186 +4439,186 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="G21" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="I21" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="K21" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="M21" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N21" t="n">
-        <v>2.46</v>
+        <v>2.18</v>
       </c>
       <c r="O21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.58</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.69</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="X21" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
         <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AK21" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AM21" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="AN21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO21" t="n">
         <v>70</v>
       </c>
-      <c r="AO21" t="n">
-        <v>65</v>
-      </c>
       <c r="AP21" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AQ21" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AT21" t="n">
         <v>7.2</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>7.8</v>
       </c>
       <c r="AU21" t="n">
         <v>6.2</v>
       </c>
       <c r="AV21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW21" t="n">
-        <v>25</v>
+        <v>7.8</v>
       </c>
       <c r="AX21" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="AY21" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="BA21" t="n">
-        <v>36</v>
+        <v>8.4</v>
       </c>
       <c r="BB21" t="n">
-        <v>28</v>
+        <v>8.4</v>
       </c>
       <c r="BC21" t="n">
-        <v>27</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD21" t="n">
-        <v>36</v>
+        <v>8.6</v>
       </c>
       <c r="BE21" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="BF21" t="n">
-        <v>32</v>
+        <v>8.6</v>
       </c>
       <c r="BG21" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4633,179 +4633,179 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.54</v>
+        <v>3.05</v>
       </c>
       <c r="G22" t="n">
-        <v>1.55</v>
+        <v>3.15</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>2.96</v>
       </c>
       <c r="I22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AU22" t="n">
         <v>6.2</v>
       </c>
-      <c r="J22" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="AV22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>27</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>48</v>
+      </c>
+      <c r="BF22" t="n">
         <v>32</v>
       </c>
-      <c r="Y22" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ22" t="n">
+      <c r="BG22" t="n">
         <v>28</v>
       </c>
-      <c r="AR22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>48</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>22</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>60</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>42</v>
-      </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -4827,106 +4827,106 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G23" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H23" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P23" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="R23" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="T23" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W23" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="X23" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE23" t="n">
         <v>65</v>
       </c>
-      <c r="AA23" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>75</v>
-      </c>
       <c r="AF23" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
         <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
         <v>13.5</v>
@@ -4935,71 +4935,71 @@
         <v>24</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN23" t="n">
         <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AP23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW23" t="n">
         <v>55</v>
       </c>
-      <c r="AS23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>65</v>
-      </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BB23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BC23" t="n">
         <v>12.5</v>
       </c>
       <c r="BD23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BF23" t="n">
         <v>4.8</v>
       </c>
       <c r="BG23" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -5021,186 +5021,186 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="H24" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="I24" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="K24" t="n">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>3.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="R24" t="n">
-        <v>2.16</v>
+        <v>1.77</v>
       </c>
       <c r="S24" t="n">
-        <v>1.83</v>
+        <v>2.26</v>
       </c>
       <c r="T24" t="n">
         <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="X24" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="Y24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z24" t="n">
         <v>65</v>
       </c>
-      <c r="Z24" t="n">
-        <v>120</v>
-      </c>
       <c r="AA24" t="n">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="n">
         <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AL24" t="n">
         <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AP24" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AS24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AT24" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AW24" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AX24" t="n">
         <v>10.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BA24" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="BB24" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="BC24" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BD24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BE24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BF24" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="BG24" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5210,191 +5210,191 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.09</v>
       </c>
-      <c r="N25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.01</v>
+        <v>44</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.01</v>
+        <v>50</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.01</v>
+        <v>65</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.01</v>
+        <v>55</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>1.01</v>
+        <v>36</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.01</v>
+        <v>100</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="BA25" t="n">
-        <v>1.01</v>
+        <v>75</v>
       </c>
       <c r="BB25" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="BC25" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="BE25" t="n">
-        <v>1.01</v>
+        <v>60</v>
       </c>
       <c r="BF25" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="BG25" t="n">
-        <v>1.01</v>
+        <v>75</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5404,184 +5404,184 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>1.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>1.05</v>
       </c>
       <c r="T26" t="n">
-        <v>2.06</v>
+        <v>1.05</v>
       </c>
       <c r="U26" t="n">
-        <v>1.82</v>
+        <v>1.05</v>
       </c>
       <c r="V26" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AP26" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AQ26" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR26" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="AS26" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AT26" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AV26" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="AW26" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AX26" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="BA26" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="BB26" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="BD26" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="BE26" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="BF26" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="BG26" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -5603,186 +5603,186 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>1.86</v>
       </c>
       <c r="H27" t="n">
-        <v>2.38</v>
+        <v>5.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.48</v>
+        <v>5.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="U27" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="V27" t="n">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="W27" t="n">
-        <v>1.41</v>
+        <v>2.16</v>
       </c>
       <c r="X27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y27" t="n">
         <v>16</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF27" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC27" t="n">
+      <c r="AG27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD27" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="BE27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF27" t="n">
         <v>12</v>
       </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>7.2</v>
-      </c>
       <c r="BG27" t="n">
-        <v>16.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5792,121 +5792,121 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G28" t="n">
         <v>3.4</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S28" t="n">
         <v>3.75</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="T28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.67</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W28" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="X28" t="n">
-        <v>7.6</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
         <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
         <v>130</v>
       </c>
-      <c r="AM28" t="n">
-        <v>310</v>
-      </c>
       <c r="AN28" t="n">
         <v>1000</v>
       </c>
@@ -5914,62 +5914,62 @@
         <v>1000</v>
       </c>
       <c r="AP28" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="AQ28" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="AR28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AV28" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW28" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AX28" t="n">
         <v>19</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="BA28" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="BB28" t="n">
         <v>7.6</v>
       </c>
       <c r="BC28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BD28" t="n">
         <v>7.4</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>7.8</v>
       </c>
       <c r="BE28" t="n">
         <v>8</v>
       </c>
       <c r="BF28" t="n">
-        <v>70</v>
+        <v>7.2</v>
       </c>
       <c r="BG28" t="n">
-        <v>7.2</v>
+        <v>16.5</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -5991,186 +5991,186 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.89</v>
+        <v>3.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1.97</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
-        <v>5.4</v>
+        <v>2.56</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>2.76</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="K29" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="L29" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="O29" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP29" t="n">
         <v>6.4</v>
       </c>
-      <c r="T29" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X29" t="n">
+      <c r="AQ29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB29" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y29" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC29" t="n">
+      <c r="BC29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE29" t="n">
         <v>8.4</v>
       </c>
-      <c r="AD29" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>370</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>17</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>19</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>34</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>11</v>
-      </c>
       <c r="BF29" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="BG29" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6185,179 +6185,179 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.15</v>
+        <v>1.88</v>
       </c>
       <c r="G30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.35</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2.96</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="S30" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.97</v>
+        <v>2.46</v>
       </c>
       <c r="U30" t="n">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="V30" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.42</v>
+        <v>2.04</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>16.5</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="n">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>5.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE30" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AJ30" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AK30" t="n">
         <v>48</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="AN30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AS30" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>9</v>
+        <v>5.2</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AV30" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>8.4</v>
       </c>
       <c r="AY30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ30" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="BA30" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="BB30" t="n">
-        <v>7.4</v>
+        <v>17</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BD30" t="n">
-        <v>7.4</v>
+        <v>34</v>
       </c>
       <c r="BE30" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="BF30" t="n">
-        <v>7.2</v>
+        <v>16.5</v>
       </c>
       <c r="BG30" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -6374,191 +6374,191 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.91</v>
+        <v>3.15</v>
       </c>
       <c r="G31" t="n">
-        <v>1.96</v>
+        <v>3.35</v>
       </c>
       <c r="H31" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S31" t="n">
         <v>4.7</v>
       </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.85</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U31" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="W31" t="n">
-        <v>2.04</v>
+        <v>1.42</v>
       </c>
       <c r="X31" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z31" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AL31" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AM31" t="n">
         <v>160</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AO31" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AP31" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ31" t="n">
-        <v>12.5</v>
+        <v>7.8</v>
       </c>
       <c r="AR31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ31" t="n">
         <v>6.2</v>
       </c>
-      <c r="AS31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT31" t="n">
+      <c r="BA31" t="n">
         <v>7.2</v>
       </c>
-      <c r="AU31" t="n">
+      <c r="BB31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF31" t="n">
         <v>7.2</v>
       </c>
-      <c r="AV31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>11.5</v>
-      </c>
       <c r="BG31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6568,184 +6568,184 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P32" t="n">
-        <v>1.24</v>
+        <v>1.82</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S32" t="n">
-        <v>1.05</v>
+        <v>3.85</v>
       </c>
       <c r="T32" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="U32" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="V32" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W32" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AR32" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AU32" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AV32" t="n">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AW32" t="n">
-        <v>1.01</v>
+        <v>55</v>
       </c>
       <c r="AX32" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AY32" t="n">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1.01</v>
+        <v>18</v>
       </c>
       <c r="BA32" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BB32" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="BC32" t="n">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="BD32" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BE32" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="BF32" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="BG32" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -6767,12 +6767,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -6800,10 +6800,10 @@
         <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P33" t="n">
         <v>1.24</v>
@@ -6815,7 +6815,7 @@
         <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="T33" t="n">
         <v>1.05</v>
@@ -6939,14 +6939,14 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6956,96 +6956,96 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.98</v>
+        <v>1.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="R34" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>3.55</v>
+        <v>1.45</v>
       </c>
       <c r="T34" t="n">
-        <v>1.83</v>
+        <v>1.05</v>
       </c>
       <c r="U34" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="V34" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="X34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
         <v>1000</v>
@@ -7063,13 +7063,13 @@
         <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
         <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
         <v>1000</v>
@@ -7078,69 +7078,69 @@
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="AQ34" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="AR34" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AS34" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="AU34" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="AV34" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="AX34" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AY34" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="AZ34" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="BA34" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="BB34" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="BC34" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="BD34" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="BE34" t="n">
-        <v>4.9</v>
+        <v>1.01</v>
       </c>
       <c r="BF34" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="BG34" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7150,184 +7150,184 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.22</v>
+        <v>2.96</v>
       </c>
       <c r="G35" t="n">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>2.52</v>
       </c>
       <c r="I35" t="n">
-        <v>3.65</v>
+        <v>2.76</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="K35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X35" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP35" t="n">
         <v>3.75</v>
       </c>
-      <c r="L35" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="X35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AQ35" t="n">
-        <v>11</v>
+        <v>3.55</v>
       </c>
       <c r="AR35" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AS35" t="n">
-        <v>42</v>
+        <v>4.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>8.800000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="AU35" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="AV35" t="n">
-        <v>12.5</v>
+        <v>3.75</v>
       </c>
       <c r="AW35" t="n">
-        <v>34</v>
+        <v>4.5</v>
       </c>
       <c r="AX35" t="n">
-        <v>12.5</v>
+        <v>4.2</v>
       </c>
       <c r="AY35" t="n">
-        <v>9.800000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="AZ35" t="n">
-        <v>15.5</v>
+        <v>4.1</v>
       </c>
       <c r="BA35" t="n">
-        <v>40</v>
+        <v>4.7</v>
       </c>
       <c r="BB35" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="BC35" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="BD35" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="BE35" t="n">
-        <v>8.6</v>
+        <v>4.9</v>
       </c>
       <c r="BF35" t="n">
-        <v>14.5</v>
+        <v>4.6</v>
       </c>
       <c r="BG35" t="n">
-        <v>30</v>
+        <v>4.4</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -7349,179 +7349,373 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>2026-02-24 12:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>SE Palmeiras</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F37" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U37" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V36" t="n">
+      <c r="V37" t="n">
         <v>1.27</v>
       </c>
-      <c r="W36" t="n">
-        <v>2</v>
-      </c>
-      <c r="X36" t="n">
+      <c r="W37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X37" t="n">
         <v>16</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y37" t="n">
         <v>15</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="Z37" t="n">
         <v>34</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AA37" t="n">
         <v>130</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AB37" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AC37" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AD37" t="n">
         <v>970</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AE37" t="n">
         <v>65</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AF37" t="n">
         <v>12</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AG37" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AH37" t="n">
         <v>970</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AI37" t="n">
         <v>70</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AJ37" t="n">
         <v>23</v>
       </c>
-      <c r="AK36" t="n">
+      <c r="AK37" t="n">
         <v>22</v>
       </c>
-      <c r="AL36" t="n">
+      <c r="AL37" t="n">
         <v>40</v>
       </c>
-      <c r="AM36" t="n">
+      <c r="AM37" t="n">
         <v>150</v>
       </c>
-      <c r="AN36" t="n">
+      <c r="AN37" t="n">
         <v>16</v>
       </c>
-      <c r="AO36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP36" t="n">
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP37" t="n">
         <v>11.5</v>
       </c>
-      <c r="AQ36" t="n">
+      <c r="AQ37" t="n">
         <v>13</v>
       </c>
-      <c r="AR36" t="n">
+      <c r="AR37" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AS36" t="n">
+      <c r="AS37" t="n">
         <v>10.5</v>
       </c>
-      <c r="AT36" t="n">
+      <c r="AT37" t="n">
         <v>7.4</v>
       </c>
-      <c r="AU36" t="n">
+      <c r="AU37" t="n">
         <v>7.2</v>
       </c>
-      <c r="AV36" t="n">
+      <c r="AV37" t="n">
         <v>15.5</v>
       </c>
-      <c r="AW36" t="n">
+      <c r="AW37" t="n">
         <v>10</v>
       </c>
-      <c r="AX36" t="n">
+      <c r="AX37" t="n">
         <v>10</v>
       </c>
-      <c r="AY36" t="n">
+      <c r="AY37" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AZ36" t="n">
+      <c r="AZ37" t="n">
         <v>7.4</v>
       </c>
-      <c r="BA36" t="n">
+      <c r="BA37" t="n">
         <v>10</v>
       </c>
-      <c r="BB36" t="n">
+      <c r="BB37" t="n">
         <v>19.5</v>
       </c>
-      <c r="BC36" t="n">
+      <c r="BC37" t="n">
         <v>7.6</v>
       </c>
-      <c r="BD36" t="n">
+      <c r="BD37" t="n">
         <v>34</v>
       </c>
-      <c r="BE36" t="n">
+      <c r="BE37" t="n">
         <v>11</v>
       </c>
-      <c r="BF36" t="n">
+      <c r="BF37" t="n">
         <v>11</v>
       </c>
-      <c r="BG36" t="n">
+      <c r="BG37" t="n">
         <v>10</v>
       </c>
-      <c r="BH36" t="inlineStr">
-        <is>
-          <t>2026-02-24 10:13:34</t>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -780,7 +780,7 @@
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="H3" t="n">
         <v>1.04</v>
@@ -968,7 +968,7 @@
         <v>990</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
         <v>950</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1186,13 +1186,13 @@
         <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>2.86</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
         <v>2.44</v>
@@ -1201,7 +1201,7 @@
         <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1219,13 +1219,13 @@
         <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
@@ -1255,7 +1255,7 @@
         <v>12.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>18.5</v>
@@ -1273,10 +1273,10 @@
         <v>11.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
         <v>32</v>
@@ -1294,7 +1294,7 @@
         <v>36</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC4" t="n">
         <v>19</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -1353,13 +1353,13 @@
         <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1371,31 +1371,31 @@
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
         <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
         <v>2.32</v>
       </c>
       <c r="V5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
         <v>13.5</v>
@@ -1404,70 +1404,70 @@
         <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
         <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF5" t="n">
         <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
         <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AT5" t="n">
         <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AV5" t="n">
         <v>10.5</v>
@@ -1479,13 +1479,13 @@
         <v>18</v>
       </c>
       <c r="AY5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BB5" t="n">
         <v>38</v>
@@ -1494,20 +1494,20 @@
         <v>25</v>
       </c>
       <c r="BD5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BE5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BF5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BG5" t="n">
         <v>20</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -1544,16 +1544,16 @@
         <v>8.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="I6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="J6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.24</v>
@@ -1568,25 +1568,25 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="S6" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="W6" t="n">
         <v>1.13</v>
@@ -1610,7 +1610,7 @@
         <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
         <v>14.5</v>
@@ -1634,7 +1634,7 @@
         <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
@@ -1643,10 +1643,10 @@
         <v>100</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ6" t="n">
         <v>11</v>
@@ -1658,7 +1658,7 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU6" t="n">
         <v>12</v>
@@ -1670,10 +1670,10 @@
         <v>12</v>
       </c>
       <c r="AX6" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AZ6" t="n">
         <v>17.5</v>
@@ -1682,26 +1682,26 @@
         <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BD6" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="BE6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BF6" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BG6" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -1735,10 +1735,10 @@
         <v>8.6</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="I7" t="n">
         <v>1.41</v>
@@ -1747,43 +1747,43 @@
         <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.32</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
         <v>4.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
         <v>3.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1840,62 +1840,62 @@
         <v>1000</v>
       </c>
       <c r="AP7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AS7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AV7" t="n">
         <v>3.5</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AW7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>4.3</v>
       </c>
-      <c r="AU7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>4.2</v>
-      </c>
       <c r="BA7" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BB7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BD7" t="n">
         <v>4.8</v>
       </c>
-      <c r="BC7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>4.7</v>
-      </c>
       <c r="BE7" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="BF7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BG7" t="n">
         <v>4.7</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
@@ -1938,46 +1938,46 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
         <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.24</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2034,62 +2034,62 @@
         <v>1000</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>5.7</v>
@@ -2141,7 +2141,7 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>4.5</v>
@@ -2153,7 +2153,7 @@
         <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
         <v>1.47</v>
@@ -2165,7 +2165,7 @@
         <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
         <v>1.12</v>
@@ -2228,10 +2228,10 @@
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.7</v>
+        <v>14.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.85</v>
+        <v>18.5</v>
       </c>
       <c r="AR9" t="n">
         <v>4.1</v>
@@ -2240,50 +2240,50 @@
         <v>4.3</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.15</v>
+        <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.85</v>
+        <v>19</v>
       </c>
       <c r="AW9" t="n">
         <v>4.2</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="AY9" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.75</v>
+        <v>15.5</v>
       </c>
       <c r="BA9" t="n">
         <v>4.2</v>
       </c>
       <c r="BB9" t="n">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.55</v>
+        <v>11.5</v>
       </c>
       <c r="BD9" t="n">
-        <v>3.95</v>
+        <v>23</v>
       </c>
       <c r="BE9" t="n">
         <v>4.2</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.88</v>
+        <v>5.3</v>
       </c>
       <c r="BG9" t="n">
         <v>4.2</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G10" t="n">
         <v>1.89</v>
@@ -2332,13 +2332,13 @@
         <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="J11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="K11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -2532,43 +2532,43 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="R11" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="S11" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="V11" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="W11" t="n">
         <v>1.05</v>
       </c>
       <c r="X11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Y11" t="n">
         <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA11" t="n">
         <v>11</v>
@@ -2586,7 +2586,7 @@
         <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AG11" t="n">
         <v>65</v>
@@ -2595,7 +2595,7 @@
         <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -2607,71 +2607,71 @@
         <v>180</v>
       </c>
       <c r="AM11" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="AP11" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="AQ11" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AR11" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AS11" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT11" t="n">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AW11" t="n">
         <v>11.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AY11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AZ11" t="n">
         <v>30</v>
       </c>
       <c r="BA11" t="n">
-        <v>8.6</v>
+        <v>32</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="BC11" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="BD11" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="BE11" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="BF11" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -2711,16 +2711,16 @@
         <v>2.64</v>
       </c>
       <c r="I12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2741,7 +2741,7 @@
         <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T12" t="n">
         <v>1.81</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -2899,13 +2899,13 @@
         <v>2.28</v>
       </c>
       <c r="G13" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
         <v>2.9</v>
@@ -2914,7 +2914,7 @@
         <v>3.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M13" t="n">
         <v>1.15</v>
@@ -2947,7 +2947,7 @@
         <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X13" t="n">
         <v>9</v>
@@ -3010,7 +3010,7 @@
         <v>4.8</v>
       </c>
       <c r="AR13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AS13" t="n">
         <v>7.4</v>
@@ -3028,7 +3028,7 @@
         <v>7.2</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.4</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
         <v>5.2</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -3090,25 +3090,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J14" t="n">
         <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
         <v>1.12</v>
@@ -3117,13 +3117,13 @@
         <v>2.58</v>
       </c>
       <c r="O14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P14" t="n">
         <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R14" t="n">
         <v>1.19</v>
@@ -3132,16 +3132,16 @@
         <v>5.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
@@ -3162,13 +3162,13 @@
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
@@ -3180,7 +3180,7 @@
         <v>220</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>25</v>
@@ -3189,25 +3189,25 @@
         <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AN14" t="n">
         <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AP14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS14" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AT14" t="n">
         <v>5</v>
@@ -3216,10 +3216,10 @@
         <v>7.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="AW14" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX14" t="n">
         <v>7.2</v>
@@ -3228,32 +3228,32 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="BA14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BC14" t="n">
         <v>7.6</v>
       </c>
-      <c r="BB14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="BC14" t="n">
+      <c r="BD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF14" t="n">
         <v>6</v>
       </c>
-      <c r="BD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>5.5</v>
-      </c>
       <c r="BG14" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -3284,22 +3284,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
         <v>1.5</v>
@@ -3308,13 +3308,13 @@
         <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O15" t="n">
         <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q15" t="n">
         <v>2.32</v>
@@ -3329,13 +3329,13 @@
         <v>1.96</v>
       </c>
       <c r="U15" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -3344,7 +3344,7 @@
         <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -3377,7 +3377,7 @@
         <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -3392,19 +3392,19 @@
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AQ15" t="n">
         <v>9.6</v>
       </c>
       <c r="AR15" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AS15" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AT15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AU15" t="n">
         <v>6.2</v>
@@ -3413,7 +3413,7 @@
         <v>6.6</v>
       </c>
       <c r="AW15" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3422,13 +3422,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BA15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BB15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BC15" t="n">
         <v>7.2</v>
@@ -3437,17 +3437,17 @@
         <v>8</v>
       </c>
       <c r="BE15" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF15" t="n">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="BG15" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -3478,43 +3478,43 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="H16" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S16" t="n">
         <v>2.5</v>
@@ -3523,16 +3523,16 @@
         <v>1.56</v>
       </c>
       <c r="U16" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V16" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
         <v>19.5</v>
@@ -3544,10 +3544,10 @@
         <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
         <v>16</v>
@@ -3556,92 +3556,92 @@
         <v>34</v>
       </c>
       <c r="AF16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
         <v>40</v>
       </c>
       <c r="AJ16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="AQ16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AU16" t="n">
         <v>3.7</v>
       </c>
-      <c r="AR16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AS16" t="n">
+      <c r="AV16" t="n">
         <v>4.3</v>
       </c>
-      <c r="AT16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>3.65</v>
-      </c>
       <c r="AW16" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AZ16" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="BA16" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="BB16" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="BC16" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="BD16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF16" t="n">
         <v>4.3</v>
       </c>
-      <c r="BE16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>3.8</v>
-      </c>
       <c r="BG16" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
         <v>1.81</v>
       </c>
       <c r="I18" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J18" t="n">
         <v>4.1</v>
@@ -3884,7 +3884,7 @@
         <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3914,7 +3914,7 @@
         <v>2.4</v>
       </c>
       <c r="V18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="W18" t="n">
         <v>1.27</v>
@@ -3923,13 +3923,13 @@
         <v>30</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
         <v>16.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB18" t="n">
         <v>24</v>
@@ -3998,7 +3998,7 @@
         <v>14</v>
       </c>
       <c r="AX18" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AY18" t="n">
         <v>15.5</v>
@@ -4007,29 +4007,29 @@
         <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="BC18" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="BD18" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="BE18" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="BF18" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="BG18" t="n">
         <v>7</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -4263,10 +4263,10 @@
         <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
         <v>3.8</v>
@@ -4284,25 +4284,25 @@
         <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R20" t="n">
         <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W20" t="n">
         <v>1.56</v>
@@ -4374,7 +4374,7 @@
         <v>4.7</v>
       </c>
       <c r="AT20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AU20" t="n">
         <v>6.8</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
         <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="I21" t="n">
         <v>2.74</v>
@@ -4463,7 +4463,7 @@
         <v>2.82</v>
       </c>
       <c r="K21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="L21" t="n">
         <v>1.71</v>
@@ -4496,7 +4496,7 @@
         <v>1.58</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W21" t="n">
         <v>1.39</v>
@@ -4511,7 +4511,7 @@
         <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB21" t="n">
         <v>8.800000000000001</v>
@@ -4553,7 +4553,7 @@
         <v>150</v>
       </c>
       <c r="AO21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP21" t="n">
         <v>5.9</v>
@@ -4565,7 +4565,7 @@
         <v>12.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>7.8</v>
+        <v>27</v>
       </c>
       <c r="AT21" t="n">
         <v>7.2</v>
@@ -4580,38 +4580,38 @@
         <v>7.8</v>
       </c>
       <c r="AX21" t="n">
-        <v>6.6</v>
+        <v>17.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>14.5</v>
+        <v>6.2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BA21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BC21" t="n">
         <v>8.4</v>
       </c>
-      <c r="BB21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="BD21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE21" t="n">
         <v>9</v>
       </c>
       <c r="BF21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG21" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
         <v>3.15</v>
@@ -4681,7 +4681,7 @@
         <v>1.15</v>
       </c>
       <c r="S22" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="T22" t="n">
         <v>2.2</v>
@@ -4693,13 +4693,13 @@
         <v>1.49</v>
       </c>
       <c r="W22" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X22" t="n">
         <v>7.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z22" t="n">
         <v>16.5</v>
@@ -4708,7 +4708,7 @@
         <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC22" t="n">
         <v>7</v>
@@ -4720,10 +4720,10 @@
         <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
         <v>28</v>
@@ -4753,7 +4753,7 @@
         <v>6.8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AR22" t="n">
         <v>14.5</v>
@@ -4771,7 +4771,7 @@
         <v>13</v>
       </c>
       <c r="AW22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
         <v>15</v>
@@ -4789,7 +4789,7 @@
         <v>28</v>
       </c>
       <c r="BC22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD22" t="n">
         <v>36</v>
@@ -4798,14 +4798,14 @@
         <v>48</v>
       </c>
       <c r="BF22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BG22" t="n">
         <v>28</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -4845,52 +4845,52 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.25</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.15</v>
       </c>
       <c r="P23" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S23" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="V23" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W23" t="n">
         <v>2.84</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y23" t="n">
         <v>32</v>
@@ -4899,13 +4899,13 @@
         <v>60</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>23</v>
@@ -4926,25 +4926,25 @@
         <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK23" t="n">
         <v>13.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>65</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO23" t="n">
         <v>46</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4953,31 +4953,31 @@
         <v>50</v>
       </c>
       <c r="AS23" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AT23" t="n">
         <v>13.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AV23" t="n">
         <v>21</v>
       </c>
       <c r="AW23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX23" t="n">
         <v>11.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
         <v>17.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BB23" t="n">
         <v>14</v>
@@ -4989,17 +4989,17 @@
         <v>22</v>
       </c>
       <c r="BE23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BF23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="BG23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G24" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I24" t="n">
         <v>6.8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
       </c>
       <c r="J24" t="n">
         <v>5.1</v>
       </c>
       <c r="K24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.26</v>
@@ -5072,16 +5072,16 @@
         <v>2.26</v>
       </c>
       <c r="T24" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="n">
         <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="X24" t="n">
         <v>28</v>
@@ -5090,19 +5090,19 @@
         <v>34</v>
       </c>
       <c r="Z24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA24" t="n">
         <v>170</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC24" t="n">
         <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
         <v>75</v>
@@ -5120,7 +5120,7 @@
         <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
         <v>13.5</v>
@@ -5147,7 +5147,7 @@
         <v>55</v>
       </c>
       <c r="AS24" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AT24" t="n">
         <v>12.5</v>
@@ -5165,10 +5165,10 @@
         <v>10.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA24" t="n">
         <v>55</v>
@@ -5177,23 +5177,23 @@
         <v>14</v>
       </c>
       <c r="BC24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BD24" t="n">
         <v>23</v>
       </c>
       <c r="BE24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BF24" t="n">
         <v>4.8</v>
       </c>
       <c r="BG24" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -5236,10 +5236,10 @@
         <v>11.5</v>
       </c>
       <c r="J25" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.19</v>
@@ -5263,7 +5263,7 @@
         <v>2.18</v>
       </c>
       <c r="S25" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="T25" t="n">
         <v>1.69</v>
@@ -5275,10 +5275,10 @@
         <v>1.09</v>
       </c>
       <c r="W25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y25" t="n">
         <v>65</v>
@@ -5293,19 +5293,19 @@
         <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD25" t="n">
         <v>40</v>
       </c>
       <c r="AE25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -5365,16 +5365,16 @@
         <v>22</v>
       </c>
       <c r="BA25" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="BB25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BC25" t="n">
         <v>11.5</v>
       </c>
       <c r="BD25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BE25" t="n">
         <v>60</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -5612,31 +5612,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G27" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="H27" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I27" t="n">
         <v>5.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.43</v>
@@ -5645,7 +5645,7 @@
         <v>1.72</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R27" t="n">
         <v>1.26</v>
@@ -5654,7 +5654,7 @@
         <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U27" t="n">
         <v>1.81</v>
@@ -5663,7 +5663,7 @@
         <v>1.21</v>
       </c>
       <c r="W27" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X27" t="n">
         <v>12</v>
@@ -5708,7 +5708,7 @@
         <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
         <v>200</v>
@@ -5744,7 +5744,7 @@
         <v>8.6</v>
       </c>
       <c r="AX27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AY27" t="n">
         <v>9</v>
@@ -5765,7 +5765,7 @@
         <v>7.8</v>
       </c>
       <c r="BE27" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BF27" t="n">
         <v>12</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -5818,10 +5818,10 @@
         <v>2.48</v>
       </c>
       <c r="J28" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.44</v>
@@ -5830,7 +5830,7 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -5854,7 +5854,7 @@
         <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W28" t="n">
         <v>1.41</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -6000,22 +6000,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H29" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="I29" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J29" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -6048,16 +6048,16 @@
         <v>1.66</v>
       </c>
       <c r="V29" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W29" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X29" t="n">
         <v>7.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z29" t="n">
         <v>18</v>
@@ -6117,7 +6117,7 @@
         <v>12.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AT29" t="n">
         <v>7.6</v>
@@ -6129,41 +6129,41 @@
         <v>11.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BC29" t="n">
         <v>8</v>
       </c>
-      <c r="BB29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>7.6</v>
-      </c>
       <c r="BD29" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BE29" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF29" t="n">
         <v>70</v>
       </c>
       <c r="BG29" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G30" t="n">
         <v>1.97</v>
@@ -6209,10 +6209,10 @@
         <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="M30" t="n">
         <v>1.15</v>
@@ -6224,10 +6224,10 @@
         <v>1.65</v>
       </c>
       <c r="P30" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
         <v>1.15</v>
@@ -6236,10 +6236,10 @@
         <v>6.4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U30" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="V30" t="n">
         <v>1.2</v>
@@ -6248,13 +6248,13 @@
         <v>2.04</v>
       </c>
       <c r="X30" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y30" t="n">
         <v>14.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA30" t="n">
         <v>250</v>
@@ -6287,7 +6287,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -6311,31 +6311,31 @@
         <v>28</v>
       </c>
       <c r="AS30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AT30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AU30" t="n">
         <v>7.2</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AX30" t="n">
         <v>8.4</v>
       </c>
       <c r="AY30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ30" t="n">
         <v>21</v>
       </c>
       <c r="BA30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BB30" t="n">
         <v>17</v>
@@ -6347,17 +6347,17 @@
         <v>34</v>
       </c>
       <c r="BE30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BF30" t="n">
         <v>16.5</v>
       </c>
       <c r="BG30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
         <v>2.54</v>
       </c>
       <c r="I31" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
@@ -6412,13 +6412,13 @@
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O31" t="n">
         <v>1.47</v>
       </c>
       <c r="P31" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q31" t="n">
         <v>2.38</v>
@@ -6436,10 +6436,10 @@
         <v>1.92</v>
       </c>
       <c r="V31" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W31" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -6582,19 +6582,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G32" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
         <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
         <v>3.75</v>
@@ -6615,7 +6615,7 @@
         <v>1.82</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R32" t="n">
         <v>1.31</v>
@@ -6624,19 +6624,19 @@
         <v>3.85</v>
       </c>
       <c r="T32" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U32" t="n">
         <v>1.96</v>
       </c>
       <c r="V32" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W32" t="n">
         <v>2.04</v>
       </c>
       <c r="X32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
         <v>15.5</v>
@@ -6648,10 +6648,10 @@
         <v>140</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD32" t="n">
         <v>20</v>
@@ -6672,7 +6672,7 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK32" t="n">
         <v>23</v>
@@ -6681,7 +6681,7 @@
         <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN32" t="n">
         <v>17</v>
@@ -6696,10 +6696,10 @@
         <v>12.5</v>
       </c>
       <c r="AR32" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AS32" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AT32" t="n">
         <v>7.2</v>
@@ -6723,7 +6723,7 @@
         <v>18</v>
       </c>
       <c r="BA32" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BB32" t="n">
         <v>19</v>
@@ -6732,20 +6732,20 @@
         <v>19.5</v>
       </c>
       <c r="BD32" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BE32" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BF32" t="n">
         <v>11.5</v>
       </c>
       <c r="BG32" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
         <v>1.25</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
         <v>2.96</v>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H35" t="n">
         <v>2.52</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G36" t="n">
         <v>2.32</v>
@@ -7367,7 +7367,7 @@
         <v>3.45</v>
       </c>
       <c r="I36" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J36" t="n">
         <v>3.4</v>
@@ -7376,7 +7376,7 @@
         <v>3.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
@@ -7397,7 +7397,7 @@
         <v>1.35</v>
       </c>
       <c r="S36" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T36" t="n">
         <v>1.8</v>
@@ -7445,7 +7445,7 @@
         <v>18.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
         <v>1000</v>
@@ -7475,7 +7475,7 @@
         <v>20</v>
       </c>
       <c r="AS36" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT36" t="n">
         <v>8.800000000000001</v>
@@ -7487,7 +7487,7 @@
         <v>12.5</v>
       </c>
       <c r="AW36" t="n">
-        <v>34</v>
+        <v>7.6</v>
       </c>
       <c r="AX36" t="n">
         <v>12.5</v>
@@ -7499,7 +7499,7 @@
         <v>15.5</v>
       </c>
       <c r="BA36" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="BB36" t="n">
         <v>7.2</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -7555,10 +7555,10 @@
         <v>1.92</v>
       </c>
       <c r="G37" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
         <v>4.8</v>
@@ -7582,7 +7582,7 @@
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q37" t="n">
         <v>2.06</v>
@@ -7603,7 +7603,7 @@
         <v>1.27</v>
       </c>
       <c r="W37" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X37" t="n">
         <v>16</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
         <v>3.8</v>
@@ -771,7 +771,7 @@
         <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
@@ -810,7 +810,7 @@
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
@@ -819,43 +819,43 @@
         <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
         <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -879,7 +879,7 @@
         <v>11.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="AT2" t="n">
         <v>11.5</v>
@@ -891,41 +891,41 @@
         <v>9.4</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.2</v>
+        <v>20</v>
       </c>
       <c r="AX2" t="n">
-        <v>19.5</v>
+        <v>5.2</v>
       </c>
       <c r="AY2" t="n">
         <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="BC2" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -989,7 +989,7 @@
         <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.45</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1177,34 +1177,34 @@
         <v>4.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
         <v>2.86</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>16.5</v>
@@ -1276,7 +1276,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AW4" t="n">
         <v>32</v>
@@ -1288,7 +1288,7 @@
         <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
         <v>36</v>
@@ -1309,11 +1309,11 @@
         <v>11.5</v>
       </c>
       <c r="BG4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>3.1</v>
@@ -1353,13 +1353,13 @@
         <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1368,34 +1368,34 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
         <v>2.32</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
         <v>13.5</v>
@@ -1407,19 +1407,19 @@
         <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="n">
         <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
         <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
         <v>20</v>
@@ -1428,31 +1428,31 @@
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ5" t="n">
         <v>48</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
         <v>10.5</v>
@@ -1461,16 +1461,16 @@
         <v>15.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AT5" t="n">
         <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AW5" t="n">
         <v>25</v>
@@ -1479,19 +1479,19 @@
         <v>18</v>
       </c>
       <c r="AY5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BA5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB5" t="n">
         <v>38</v>
       </c>
       <c r="BC5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="n">
         <v>34</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="G6" t="n">
         <v>8.6</v>
@@ -1562,28 +1562,28 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.72</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>2.28</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.24</v>
       </c>
       <c r="V6" t="n">
         <v>3.3</v>
@@ -1640,13 +1640,13 @@
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ6" t="n">
         <v>11</v>
@@ -1658,7 +1658,7 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AU6" t="n">
         <v>12</v>
@@ -1670,38 +1670,38 @@
         <v>12</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AY6" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ6" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BD6" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="BE6" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BF6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="BG6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
         <v>1.33</v>
       </c>
       <c r="I7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J7" t="n">
         <v>4.5</v>
@@ -1750,10 +1750,10 @@
         <v>7.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>4.3</v>
@@ -1762,10 +1762,10 @@
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
         <v>1.53</v>
@@ -1774,13 +1774,13 @@
         <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="W7" t="n">
         <v>1.08</v>
@@ -1849,7 +1849,7 @@
         <v>3.45</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AT7" t="n">
         <v>4.5</v>
@@ -1861,41 +1861,41 @@
         <v>3.5</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AY7" t="n">
         <v>4.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BA7" t="n">
         <v>4.5</v>
       </c>
       <c r="BB7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BC7" t="n">
         <v>4.9</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BE7" t="n">
         <v>4.9</v>
       </c>
       <c r="BF7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BG7" t="n">
         <v>4.7</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -1926,19 +1926,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.02</v>
+        <v>1.94</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
@@ -1947,16 +1947,16 @@
         <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q8" t="n">
         <v>1.64</v>
@@ -2034,62 +2034,62 @@
         <v>1000</v>
       </c>
       <c r="AP8" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="AS8" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AW8" t="n">
         <v>3.65</v>
       </c>
       <c r="AX8" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="BB8" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG8" t="n">
         <v>3.4</v>
       </c>
-      <c r="BD8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>3.05</v>
-      </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
         <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2159,7 +2159,7 @@
         <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T9" t="n">
         <v>1.8</v>
@@ -2222,13 +2222,13 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
         <v>18.5</v>
@@ -2237,40 +2237,40 @@
         <v>4.1</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AT9" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV9" t="n">
         <v>19</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AY9" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BC9" t="n">
         <v>11.5</v>
       </c>
       <c r="BD9" t="n">
-        <v>23</v>
+        <v>3.9</v>
       </c>
       <c r="BE9" t="n">
         <v>4.2</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
         <v>1.89</v>
@@ -2323,10 +2323,10 @@
         <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>4.9</v>
@@ -2338,7 +2338,7 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
@@ -2347,7 +2347,7 @@
         <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
         <v>1.4</v>
@@ -2356,7 +2356,7 @@
         <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
         <v>2.06</v>
@@ -2365,7 +2365,7 @@
         <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -2425,7 +2425,7 @@
         <v>3.95</v>
       </c>
       <c r="AQ10" t="n">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="AR10" t="n">
         <v>4.5</v>
@@ -2440,7 +2440,7 @@
         <v>3.4</v>
       </c>
       <c r="AV10" t="n">
-        <v>4.1</v>
+        <v>15.5</v>
       </c>
       <c r="AW10" t="n">
         <v>4.6</v>
@@ -2449,16 +2449,16 @@
         <v>3.6</v>
       </c>
       <c r="AY10" t="n">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="AZ10" t="n">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="BA10" t="n">
         <v>4.6</v>
       </c>
       <c r="BB10" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BC10" t="n">
         <v>4</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -2514,19 +2514,19 @@
         <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="I11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J11" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="K11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -2538,25 +2538,25 @@
         <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R11" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="S11" t="n">
         <v>1.89</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V11" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="W11" t="n">
         <v>1.05</v>
@@ -2565,7 +2565,7 @@
         <v>60</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
         <v>10.5</v>
@@ -2577,19 +2577,19 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD11" t="n">
         <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF11" t="n">
         <v>210</v>
       </c>
       <c r="AG11" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
         <v>970</v>
@@ -2616,7 +2616,7 @@
         <v>3.05</v>
       </c>
       <c r="AP11" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AQ11" t="n">
         <v>12.5</v>
@@ -2625,13 +2625,13 @@
         <v>8.6</v>
       </c>
       <c r="AS11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AT11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AU11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>10.5</v>
@@ -2640,38 +2640,38 @@
         <v>11.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
-        <v>48</v>
+        <v>7.4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="BA11" t="n">
-        <v>32</v>
+        <v>6.8</v>
       </c>
       <c r="BB11" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BC11" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD11" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BE11" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BF11" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BG11" t="n">
         <v>2.72</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
         <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2729,7 +2729,7 @@
         <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
         <v>1.78</v>
@@ -2741,16 +2741,16 @@
         <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
         <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
         <v>1.5</v>
@@ -2771,7 +2771,7 @@
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
         <v>15.5</v>
@@ -2780,7 +2780,7 @@
         <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="n">
         <v>16</v>
@@ -2819,53 +2819,53 @@
         <v>15.5</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="AT12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV12" t="n">
         <v>11</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.9</v>
+        <v>2.72</v>
       </c>
       <c r="AX12" t="n">
         <v>16.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AZ12" t="n">
         <v>16</v>
       </c>
       <c r="BA12" t="n">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.95</v>
+        <v>2.74</v>
       </c>
       <c r="BD12" t="n">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.2</v>
+        <v>2.86</v>
       </c>
       <c r="BF12" t="n">
-        <v>3.9</v>
+        <v>2.72</v>
       </c>
       <c r="BG12" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -2896,13 +2896,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G13" t="n">
         <v>2.46</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
         <v>4.2</v>
@@ -2914,13 +2914,13 @@
         <v>3.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
         <v>1.15</v>
       </c>
       <c r="N13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.62</v>
@@ -3004,10 +3004,10 @@
         <v>140</v>
       </c>
       <c r="AP13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4.8</v>
+        <v>8.4</v>
       </c>
       <c r="AR13" t="n">
         <v>6.2</v>
@@ -3016,13 +3016,13 @@
         <v>7.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AV13" t="n">
-        <v>5.6</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
         <v>7.2</v>
@@ -3031,13 +3031,13 @@
         <v>11</v>
       </c>
       <c r="AY13" t="n">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
       <c r="AZ13" t="n">
         <v>6</v>
       </c>
       <c r="BA13" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="BB13" t="n">
         <v>6.4</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
         <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
         <v>3.45</v>
@@ -3129,7 +3129,7 @@
         <v>1.19</v>
       </c>
       <c r="S14" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="T14" t="n">
         <v>2.46</v>
@@ -3171,7 +3171,7 @@
         <v>8.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
         <v>970</v>
@@ -3216,7 +3216,7 @@
         <v>7.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AW14" t="n">
         <v>8.800000000000001</v>
@@ -3237,7 +3237,7 @@
         <v>14.5</v>
       </c>
       <c r="BC14" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="BD14" t="n">
         <v>8</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G15" t="n">
         <v>2.38</v>
@@ -3302,13 +3302,13 @@
         <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O15" t="n">
         <v>1.45</v>
@@ -3323,7 +3323,7 @@
         <v>1.23</v>
       </c>
       <c r="S15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
         <v>1.96</v>
@@ -3350,7 +3350,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
         <v>7.6</v>
@@ -3365,7 +3365,7 @@
         <v>970</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>970</v>
@@ -3374,10 +3374,10 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -3386,22 +3386,22 @@
         <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AR15" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AS15" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AT15" t="n">
         <v>6.6</v>
@@ -3410,44 +3410,44 @@
         <v>6.2</v>
       </c>
       <c r="AV15" t="n">
-        <v>6.6</v>
+        <v>13.5</v>
       </c>
       <c r="AW15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BA15" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BC15" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="BD15" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="BE15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="BF15" t="n">
         <v>18.5</v>
       </c>
       <c r="BG15" t="n">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -3478,19 +3478,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="H16" t="n">
         <v>2.94</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -3526,10 +3526,10 @@
         <v>2.56</v>
       </c>
       <c r="V16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
         <v>26</v>
@@ -3589,37 +3589,37 @@
         <v>4.6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AR16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AS16" t="n">
         <v>5</v>
       </c>
       <c r="AT16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AU16" t="n">
-        <v>3.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AY16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AZ16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BA16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BB16" t="n">
         <v>4.9</v>
@@ -3631,17 +3631,17 @@
         <v>4.8</v>
       </c>
       <c r="BE16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="BF16" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="BG16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
         <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3998,7 +3998,7 @@
         <v>14</v>
       </c>
       <c r="AX18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AY18" t="n">
         <v>15.5</v>
@@ -4007,7 +4007,7 @@
         <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="BB18" t="n">
         <v>5.9</v>
@@ -4022,14 +4022,14 @@
         <v>5.8</v>
       </c>
       <c r="BF18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="BG18" t="n">
         <v>7</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4123,7 @@
         <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>
@@ -4189,7 +4189,7 @@
         <v>11.5</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AX19" t="n">
         <v>13.5</v>
@@ -4204,13 +4204,13 @@
         <v>7.6</v>
       </c>
       <c r="BB19" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
       </c>
       <c r="BD19" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BE19" t="n">
         <v>8.4</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
         <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
         <v>3.25</v>
@@ -4296,13 +4296,13 @@
         <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W20" t="n">
         <v>1.56</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -4454,19 +4454,19 @@
         <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K21" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="L21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M21" t="n">
         <v>1.17</v>
@@ -4493,7 +4493,7 @@
         <v>2.36</v>
       </c>
       <c r="U21" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="V21" t="n">
         <v>1.58</v>
@@ -4508,7 +4508,7 @@
         <v>7</v>
       </c>
       <c r="Z21" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AA21" t="n">
         <v>48</v>
@@ -4565,7 +4565,7 @@
         <v>12.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AT21" t="n">
         <v>7.2</v>
@@ -4577,7 +4577,7 @@
         <v>12</v>
       </c>
       <c r="AW21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
         <v>17.5</v>
@@ -4589,29 +4589,29 @@
         <v>7.2</v>
       </c>
       <c r="BA21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC21" t="n">
         <v>8.4</v>
       </c>
       <c r="BD21" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BE21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF21" t="n">
         <v>9</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="BG21" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G22" t="n">
         <v>3.15</v>
       </c>
       <c r="H22" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I22" t="n">
         <v>3.05</v>
       </c>
       <c r="J22" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K22" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -4666,7 +4666,7 @@
         <v>1.14</v>
       </c>
       <c r="N22" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O22" t="n">
         <v>1.58</v>
@@ -4693,13 +4693,13 @@
         <v>1.49</v>
       </c>
       <c r="W22" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X22" t="n">
         <v>7.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z22" t="n">
         <v>16.5</v>
@@ -4753,7 +4753,7 @@
         <v>6.8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AR22" t="n">
         <v>14.5</v>
@@ -4771,7 +4771,7 @@
         <v>13</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX22" t="n">
         <v>15</v>
@@ -4789,7 +4789,7 @@
         <v>28</v>
       </c>
       <c r="BC22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD22" t="n">
         <v>36</v>
@@ -4798,14 +4798,14 @@
         <v>48</v>
       </c>
       <c r="BF22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BG22" t="n">
         <v>28</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G23" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I23" t="n">
         <v>6</v>
       </c>
-      <c r="I23" t="n">
-        <v>6.2</v>
-      </c>
       <c r="J23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.25</v>
@@ -4881,16 +4881,16 @@
         <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V23" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W23" t="n">
         <v>2.84</v>
       </c>
       <c r="X23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="n">
         <v>32</v>
@@ -4911,19 +4911,19 @@
         <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ23" t="n">
         <v>15.5</v>
@@ -4941,7 +4941,7 @@
         <v>4.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AP23" t="n">
         <v>32</v>
@@ -4968,13 +4968,13 @@
         <v>50</v>
       </c>
       <c r="AX23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AY23" t="n">
         <v>10</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="BA23" t="n">
         <v>46</v>
@@ -4986,20 +4986,20 @@
         <v>12.5</v>
       </c>
       <c r="BD23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BE23" t="n">
         <v>55</v>
       </c>
       <c r="BF23" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="BG23" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -5030,121 +5030,121 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="G24" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J24" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="K24" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="T24" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W24" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="X24" t="n">
         <v>28</v>
       </c>
       <c r="Y24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA24" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB24" t="n">
         <v>13.5</v>
       </c>
       <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF24" t="n">
         <v>12</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
         <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM24" t="n">
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="AO24" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AP24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>27</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>30</v>
-      </c>
       <c r="AR24" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AS24" t="n">
         <v>70</v>
@@ -5153,31 +5153,31 @@
         <v>12.5</v>
       </c>
       <c r="AU24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AX24" t="n">
         <v>11</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>10.5</v>
       </c>
       <c r="AY24" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AZ24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BA24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BD24" t="n">
         <v>23</v>
@@ -5186,14 +5186,14 @@
         <v>60</v>
       </c>
       <c r="BF24" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="BG24" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
         <v>11.5</v>
       </c>
       <c r="J25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K25" t="n">
         <v>7.6</v>
@@ -5263,7 +5263,7 @@
         <v>2.18</v>
       </c>
       <c r="S25" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="T25" t="n">
         <v>1.69</v>
@@ -5275,7 +5275,7 @@
         <v>1.09</v>
       </c>
       <c r="W25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="X25" t="n">
         <v>48</v>
@@ -5293,7 +5293,7 @@
         <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD25" t="n">
         <v>40</v>
@@ -5305,7 +5305,7 @@
         <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -5326,7 +5326,7 @@
         <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AO25" t="n">
         <v>85</v>
@@ -5353,7 +5353,7 @@
         <v>36</v>
       </c>
       <c r="AW25" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -5377,7 +5377,7 @@
         <v>24</v>
       </c>
       <c r="BE25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BF25" t="n">
         <v>2.98</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H27" t="n">
         <v>5.4</v>
@@ -5636,7 +5636,7 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O27" t="n">
         <v>1.43</v>
@@ -5645,16 +5645,16 @@
         <v>1.72</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R27" t="n">
         <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U27" t="n">
         <v>1.81</v>
@@ -5681,16 +5681,16 @@
         <v>7.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD27" t="n">
         <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
@@ -5702,19 +5702,19 @@
         <v>120</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AK27" t="n">
         <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="AM27" t="n">
         <v>200</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
         <v>160</v>
@@ -5726,22 +5726,22 @@
         <v>12.5</v>
       </c>
       <c r="AR27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AU27" t="n">
         <v>7.6</v>
       </c>
-      <c r="AS27" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AV27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW27" t="n">
-        <v>8.6</v>
+        <v>36</v>
       </c>
       <c r="AX27" t="n">
         <v>8.6</v>
@@ -5750,10 +5750,10 @@
         <v>9</v>
       </c>
       <c r="AZ27" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="BA27" t="n">
-        <v>8.6</v>
+        <v>38</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5762,20 +5762,20 @@
         <v>19</v>
       </c>
       <c r="BD27" t="n">
-        <v>7.8</v>
+        <v>40</v>
       </c>
       <c r="BE27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BF27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BG27" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -5830,7 +5830,7 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -5854,7 +5854,7 @@
         <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W28" t="n">
         <v>1.41</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
         <v>3.3</v>
       </c>
       <c r="G29" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
         <v>2.52</v>
@@ -6018,7 +6018,7 @@
         <v>3.15</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M29" t="n">
         <v>1.15</v>
@@ -6042,7 +6042,7 @@
         <v>6.6</v>
       </c>
       <c r="T29" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U29" t="n">
         <v>1.66</v>
@@ -6066,7 +6066,7 @@
         <v>46</v>
       </c>
       <c r="AB29" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>7.4</v>
@@ -6078,16 +6078,16 @@
         <v>46</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH29" t="n">
         <v>29</v>
       </c>
       <c r="AI29" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
@@ -6117,7 +6117,7 @@
         <v>12.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>7.6</v>
+        <v>36</v>
       </c>
       <c r="AT29" t="n">
         <v>7.6</v>
@@ -6129,7 +6129,7 @@
         <v>11.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -6141,29 +6141,29 @@
         <v>24</v>
       </c>
       <c r="BA29" t="n">
-        <v>8.199999999999999</v>
+        <v>65</v>
       </c>
       <c r="BB29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BD29" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF29" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="BF29" t="n">
-        <v>70</v>
-      </c>
       <c r="BG29" t="n">
-        <v>7.8</v>
+        <v>38</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G30" t="n">
         <v>1.97</v>
@@ -6221,7 +6221,7 @@
         <v>2.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P30" t="n">
         <v>1.46</v>
@@ -6329,7 +6329,7 @@
         <v>8.4</v>
       </c>
       <c r="AY30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AZ30" t="n">
         <v>21</v>
@@ -6341,7 +6341,7 @@
         <v>17</v>
       </c>
       <c r="BC30" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BD30" t="n">
         <v>34</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -6412,7 +6412,7 @@
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O31" t="n">
         <v>1.47</v>
@@ -6436,7 +6436,7 @@
         <v>1.92</v>
       </c>
       <c r="V31" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W31" t="n">
         <v>1.43</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G32" t="n">
         <v>1.95</v>
@@ -6591,10 +6591,10 @@
         <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
         <v>3.75</v>
@@ -6606,19 +6606,19 @@
         <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O32" t="n">
         <v>1.37</v>
       </c>
       <c r="P32" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R32" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S32" t="n">
         <v>3.85</v>
@@ -6630,7 +6630,7 @@
         <v>1.96</v>
       </c>
       <c r="V32" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W32" t="n">
         <v>2.04</v>
@@ -6684,7 +6684,7 @@
         <v>150</v>
       </c>
       <c r="AN32" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO32" t="n">
         <v>110</v>
@@ -6696,10 +6696,10 @@
         <v>12.5</v>
       </c>
       <c r="AR32" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AS32" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT32" t="n">
         <v>7.2</v>
@@ -6708,7 +6708,7 @@
         <v>7.2</v>
       </c>
       <c r="AV32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW32" t="n">
         <v>55</v>
@@ -6723,7 +6723,7 @@
         <v>18</v>
       </c>
       <c r="BA32" t="n">
-        <v>7.8</v>
+        <v>60</v>
       </c>
       <c r="BB32" t="n">
         <v>19</v>
@@ -6735,17 +6735,17 @@
         <v>7.2</v>
       </c>
       <c r="BE32" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF32" t="n">
         <v>11.5</v>
       </c>
       <c r="BG32" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7176,7 @@
         <v>2.76</v>
       </c>
       <c r="J35" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K35" t="n">
         <v>3.8</v>
@@ -7209,7 +7209,7 @@
         <v>1.83</v>
       </c>
       <c r="U35" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
         <v>1.57</v>
@@ -7272,62 +7272,62 @@
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AT35" t="n">
         <v>3.75</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>3.7</v>
       </c>
       <c r="AU35" t="n">
         <v>3.25</v>
       </c>
       <c r="AV35" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AW35" t="n">
         <v>4.5</v>
       </c>
       <c r="AX35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AZ35" t="n">
         <v>4.2</v>
       </c>
-      <c r="AY35" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BA35" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BB35" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BC35" t="n">
         <v>4.6</v>
       </c>
       <c r="BD35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF35" t="n">
         <v>4.7</v>
       </c>
-      <c r="BE35" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>4.6</v>
-      </c>
       <c r="BG35" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -7358,58 +7358,58 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G36" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.4</v>
       </c>
       <c r="K36" t="n">
         <v>3.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O36" t="n">
         <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="R36" t="n">
         <v>1.35</v>
       </c>
       <c r="S36" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T36" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U36" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V36" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W36" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X36" t="n">
         <v>14.5</v>
@@ -7427,7 +7427,7 @@
         <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD36" t="n">
         <v>15.5</v>
@@ -7436,7 +7436,7 @@
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
         <v>12</v>
@@ -7460,7 +7460,7 @@
         <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -7475,7 +7475,7 @@
         <v>20</v>
       </c>
       <c r="AS36" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AT36" t="n">
         <v>8.800000000000001</v>
@@ -7487,7 +7487,7 @@
         <v>12.5</v>
       </c>
       <c r="AW36" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AX36" t="n">
         <v>12.5</v>
@@ -7499,19 +7499,19 @@
         <v>15.5</v>
       </c>
       <c r="BA36" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BB36" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BC36" t="n">
-        <v>6.8</v>
+        <v>19.5</v>
       </c>
       <c r="BD36" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BE36" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="BF36" t="n">
         <v>14.5</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
@@ -7558,7 +7558,7 @@
         <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I37" t="n">
         <v>4.8</v>
@@ -7582,7 +7582,7 @@
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q37" t="n">
         <v>2.06</v>
@@ -7594,7 +7594,7 @@
         <v>3.75</v>
       </c>
       <c r="T37" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U37" t="n">
         <v>2</v>
@@ -7678,10 +7678,10 @@
         <v>7.2</v>
       </c>
       <c r="AV37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AW37" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AX37" t="n">
         <v>10</v>
@@ -7702,20 +7702,20 @@
         <v>7.6</v>
       </c>
       <c r="BD37" t="n">
-        <v>34</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE37" t="n">
         <v>11</v>
       </c>
       <c r="BF37" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="BG37" t="n">
         <v>10</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH37"/>
+  <dimension ref="A1:BH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
         <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
@@ -810,10 +810,10 @@
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X2" t="n">
         <v>16</v>
@@ -837,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>30</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -855,7 +855,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -879,7 +879,7 @@
         <v>11.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AT2" t="n">
         <v>11.5</v>
@@ -894,38 +894,38 @@
         <v>20</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AY2" t="n">
         <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="BA2" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BB2" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="BC2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BD2" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="BE2" t="n">
         <v>6</v>
       </c>
       <c r="BF2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BG2" t="n">
         <v>15</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1177,37 +1177,37 @@
         <v>4.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
         <v>25</v>
@@ -1216,7 +1216,7 @@
         <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
@@ -1228,7 +1228,7 @@
         <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1237,13 +1237,13 @@
         <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>29</v>
@@ -1252,10 +1252,10 @@
         <v>70</v>
       </c>
       <c r="AN4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP4" t="n">
         <v>18.5</v>
@@ -1267,7 +1267,7 @@
         <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AT4" t="n">
         <v>11.5</v>
@@ -1276,10 +1276,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AV4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1291,13 +1291,13 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BD4" t="n">
         <v>27</v>
@@ -1306,14 +1306,14 @@
         <v>60</v>
       </c>
       <c r="BF4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BG4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G5" t="n">
         <v>3.1</v>
@@ -1356,7 +1356,7 @@
         <v>2.78</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>3.35</v>
@@ -1383,25 +1383,25 @@
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
         <v>1.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
         <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
         <v>18.5</v>
@@ -1410,7 +1410,7 @@
         <v>40</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
@@ -1440,16 +1440,16 @@
         <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AP5" t="n">
         <v>12</v>
@@ -1458,16 +1458,16 @@
         <v>10.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
         <v>34</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV5" t="n">
         <v>11</v>
@@ -1491,7 +1491,7 @@
         <v>38</v>
       </c>
       <c r="BC5" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="BD5" t="n">
         <v>34</v>
@@ -1500,14 +1500,14 @@
         <v>14</v>
       </c>
       <c r="BF5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BG5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -1547,10 +1547,10 @@
         <v>1.41</v>
       </c>
       <c r="I6" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="J6" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
         <v>6.2</v>
@@ -1562,16 +1562,16 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
         <v>1.75</v>
@@ -1586,7 +1586,7 @@
         <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W6" t="n">
         <v>1.13</v>
@@ -1598,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
@@ -1613,19 +1613,19 @@
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
         <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
         <v>250</v>
@@ -1634,19 +1634,19 @@
         <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>11</v>
@@ -1658,22 +1658,22 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
         <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AW6" t="n">
         <v>12</v>
       </c>
       <c r="AX6" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>8.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="AZ6" t="n">
         <v>20</v>
@@ -1682,26 +1682,26 @@
         <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BC6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="BE6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BF6" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="BG6" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -1732,58 +1732,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="I7" t="n">
         <v>1.42</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
         <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S7" t="n">
         <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
         <v>3.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1837,65 +1837,65 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AP7" t="n">
-        <v>4.2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.45</v>
+        <v>1.33</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.85</v>
+        <v>1.33</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.9</v>
+        <v>1.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.9</v>
+        <v>1.33</v>
       </c>
       <c r="AY7" t="n">
-        <v>4.5</v>
+        <v>1.33</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4.4</v>
+        <v>1.33</v>
       </c>
       <c r="BA7" t="n">
-        <v>4.5</v>
+        <v>1.33</v>
       </c>
       <c r="BB7" t="n">
-        <v>5</v>
+        <v>1.33</v>
       </c>
       <c r="BC7" t="n">
-        <v>4.9</v>
+        <v>1.33</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.9</v>
+        <v>1.33</v>
       </c>
       <c r="BE7" t="n">
-        <v>4.9</v>
+        <v>1.33</v>
       </c>
       <c r="BF7" t="n">
-        <v>5</v>
+        <v>1.33</v>
       </c>
       <c r="BG7" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -1926,19 +1926,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.84</v>
+        <v>1.02</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.94</v>
+        <v>1.02</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
@@ -1947,10 +1947,10 @@
         <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
@@ -1962,22 +1962,22 @@
         <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>1.24</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2034,62 +2034,62 @@
         <v>1000</v>
       </c>
       <c r="AP8" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="AS8" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="AV8" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="AX8" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="AY8" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="AZ8" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA8" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="BC8" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="BD8" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="BE8" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="BF8" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="BG8" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -2120,25 +2120,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
         <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2162,16 +2162,16 @@
         <v>2.48</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="X9" t="n">
         <v>25</v>
@@ -2228,10 +2228,10 @@
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>3.7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>18.5</v>
+        <v>3.8</v>
       </c>
       <c r="AR9" t="n">
         <v>4.1</v>
@@ -2240,34 +2240,34 @@
         <v>4.2</v>
       </c>
       <c r="AT9" t="n">
-        <v>8.199999999999999</v>
+        <v>3.15</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.199999999999999</v>
+        <v>3.25</v>
       </c>
       <c r="AV9" t="n">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="AW9" t="n">
         <v>4.1</v>
       </c>
       <c r="AX9" t="n">
-        <v>8.4</v>
+        <v>3.15</v>
       </c>
       <c r="AY9" t="n">
-        <v>8.6</v>
+        <v>3.2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>3.7</v>
       </c>
       <c r="BA9" t="n">
         <v>4.1</v>
       </c>
       <c r="BB9" t="n">
-        <v>10.5</v>
+        <v>3.45</v>
       </c>
       <c r="BC9" t="n">
-        <v>11.5</v>
+        <v>3.5</v>
       </c>
       <c r="BD9" t="n">
         <v>3.9</v>
@@ -2276,14 +2276,14 @@
         <v>4.2</v>
       </c>
       <c r="BF9" t="n">
-        <v>5.3</v>
+        <v>2.88</v>
       </c>
       <c r="BG9" t="n">
         <v>4.2</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -2314,25 +2314,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G10" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2353,19 +2353,19 @@
         <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -2392,10 +2392,10 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
@@ -2416,7 +2416,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -2425,7 +2425,7 @@
         <v>3.95</v>
       </c>
       <c r="AQ10" t="n">
-        <v>14.5</v>
+        <v>4</v>
       </c>
       <c r="AR10" t="n">
         <v>4.5</v>
@@ -2440,7 +2440,7 @@
         <v>3.4</v>
       </c>
       <c r="AV10" t="n">
-        <v>15.5</v>
+        <v>4.1</v>
       </c>
       <c r="AW10" t="n">
         <v>4.6</v>
@@ -2449,16 +2449,16 @@
         <v>3.6</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14.5</v>
+        <v>4</v>
       </c>
       <c r="BA10" t="n">
         <v>4.6</v>
       </c>
       <c r="BB10" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BC10" t="n">
         <v>4</v>
@@ -2470,14 +2470,14 @@
         <v>4.7</v>
       </c>
       <c r="BF10" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="BG10" t="n">
         <v>4.7</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
         <v>19</v>
@@ -2523,16 +2523,16 @@
         <v>9.4</v>
       </c>
       <c r="K11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.11</v>
@@ -2541,7 +2541,7 @@
         <v>3.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R11" t="n">
         <v>1.99</v>
@@ -2553,7 +2553,7 @@
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V11" t="n">
         <v>5.9</v>
@@ -2562,25 +2562,25 @@
         <v>1.05</v>
       </c>
       <c r="X11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>11</v>
-      </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13.5</v>
@@ -2616,7 +2616,7 @@
         <v>3.05</v>
       </c>
       <c r="AP11" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>12.5</v>
@@ -2628,7 +2628,7 @@
         <v>8</v>
       </c>
       <c r="AT11" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU11" t="n">
         <v>19</v>
@@ -2640,38 +2640,38 @@
         <v>11.5</v>
       </c>
       <c r="AX11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA11" t="n">
         <v>8</v>
       </c>
-      <c r="AY11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>6.8</v>
-      </c>
       <c r="BB11" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD11" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="BE11" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="BF11" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BG11" t="n">
         <v>2.72</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>15.5</v>
@@ -2801,7 +2801,7 @@
         <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
         <v>42</v>
@@ -2819,7 +2819,7 @@
         <v>15.5</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
       <c r="AT12" t="n">
         <v>9.4</v>
@@ -2831,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.72</v>
+        <v>4.2</v>
       </c>
       <c r="AX12" t="n">
         <v>16.5</v>
@@ -2843,29 +2843,29 @@
         <v>16</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.78</v>
+        <v>4.3</v>
       </c>
       <c r="BB12" t="n">
-        <v>2.78</v>
+        <v>4.3</v>
       </c>
       <c r="BC12" t="n">
-        <v>2.74</v>
+        <v>4.3</v>
       </c>
       <c r="BD12" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="BE12" t="n">
-        <v>2.86</v>
+        <v>4.3</v>
       </c>
       <c r="BF12" t="n">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -2899,13 +2899,13 @@
         <v>2.34</v>
       </c>
       <c r="G13" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="H13" t="n">
         <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
         <v>2.9</v>
@@ -2920,7 +2920,7 @@
         <v>1.15</v>
       </c>
       <c r="N13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O13" t="n">
         <v>1.62</v>
@@ -2944,10 +2944,10 @@
         <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X13" t="n">
         <v>9</v>
@@ -3004,7 +3004,7 @@
         <v>140</v>
       </c>
       <c r="AP13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AQ13" t="n">
         <v>8.4</v>
@@ -3037,7 +3037,7 @@
         <v>6</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="BB13" t="n">
         <v>6.4</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -3090,88 +3090,88 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="G14" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="O14" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="P14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="V14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
         <v>390</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE14" t="n">
         <v>210</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>970</v>
@@ -3186,10 +3186,10 @@
         <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AN14" t="n">
         <v>970</v>
@@ -3201,59 +3201,59 @@
         <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="AS14" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AU14" t="n">
         <v>7.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="AW14" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="AX14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="BA14" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="BB14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BC14" t="n">
-        <v>6.6</v>
+        <v>19</v>
       </c>
       <c r="BD14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BE14" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="BF14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BG14" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -3284,49 +3284,49 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
         <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="O15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P15" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
         <v>1.86</v>
@@ -3335,10 +3335,10 @@
         <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
         <v>970</v>
@@ -3353,13 +3353,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
         <v>970</v>
@@ -3374,37 +3374,37 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN15" t="n">
         <v>32</v>
       </c>
-      <c r="AK15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>28</v>
-      </c>
       <c r="AO15" t="n">
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="AQ15" t="n">
         <v>10</v>
       </c>
       <c r="AR15" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AS15" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="AT15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AU15" t="n">
         <v>6.2</v>
@@ -3413,41 +3413,41 @@
         <v>13.5</v>
       </c>
       <c r="AW15" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD15" t="n">
         <v>7</v>
       </c>
-      <c r="BA15" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BC15" t="n">
+      <c r="BE15" t="n">
         <v>7.6</v>
       </c>
-      <c r="BD15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>9.6</v>
-      </c>
       <c r="BF15" t="n">
-        <v>18.5</v>
+        <v>6.6</v>
       </c>
       <c r="BG15" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -3469,179 +3469,179 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
+        <v>4.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.62</v>
+        <v>4.7</v>
       </c>
       <c r="H16" t="n">
-        <v>2.94</v>
+        <v>1.81</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>1.88</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R16" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="T16" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.43</v>
+        <v>2.12</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AB16" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AJ16" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>8.4</v>
       </c>
       <c r="AP16" t="n">
-        <v>4.6</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4.3</v>
+        <v>10.5</v>
       </c>
       <c r="AR16" t="n">
-        <v>4.6</v>
+        <v>11.5</v>
       </c>
       <c r="AS16" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
-        <v>4.2</v>
+        <v>18.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.7</v>
+        <v>14</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>3.95</v>
+        <v>15.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>4.2</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="BB16" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="BC16" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="BD16" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="BE16" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="BF16" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="BG16" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -3681,22 +3681,22 @@
         <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.35</v>
@@ -3780,62 +3780,62 @@
         <v>50</v>
       </c>
       <c r="AP17" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.56</v>
+        <v>3.6</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.32</v>
+        <v>2.22</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AU17" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AV17" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="AX17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="BA17" t="n">
-        <v>2.12</v>
+        <v>3.85</v>
       </c>
       <c r="BB17" t="n">
-        <v>2.66</v>
+        <v>3.75</v>
       </c>
       <c r="BC17" t="n">
-        <v>2.86</v>
+        <v>3.65</v>
       </c>
       <c r="BD17" t="n">
-        <v>1.49</v>
+        <v>2.18</v>
       </c>
       <c r="BE17" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="BG17" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.1</v>
       </c>
-      <c r="G18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.6</v>
       </c>
-      <c r="S18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.58</v>
-      </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="V18" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="W18" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="AA18" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="n">
         <v>28</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>48</v>
-      </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.4</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>4.6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10.5</v>
+        <v>4.3</v>
       </c>
       <c r="AR18" t="n">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>5.1</v>
       </c>
       <c r="AT18" t="n">
-        <v>18.5</v>
+        <v>4.2</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>9</v>
+        <v>4.1</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>4.7</v>
       </c>
       <c r="AX18" t="n">
-        <v>5.5</v>
+        <v>16</v>
       </c>
       <c r="AY18" t="n">
-        <v>15.5</v>
+        <v>4.2</v>
       </c>
       <c r="AZ18" t="n">
-        <v>14</v>
+        <v>4.2</v>
       </c>
       <c r="BA18" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="BC18" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="BD18" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="BE18" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="BF18" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="BG18" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -4060,19 +4060,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
         <v>2.54</v>
       </c>
       <c r="H19" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
         <v>3.95</v>
@@ -4090,19 +4090,19 @@
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q19" t="n">
         <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S19" t="n">
         <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
         <v>2.18</v>
@@ -4135,7 +4135,7 @@
         <v>14.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
@@ -4159,13 +4159,13 @@
         <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
         <v>19.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP19" t="n">
         <v>13</v>
@@ -4177,7 +4177,7 @@
         <v>18.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT19" t="n">
         <v>9.4</v>
@@ -4201,10 +4201,10 @@
         <v>14</v>
       </c>
       <c r="BA19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BB19" t="n">
         <v>7.6</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>7.4</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -4213,7 +4213,7 @@
         <v>7.6</v>
       </c>
       <c r="BE19" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF19" t="n">
         <v>15.5</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -4254,58 +4254,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H20" t="n">
         <v>2.82</v>
       </c>
       <c r="I20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.3</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O20" t="n">
         <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q20" t="n">
         <v>1.94</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T20" t="n">
         <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W20" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X20" t="n">
         <v>16.5</v>
@@ -4317,7 +4317,7 @@
         <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
         <v>12.5</v>
@@ -4326,10 +4326,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
@@ -4338,10 +4338,10 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
         <v>44</v>
@@ -4359,10 +4359,10 @@
         <v>28</v>
       </c>
       <c r="AO20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AP20" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AQ20" t="n">
         <v>9.199999999999999</v>
@@ -4371,10 +4371,10 @@
         <v>15.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AT20" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU20" t="n">
         <v>6.8</v>
@@ -4383,7 +4383,7 @@
         <v>10</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AX20" t="n">
         <v>13</v>
@@ -4395,29 +4395,29 @@
         <v>14.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BB20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BC20" t="n">
         <v>21</v>
       </c>
       <c r="BD20" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BE20" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="BF20" t="n">
         <v>18</v>
       </c>
       <c r="BG20" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -4451,52 +4451,52 @@
         <v>3.45</v>
       </c>
       <c r="G21" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
         <v>2.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J21" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>2.98</v>
       </c>
       <c r="L21" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="M21" t="n">
         <v>1.17</v>
       </c>
       <c r="N21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="P21" t="n">
         <v>1.37</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R21" t="n">
         <v>1.13</v>
       </c>
       <c r="S21" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="T21" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="U21" t="n">
         <v>1.61</v>
       </c>
       <c r="V21" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W21" t="n">
         <v>1.39</v>
@@ -4505,113 +4505,113 @@
         <v>6.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AI21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
         <v>380</v>
       </c>
       <c r="AN21" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>65</v>
+        <v>480</v>
       </c>
       <c r="AP21" t="n">
         <v>5.9</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
         <v>12.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AT21" t="n">
         <v>7.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV21" t="n">
         <v>12</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AX21" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>6.2</v>
+        <v>14</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7.2</v>
+        <v>27</v>
       </c>
       <c r="BA21" t="n">
-        <v>8.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="BB21" t="n">
-        <v>8.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="BC21" t="n">
-        <v>8.4</v>
+        <v>48</v>
       </c>
       <c r="BD21" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="BE21" t="n">
-        <v>9.199999999999999</v>
+        <v>55</v>
       </c>
       <c r="BF21" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="BG21" t="n">
-        <v>8.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="I22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
         <v>2.9</v>
       </c>
       <c r="K22" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -4669,7 +4669,7 @@
         <v>2.46</v>
       </c>
       <c r="O22" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P22" t="n">
         <v>1.45</v>
@@ -4681,7 +4681,7 @@
         <v>1.15</v>
       </c>
       <c r="S22" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="T22" t="n">
         <v>2.2</v>
@@ -4690,25 +4690,25 @@
         <v>1.69</v>
       </c>
       <c r="V22" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X22" t="n">
         <v>7.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA22" t="n">
         <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC22" t="n">
         <v>7</v>
@@ -4753,7 +4753,7 @@
         <v>6.8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AR22" t="n">
         <v>14.5</v>
@@ -4762,7 +4762,7 @@
         <v>26</v>
       </c>
       <c r="AT22" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AU22" t="n">
         <v>6.2</v>
@@ -4774,10 +4774,10 @@
         <v>25</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AZ22" t="n">
         <v>17.5</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.54</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.55</v>
       </c>
       <c r="H23" t="n">
         <v>5.9</v>
@@ -4863,7 +4863,7 @@
         <v>7.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
         <v>3.15</v>
@@ -4881,7 +4881,7 @@
         <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
@@ -4890,7 +4890,7 @@
         <v>2.84</v>
       </c>
       <c r="X23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="n">
         <v>32</v>
@@ -4899,7 +4899,7 @@
         <v>60</v>
       </c>
       <c r="AA23" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
@@ -4911,7 +4911,7 @@
         <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -4920,10 +4920,10 @@
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
         <v>15.5</v>
@@ -4932,7 +4932,7 @@
         <v>13.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM23" t="n">
         <v>65</v>
@@ -4950,7 +4950,7 @@
         <v>29</v>
       </c>
       <c r="AR23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AS23" t="n">
         <v>65</v>
@@ -4971,7 +4971,7 @@
         <v>12</v>
       </c>
       <c r="AY23" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ23" t="n">
         <v>16.5</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -5030,10 +5030,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H24" t="n">
         <v>6</v>
@@ -5042,10 +5042,10 @@
         <v>6.2</v>
       </c>
       <c r="J24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
         <v>1.27</v>
@@ -5060,22 +5060,22 @@
         <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q24" t="n">
         <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S24" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T24" t="n">
         <v>1.66</v>
       </c>
       <c r="U24" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V24" t="n">
         <v>1.19</v>
@@ -5084,7 +5084,7 @@
         <v>2.68</v>
       </c>
       <c r="X24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y24" t="n">
         <v>29</v>
@@ -5096,13 +5096,13 @@
         <v>150</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>65</v>
@@ -5114,13 +5114,13 @@
         <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
         <v>14</v>
@@ -5132,22 +5132,22 @@
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO24" t="n">
         <v>55</v>
       </c>
       <c r="AP24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
         <v>27</v>
       </c>
       <c r="AR24" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AS24" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AT24" t="n">
         <v>12.5</v>
@@ -5165,7 +5165,7 @@
         <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ24" t="n">
         <v>17</v>
@@ -5174,7 +5174,7 @@
         <v>50</v>
       </c>
       <c r="BB24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC24" t="n">
         <v>13.5</v>
@@ -5186,14 +5186,14 @@
         <v>60</v>
       </c>
       <c r="BF24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="BG24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
         <v>7.2</v>
       </c>
       <c r="K25" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.19</v>
@@ -5257,19 +5257,19 @@
         <v>3.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="R25" t="n">
         <v>2.18</v>
       </c>
       <c r="S25" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="T25" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V25" t="n">
         <v>1.09</v>
@@ -5278,28 +5278,28 @@
         <v>4.3</v>
       </c>
       <c r="X25" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z25" t="n">
         <v>120</v>
       </c>
       <c r="AA25" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="AB25" t="n">
         <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD25" t="n">
         <v>40</v>
       </c>
       <c r="AE25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -5311,7 +5311,7 @@
         <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
         <v>12</v>
@@ -5326,13 +5326,13 @@
         <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO25" t="n">
         <v>85</v>
       </c>
       <c r="AP25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ25" t="n">
         <v>50</v>
@@ -5341,10 +5341,10 @@
         <v>65</v>
       </c>
       <c r="AS25" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AU25" t="n">
         <v>16.5</v>
@@ -5353,7 +5353,7 @@
         <v>36</v>
       </c>
       <c r="AW25" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -5365,7 +5365,7 @@
         <v>22</v>
       </c>
       <c r="BA25" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BB25" t="n">
         <v>11</v>
@@ -5374,20 +5374,20 @@
         <v>11.5</v>
       </c>
       <c r="BD25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BE25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BF25" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="BG25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -5442,7 +5442,7 @@
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="O26" t="n">
         <v>1.41</v>
@@ -5451,13 +5451,13 @@
         <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="R26" t="n">
         <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>1.05</v>
+        <v>1.41</v>
       </c>
       <c r="T26" t="n">
         <v>1.05</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -5603,179 +5603,179 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="G27" t="n">
-        <v>1.83</v>
+        <v>3.45</v>
       </c>
       <c r="H27" t="n">
-        <v>5.4</v>
+        <v>2.38</v>
       </c>
       <c r="I27" t="n">
-        <v>5.7</v>
+        <v>2.48</v>
       </c>
       <c r="J27" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="O27" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="R27" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="U27" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="V27" t="n">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="W27" t="n">
-        <v>2.2</v>
+        <v>1.41</v>
       </c>
       <c r="X27" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD27" t="n">
         <v>12</v>
       </c>
-      <c r="Y27" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA27" t="n">
         <v>7.2</v>
       </c>
-      <c r="AC27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>310</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>160</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AU27" t="n">
+      <c r="BB27" t="n">
         <v>7.6</v>
       </c>
-      <c r="AV27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>36</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>38</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>17</v>
-      </c>
       <c r="BC27" t="n">
-        <v>19</v>
+        <v>7.2</v>
       </c>
       <c r="BD27" t="n">
-        <v>40</v>
+        <v>7.4</v>
       </c>
       <c r="BE27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BF27" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="BG27" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -5797,186 +5797,186 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>1.83</v>
       </c>
       <c r="H28" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.48</v>
+        <v>5.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P28" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.82</v>
+        <v>2.14</v>
       </c>
       <c r="U28" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="V28" t="n">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>1.41</v>
+        <v>2.2</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="Z28" t="n">
-        <v>16.5</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>160</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>46</v>
+      </c>
+      <c r="BF28" t="n">
         <v>13</v>
       </c>
-      <c r="AC28" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>7.2</v>
-      </c>
       <c r="BG28" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5991,179 +5991,179 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.3</v>
       </c>
-      <c r="G29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.66</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.42</v>
-      </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="R29" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="S29" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="T29" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="U29" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="V29" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W29" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="X29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC29" t="n">
         <v>7.6</v>
       </c>
-      <c r="Y29" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD29" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK29" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AL29" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AM29" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AP29" t="n">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AR29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AS29" t="n">
-        <v>36</v>
+        <v>7.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AU29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ29" t="n">
         <v>6.2</v>
       </c>
-      <c r="AV29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AW29" t="n">
+      <c r="BA29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BE29" t="n">
         <v>7.8</v>
       </c>
-      <c r="AX29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>65</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="BF29" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="BG29" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -6185,186 +6185,186 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.88</v>
+        <v>3.3</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>3.6</v>
       </c>
       <c r="H30" t="n">
-        <v>5.4</v>
+        <v>2.52</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>2.74</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="K30" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L30" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M30" t="n">
         <v>1.15</v>
       </c>
       <c r="N30" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="O30" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P30" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="Q30" t="n">
         <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S30" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="U30" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="V30" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="W30" t="n">
-        <v>2.04</v>
+        <v>1.38</v>
       </c>
       <c r="X30" t="n">
         <v>7.6</v>
       </c>
       <c r="Y30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD30" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AC30" t="n">
+      <c r="AE30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB30" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>370</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AX30" t="n">
+      <c r="BC30" t="n">
         <v>8.4</v>
       </c>
-      <c r="AY30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>17</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>25</v>
-      </c>
       <c r="BD30" t="n">
-        <v>34</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE30" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF30" t="n">
-        <v>16.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG30" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6379,179 +6379,179 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.15</v>
+        <v>1.86</v>
       </c>
       <c r="G31" t="n">
-        <v>3.35</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
-        <v>2.54</v>
+        <v>5.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.66</v>
+        <v>6.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.96</v>
+        <v>2.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.38</v>
+        <v>2.98</v>
       </c>
       <c r="R31" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="S31" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="V31" t="n">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="W31" t="n">
-        <v>1.43</v>
+        <v>2.04</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>16.5</v>
+        <v>90</v>
       </c>
       <c r="AA31" t="n">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="AB31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>370</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>11</v>
       </c>
-      <c r="AC31" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE31" t="n">
+      <c r="AR31" t="n">
         <v>36</v>
       </c>
-      <c r="AF31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH31" t="n">
+      <c r="AS31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ31" t="n">
         <v>21</v>
       </c>
-      <c r="AI31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>6.2</v>
-      </c>
       <c r="BA31" t="n">
-        <v>7.2</v>
+        <v>46</v>
       </c>
       <c r="BB31" t="n">
-        <v>7.4</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>7.4</v>
+        <v>19.5</v>
       </c>
       <c r="BD31" t="n">
-        <v>7.4</v>
+        <v>34</v>
       </c>
       <c r="BE31" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="BF31" t="n">
-        <v>7.2</v>
+        <v>17</v>
       </c>
       <c r="BG31" t="n">
-        <v>7.2</v>
+        <v>90</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -6591,28 +6591,28 @@
         <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
         <v>3.75</v>
       </c>
       <c r="L32" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M32" t="n">
         <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P32" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q32" t="n">
         <v>2.12</v>
@@ -6621,7 +6621,7 @@
         <v>1.3</v>
       </c>
       <c r="S32" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T32" t="n">
         <v>1.97</v>
@@ -6630,7 +6630,7 @@
         <v>1.96</v>
       </c>
       <c r="V32" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W32" t="n">
         <v>2.04</v>
@@ -6657,7 +6657,7 @@
         <v>20</v>
       </c>
       <c r="AE32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="n">
         <v>12</v>
@@ -6717,7 +6717,7 @@
         <v>9.6</v>
       </c>
       <c r="AY32" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AZ32" t="n">
         <v>18</v>
@@ -6729,7 +6729,7 @@
         <v>19</v>
       </c>
       <c r="BC32" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BD32" t="n">
         <v>7.2</v>
@@ -6745,14 +6745,14 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6762,60 +6762,60 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="O33" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="P33" t="n">
         <v>1.24</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="R33" t="n">
         <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="T33" t="n">
         <v>1.05</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -6961,55 +6961,55 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
         <v>1.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="T34" t="n">
         <v>1.05</v>
@@ -7018,10 +7018,10 @@
         <v>1.05</v>
       </c>
       <c r="V34" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W34" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -7133,14 +7133,14 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7150,96 +7150,96 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>2.98</v>
+        <v>1.25</v>
       </c>
       <c r="O35" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="R35" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>3.55</v>
+        <v>1.45</v>
       </c>
       <c r="T35" t="n">
-        <v>1.83</v>
+        <v>1.05</v>
       </c>
       <c r="U35" t="n">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="V35" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="W35" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="X35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
         <v>1000</v>
@@ -7257,13 +7257,13 @@
         <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
         <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
         <v>1000</v>
@@ -7272,69 +7272,69 @@
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="AQ35" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="AR35" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="AS35" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="AU35" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="AV35" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="AX35" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="AY35" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="AZ35" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="BA35" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="BB35" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="BC35" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="BD35" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="BE35" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="BF35" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="BG35" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7344,105 +7344,105 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.22</v>
+        <v>2.96</v>
       </c>
       <c r="G36" t="n">
-        <v>2.28</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>2.54</v>
       </c>
       <c r="I36" t="n">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>2.92</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P36" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R36" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="S36" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T36" t="n">
         <v>1.81</v>
       </c>
       <c r="U36" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="W36" t="n">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="X36" t="n">
         <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF36" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -7451,77 +7451,77 @@
         <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL36" t="n">
         <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="AQ36" t="n">
-        <v>11</v>
+        <v>3.85</v>
       </c>
       <c r="AR36" t="n">
-        <v>20</v>
+        <v>4.2</v>
       </c>
       <c r="AS36" t="n">
-        <v>8.6</v>
+        <v>4.7</v>
       </c>
       <c r="AT36" t="n">
-        <v>8.800000000000001</v>
+        <v>3.85</v>
       </c>
       <c r="AU36" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AV36" t="n">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="AW36" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="AX36" t="n">
-        <v>12.5</v>
+        <v>4.4</v>
       </c>
       <c r="AY36" t="n">
-        <v>9.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="AZ36" t="n">
-        <v>15.5</v>
+        <v>4.2</v>
       </c>
       <c r="BA36" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="BB36" t="n">
-        <v>7.4</v>
+        <v>4.9</v>
       </c>
       <c r="BC36" t="n">
-        <v>19.5</v>
+        <v>4.6</v>
       </c>
       <c r="BD36" t="n">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="BE36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BF36" t="n">
-        <v>14.5</v>
+        <v>4.7</v>
       </c>
       <c r="BG36" t="n">
-        <v>30</v>
+        <v>4.6</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H37" t="n">
         <v>4.4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J37" t="n">
         <v>3.55</v>
@@ -7570,7 +7570,7 @@
         <v>3.8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
@@ -7582,7 +7582,7 @@
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q37" t="n">
         <v>2.06</v>
@@ -7591,16 +7591,16 @@
         <v>1.32</v>
       </c>
       <c r="S37" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T37" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U37" t="n">
         <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W37" t="n">
         <v>2</v>
@@ -7654,7 +7654,7 @@
         <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -7669,13 +7669,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AS37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AT37" t="n">
         <v>7.4</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV37" t="n">
         <v>15</v>
@@ -7699,7 +7699,7 @@
         <v>19.5</v>
       </c>
       <c r="BC37" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BD37" t="n">
         <v>9.199999999999999</v>
@@ -7715,7 +7715,395 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:47:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CD Olimpia</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Atletico Choloma</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K39" t="n">
+        <v>950</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -765,7 +765,7 @@
         <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
         <v>2.22</v>
@@ -786,7 +786,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -795,10 +795,10 @@
         <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
         <v>3.55</v>
@@ -816,46 +816,46 @@
         <v>1.36</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
         <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="n">
         <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -867,7 +867,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AP2" t="n">
         <v>11.5</v>
@@ -879,7 +879,7 @@
         <v>11.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="AT2" t="n">
         <v>11.5</v>
@@ -888,44 +888,44 @@
         <v>6.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW2" t="n">
         <v>20</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.4</v>
+        <v>11.5</v>
       </c>
       <c r="AY2" t="n">
         <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>5.7</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC2" t="n">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="BD2" t="n">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="BE2" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="BF2" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="BG2" t="n">
         <v>15</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>990</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.34</v>
       </c>
       <c r="I3" t="n">
-        <v>990</v>
+        <v>870</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>2.24</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -989,7 +989,7 @@
         <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -1004,10 +1004,10 @@
         <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>2.24</v>
       </c>
       <c r="G4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
@@ -1174,70 +1174,70 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V4" t="n">
         <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
         <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1249,16 +1249,16 @@
         <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>15</v>
@@ -1270,7 +1270,7 @@
         <v>48</v>
       </c>
       <c r="AT4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AU4" t="n">
         <v>8.800000000000001</v>
@@ -1282,13 +1282,13 @@
         <v>30</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BA4" t="n">
         <v>34</v>
@@ -1303,17 +1303,17 @@
         <v>27</v>
       </c>
       <c r="BE4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BF4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -1344,19 +1344,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
         <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
         <v>3.35</v>
@@ -1368,25 +1368,25 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
         <v>2.3</v>
@@ -1395,13 +1395,13 @@
         <v>1.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
         <v>18.5</v>
@@ -1410,7 +1410,7 @@
         <v>40</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
@@ -1419,13 +1419,13 @@
         <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
         <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
         <v>16</v>
@@ -1437,22 +1437,22 @@
         <v>48</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AP5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>10.5</v>
@@ -1467,10 +1467,10 @@
         <v>11.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AV5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AW5" t="n">
         <v>25</v>
@@ -1479,10 +1479,10 @@
         <v>18</v>
       </c>
       <c r="AY5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BA5" t="n">
         <v>29</v>
@@ -1491,23 +1491,23 @@
         <v>38</v>
       </c>
       <c r="BC5" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BD5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BE5" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="BF5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BG5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -1541,19 +1541,19 @@
         <v>7.8</v>
       </c>
       <c r="G6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="I6" t="n">
         <v>1.42</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.24</v>
@@ -1571,19 +1571,19 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V6" t="n">
         <v>3.35</v>
@@ -1592,10 +1592,10 @@
         <v>1.13</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
         <v>11</v>
@@ -1604,25 +1604,25 @@
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
         <v>27</v>
@@ -1631,77 +1631,77 @@
         <v>250</v>
       </c>
       <c r="AK6" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AL6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="n">
         <v>4.6</v>
       </c>
       <c r="AP6" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AR6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW6" t="n">
         <v>12</v>
       </c>
       <c r="AX6" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BC6" t="n">
         <v>25</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>12</v>
-      </c>
       <c r="BD6" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="BE6" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="BF6" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="BG6" t="n">
         <v>4.2</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I7" t="n">
         <v>1.42</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
@@ -1756,13 +1756,13 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q7" t="n">
         <v>1.6</v>
@@ -1777,37 +1777,37 @@
         <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1840,62 +1840,62 @@
         <v>6.4</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.33</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.33</v>
+        <v>5.1</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.33</v>
+        <v>3.6</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.2</v>
+        <v>3.65</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>4.7</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.33</v>
+        <v>6.4</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.33</v>
+        <v>3.6</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.33</v>
+        <v>4.1</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.33</v>
+        <v>5.2</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.33</v>
+        <v>4.7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.33</v>
+        <v>4.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.33</v>
+        <v>4.8</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.33</v>
+        <v>4.2</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.33</v>
+        <v>4.2</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.33</v>
+        <v>4.2</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.33</v>
+        <v>4.3</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.33</v>
+        <v>5.3</v>
       </c>
       <c r="BG7" t="n">
         <v>4.1</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -1926,58 +1926,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>1.24</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.05</v>
+        <v>2.34</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1995,7 +1995,7 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -2010,7 +2010,7 @@
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -2034,62 +2034,62 @@
         <v>1000</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -2120,19 +2120,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
         <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
         <v>5.2</v>
@@ -2159,7 +2159,7 @@
         <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="T9" t="n">
         <v>1.82</v>
@@ -2171,7 +2171,7 @@
         <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="X9" t="n">
         <v>25</v>
@@ -2189,7 +2189,7 @@
         <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
         <v>32</v>
@@ -2228,62 +2228,62 @@
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.7</v>
+        <v>14.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.8</v>
+        <v>18.5</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.15</v>
+        <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.15</v>
+        <v>7.4</v>
       </c>
       <c r="AY9" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.7</v>
+        <v>15.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BB9" t="n">
-        <v>3.45</v>
+        <v>10.5</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.5</v>
+        <v>11.5</v>
       </c>
       <c r="BD9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="BE9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.88</v>
+        <v>5.3</v>
       </c>
       <c r="BG9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
         <v>1.86</v>
@@ -2326,7 +2326,7 @@
         <v>6.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
@@ -2362,7 +2362,7 @@
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
         <v>2.16</v>
@@ -2386,25 +2386,25 @@
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
@@ -2416,68 +2416,68 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.95</v>
+        <v>7.6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="AS10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>4.8</v>
       </c>
-      <c r="AT10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AW10" t="n">
+      <c r="BA10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC10" t="n">
         <v>4.6</v>
       </c>
-      <c r="AX10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>4</v>
-      </c>
       <c r="BD10" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="BE10" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="BF10" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="BG10" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="I11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="J11" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -2532,13 +2532,13 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q11" t="n">
         <v>1.35</v>
@@ -2547,34 +2547,34 @@
         <v>1.99</v>
       </c>
       <c r="S11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V11" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="W11" t="n">
         <v>1.05</v>
       </c>
       <c r="X11" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
         <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA11" t="n">
         <v>10.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AC11" t="n">
         <v>25</v>
@@ -2583,19 +2583,19 @@
         <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>210</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>300</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -2604,31 +2604,31 @@
         <v>270</v>
       </c>
       <c r="AL11" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AP11" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>12.5</v>
       </c>
       <c r="AR11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AS11" t="n">
         <v>8</v>
       </c>
       <c r="AT11" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU11" t="n">
         <v>19</v>
@@ -2640,38 +2640,38 @@
         <v>11.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>8.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>32</v>
       </c>
       <c r="BA11" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BD11" t="n">
         <v>10</v>
       </c>
-      <c r="BC11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>9.6</v>
-      </c>
       <c r="BE11" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="BF11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I12" t="n">
         <v>2.88</v>
@@ -2726,7 +2726,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.38</v>
@@ -2738,7 +2738,7 @@
         <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
         <v>3.9</v>
@@ -2747,10 +2747,10 @@
         <v>1.83</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
         <v>1.5</v>
@@ -2771,19 +2771,19 @@
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
         <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
@@ -2810,7 +2810,7 @@
         <v>38</v>
       </c>
       <c r="AP12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AQ12" t="n">
         <v>9</v>
@@ -2819,10 +2819,10 @@
         <v>15.5</v>
       </c>
       <c r="AS12" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU12" t="n">
         <v>6.8</v>
@@ -2831,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AX12" t="n">
         <v>16.5</v>
@@ -2843,29 +2843,29 @@
         <v>16</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="BB12" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="BF12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -2902,25 +2902,25 @@
         <v>2.54</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
         <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
         <v>1.15</v>
       </c>
       <c r="N13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.62</v>
@@ -2947,85 +2947,85 @@
         <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AI13" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN13" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AP13" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AQ13" t="n">
         <v>8.4</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="AS13" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AT13" t="n">
         <v>5.9</v>
       </c>
       <c r="AU13" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AV13" t="n">
         <v>15</v>
       </c>
       <c r="AW13" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX13" t="n">
         <v>11</v>
@@ -3034,32 +3034,32 @@
         <v>10.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="BA13" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB13" t="n">
-        <v>6.4</v>
+        <v>13</v>
       </c>
       <c r="BC13" t="n">
-        <v>6.4</v>
+        <v>16</v>
       </c>
       <c r="BD13" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.95</v>
+        <v>9.6</v>
       </c>
       <c r="BF13" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.93</v>
+        <v>3.6</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -3090,10 +3090,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G14" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H14" t="n">
         <v>7.6</v>
@@ -3102,10 +3102,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.45</v>
@@ -3114,34 +3114,34 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="O14" t="n">
         <v>1.52</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.44</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V14" t="n">
         <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
@@ -3174,16 +3174,16 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
         <v>220</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
         <v>85</v>
@@ -3192,7 +3192,7 @@
         <v>360</v>
       </c>
       <c r="AN14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
         <v>440</v>
@@ -3201,7 +3201,7 @@
         <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AR14" t="n">
         <v>50</v>
@@ -3213,10 +3213,10 @@
         <v>5.2</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV14" t="n">
-        <v>5.8</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
         <v>6.4</v>
@@ -3228,7 +3228,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="BA14" t="n">
         <v>6.4</v>
@@ -3237,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="BC14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BD14" t="n">
         <v>6</v>
@@ -3249,11 +3249,11 @@
         <v>13</v>
       </c>
       <c r="BG14" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -3284,10 +3284,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>3.85</v>
@@ -3296,37 +3296,37 @@
         <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
         <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="O15" t="n">
         <v>1.46</v>
       </c>
       <c r="P15" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
         <v>4.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U15" t="n">
         <v>1.86</v>
@@ -3335,16 +3335,16 @@
         <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -3362,19 +3362,19 @@
         <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
         <v>36</v>
@@ -3398,10 +3398,10 @@
         <v>10</v>
       </c>
       <c r="AR15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AT15" t="n">
         <v>6.8</v>
@@ -3413,7 +3413,7 @@
         <v>13.5</v>
       </c>
       <c r="AW15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3425,7 +3425,7 @@
         <v>5.9</v>
       </c>
       <c r="BA15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BB15" t="n">
         <v>6.6</v>
@@ -3434,20 +3434,20 @@
         <v>22</v>
       </c>
       <c r="BD15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BE15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF15" t="n">
         <v>6.6</v>
       </c>
       <c r="BG15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -3481,13 +3481,13 @@
         <v>4.1</v>
       </c>
       <c r="G16" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="J16" t="n">
         <v>4.2</v>
@@ -3511,7 +3511,7 @@
         <v>2.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R16" t="n">
         <v>1.6</v>
@@ -3529,10 +3529,10 @@
         <v>2.12</v>
       </c>
       <c r="W16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
@@ -3550,7 +3550,7 @@
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
         <v>20</v>
@@ -3559,7 +3559,7 @@
         <v>38</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
@@ -3577,7 +3577,7 @@
         <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
         <v>36</v>
@@ -3610,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AY16" t="n">
         <v>15.5</v>
@@ -3619,29 +3619,29 @@
         <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="BB16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF16" t="n">
         <v>6.6</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>6</v>
       </c>
       <c r="BG16" t="n">
         <v>7</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -3672,43 +3672,43 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H17" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
         <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="R17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
         <v>3.55</v>
@@ -3717,79 +3717,79 @@
         <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
         <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AP17" t="n">
         <v>5.2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AR17" t="n">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.22</v>
+        <v>2.74</v>
       </c>
       <c r="AT17" t="n">
         <v>4.7</v>
@@ -3798,44 +3798,44 @@
         <v>4.4</v>
       </c>
       <c r="AV17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX17" t="n">
         <v>5.4</v>
       </c>
-      <c r="AW17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AY17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="BA17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BC17" t="n">
         <v>3.85</v>
       </c>
-      <c r="BB17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>3.65</v>
-      </c>
       <c r="BD17" t="n">
-        <v>2.18</v>
+        <v>3.1</v>
       </c>
       <c r="BE17" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="BG17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -3869,10 +3869,10 @@
         <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I18" t="n">
         <v>3.1</v>
@@ -3908,10 +3908,10 @@
         <v>2.52</v>
       </c>
       <c r="T18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V18" t="n">
         <v>1.47</v>
@@ -3953,7 +3953,7 @@
         <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
         <v>40</v>
@@ -3962,10 +3962,10 @@
         <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>16.5</v>
@@ -3974,62 +3974,62 @@
         <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="AS18" t="n">
         <v>5.1</v>
       </c>
       <c r="AT18" t="n">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
         <v>16</v>
       </c>
       <c r="AY18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF18" t="n">
         <v>4.2</v>
       </c>
-      <c r="AZ18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BC18" t="n">
+      <c r="BG18" t="n">
         <v>4.6</v>
       </c>
-      <c r="BD18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>13.5</v>
-      </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
         <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
         <v>2.18</v>
@@ -4123,7 +4123,7 @@
         <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>
@@ -4159,7 +4159,7 @@
         <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
         <v>19.5</v>
@@ -4189,7 +4189,7 @@
         <v>11.5</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.6</v>
+        <v>16</v>
       </c>
       <c r="AX19" t="n">
         <v>13.5</v>
@@ -4201,29 +4201,29 @@
         <v>14</v>
       </c>
       <c r="BA19" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB19" t="n">
-        <v>7.6</v>
+        <v>14.5</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
       </c>
       <c r="BD19" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE19" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF19" t="n">
         <v>15.5</v>
       </c>
       <c r="BG19" t="n">
-        <v>22</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -4254,25 +4254,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G20" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I20" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
         <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4284,31 +4284,31 @@
         <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
         <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T20" t="n">
         <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="V20" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="W20" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
         <v>14</v>
@@ -4323,25 +4323,25 @@
         <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
         <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ20" t="n">
         <v>44</v>
@@ -4350,13 +4350,13 @@
         <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO20" t="n">
         <v>34</v>
@@ -4371,7 +4371,7 @@
         <v>15.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AT20" t="n">
         <v>9.199999999999999</v>
@@ -4383,7 +4383,7 @@
         <v>10</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="AX20" t="n">
         <v>13</v>
@@ -4395,29 +4395,29 @@
         <v>14.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="BB20" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="BC20" t="n">
         <v>21</v>
       </c>
       <c r="BD20" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="BE20" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="BF20" t="n">
         <v>18</v>
       </c>
       <c r="BG20" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -4448,73 +4448,73 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I21" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="L21" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M21" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="N21" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="O21" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="P21" t="n">
         <v>1.37</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="R21" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S21" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T21" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="U21" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="V21" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W21" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
         <v>7.2</v>
@@ -4523,10 +4523,10 @@
         <v>18.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AG21" t="n">
         <v>24</v>
@@ -4535,7 +4535,7 @@
         <v>70</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="n">
         <v>1000</v>
@@ -4544,25 +4544,25 @@
         <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM21" t="n">
         <v>380</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO21" t="n">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="AP21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>5.9</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>6</v>
-      </c>
       <c r="AR21" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4574,7 +4574,7 @@
         <v>6.4</v>
       </c>
       <c r="AV21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW21" t="n">
         <v>40</v>
@@ -4583,16 +4583,16 @@
         <v>19.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>40</v>
       </c>
       <c r="BB21" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="BC21" t="n">
         <v>48</v>
@@ -4601,17 +4601,17 @@
         <v>42</v>
       </c>
       <c r="BE21" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="BF21" t="n">
         <v>40</v>
       </c>
       <c r="BG21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -4645,19 +4645,19 @@
         <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J22" t="n">
         <v>2.9</v>
       </c>
       <c r="K22" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -4666,22 +4666,22 @@
         <v>1.14</v>
       </c>
       <c r="N22" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P22" t="n">
         <v>1.45</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="R22" t="n">
         <v>1.15</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="T22" t="n">
         <v>2.2</v>
@@ -4696,10 +4696,10 @@
         <v>1.45</v>
       </c>
       <c r="X22" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Z22" t="n">
         <v>19.5</v>
@@ -4708,22 +4708,22 @@
         <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
         <v>28</v>
@@ -4735,16 +4735,16 @@
         <v>60</v>
       </c>
       <c r="AK22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL22" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM22" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AN22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO22" t="n">
         <v>65</v>
@@ -4765,7 +4765,7 @@
         <v>7.4</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV22" t="n">
         <v>13</v>
@@ -4774,10 +4774,10 @@
         <v>25</v>
       </c>
       <c r="AX22" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AZ22" t="n">
         <v>17.5</v>
@@ -4786,7 +4786,7 @@
         <v>36</v>
       </c>
       <c r="BB22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC22" t="n">
         <v>27</v>
@@ -4795,7 +4795,7 @@
         <v>36</v>
       </c>
       <c r="BE22" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="BF22" t="n">
         <v>32</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G23" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H23" t="n">
         <v>5.9</v>
@@ -4848,10 +4848,10 @@
         <v>6</v>
       </c>
       <c r="J23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K23" t="n">
         <v>5.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.25</v>
@@ -4866,19 +4866,19 @@
         <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q23" t="n">
         <v>1.44</v>
       </c>
       <c r="R23" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S23" t="n">
         <v>2.12</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U23" t="n">
         <v>2.54</v>
@@ -4887,19 +4887,19 @@
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="X23" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y23" t="n">
         <v>34</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>32</v>
       </c>
       <c r="Z23" t="n">
         <v>60</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
@@ -4911,7 +4911,7 @@
         <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -4923,7 +4923,7 @@
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ23" t="n">
         <v>15.5</v>
@@ -4932,37 +4932,37 @@
         <v>13.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>65</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AP23" t="n">
         <v>32</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AS23" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AT23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
         <v>12</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>50</v>
@@ -4971,13 +4971,13 @@
         <v>12</v>
       </c>
       <c r="AY23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BA23" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BB23" t="n">
         <v>14</v>
@@ -4992,14 +4992,14 @@
         <v>55</v>
       </c>
       <c r="BF23" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BG23" t="n">
         <v>38</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G24" t="n">
         <v>1.59</v>
@@ -5042,40 +5042,40 @@
         <v>6.2</v>
       </c>
       <c r="J24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K24" t="n">
         <v>4.9</v>
       </c>
-      <c r="K24" t="n">
-        <v>5</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="R24" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="S24" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="T24" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
         <v>1.19</v>
@@ -5084,7 +5084,7 @@
         <v>2.68</v>
       </c>
       <c r="X24" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
         <v>29</v>
@@ -5093,25 +5093,25 @@
         <v>55</v>
       </c>
       <c r="AA24" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH24" t="n">
         <v>18</v>
@@ -5120,80 +5120,80 @@
         <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM24" t="n">
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>26</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>27</v>
-      </c>
       <c r="AR24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AS24" t="n">
         <v>48</v>
       </c>
-      <c r="AS24" t="n">
-        <v>110</v>
-      </c>
       <c r="AT24" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>21</v>
       </c>
       <c r="AW24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY24" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC24" t="n">
         <v>13.5</v>
       </c>
       <c r="BD24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BE24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BF24" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="BG24" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
         <v>11.5</v>
       </c>
       <c r="J25" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K25" t="n">
         <v>7.4</v>
@@ -5248,7 +5248,7 @@
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O25" t="n">
         <v>1.1</v>
@@ -5257,19 +5257,19 @@
         <v>3.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R25" t="n">
         <v>2.18</v>
       </c>
       <c r="S25" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U25" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V25" t="n">
         <v>1.09</v>
@@ -5281,7 +5281,7 @@
         <v>55</v>
       </c>
       <c r="Y25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z25" t="n">
         <v>120</v>
@@ -5299,7 +5299,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -5308,7 +5308,7 @@
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>85</v>
@@ -5323,28 +5323,28 @@
         <v>26</v>
       </c>
       <c r="AM25" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="n">
         <v>3.15</v>
       </c>
       <c r="AO25" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AP25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AQ25" t="n">
         <v>50</v>
       </c>
       <c r="AR25" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AS25" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AT25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>16.5</v>
@@ -5353,7 +5353,7 @@
         <v>36</v>
       </c>
       <c r="AW25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -5377,7 +5377,7 @@
         <v>23</v>
       </c>
       <c r="BE25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BF25" t="n">
         <v>3.05</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="G26" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="H26" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -5442,34 +5442,34 @@
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>1.23</v>
+        <v>2.3</v>
       </c>
       <c r="O26" t="n">
         <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.41</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
         <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>1.41</v>
+        <v>3.9</v>
       </c>
       <c r="T26" t="n">
         <v>1.05</v>
       </c>
       <c r="U26" t="n">
-        <v>1.05</v>
+        <v>1.66</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -5487,7 +5487,7 @@
         <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -5508,7 +5508,7 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
@@ -5517,7 +5517,7 @@
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN26" t="n">
         <v>1000</v>
@@ -5526,62 +5526,62 @@
         <v>1000</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="AU26" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="AV26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="AW26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="AX26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="AY26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="BA26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="BB26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="BC26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="BD26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="BE26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="BF26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="BG26" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -5612,19 +5612,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.45</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.35</v>
       </c>
       <c r="K27" t="n">
         <v>3.5</v>
@@ -5636,146 +5636,146 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S27" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T27" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U27" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V27" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="W27" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y27" t="n">
         <v>10.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB27" t="n">
         <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AP27" t="n">
         <v>12</v>
       </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>11</v>
-      </c>
       <c r="AQ27" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AR27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY27" t="n">
         <v>13</v>
       </c>
-      <c r="AS27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>12</v>
-      </c>
       <c r="AZ27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA27" t="n">
-        <v>7.2</v>
+        <v>34</v>
       </c>
       <c r="BB27" t="n">
-        <v>7.6</v>
+        <v>50</v>
       </c>
       <c r="BC27" t="n">
-        <v>7.2</v>
+        <v>34</v>
       </c>
       <c r="BD27" t="n">
-        <v>7.4</v>
+        <v>44</v>
       </c>
       <c r="BE27" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="BF27" t="n">
-        <v>7.2</v>
+        <v>32</v>
       </c>
       <c r="BG27" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -5809,109 +5809,109 @@
         <v>1.8</v>
       </c>
       <c r="G28" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M28" t="n">
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P28" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="U28" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V28" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W28" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X28" t="n">
         <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AA28" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC28" t="n">
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AK28" t="n">
         <v>23</v>
       </c>
       <c r="AL28" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="AM28" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="AP28" t="n">
         <v>10</v>
@@ -5926,28 +5926,28 @@
         <v>42</v>
       </c>
       <c r="AT28" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AU28" t="n">
         <v>7.6</v>
       </c>
       <c r="AV28" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX28" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY28" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BB28" t="n">
         <v>17</v>
@@ -5956,20 +5956,20 @@
         <v>19</v>
       </c>
       <c r="BD28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BG28" t="n">
         <v>40</v>
       </c>
-      <c r="BE28" t="n">
-        <v>46</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>13</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>42</v>
-      </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -6000,19 +6000,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I29" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>3.3</v>
@@ -6030,10 +6030,10 @@
         <v>1.47</v>
       </c>
       <c r="P29" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R29" t="n">
         <v>1.24</v>
@@ -6042,7 +6042,7 @@
         <v>4.7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="U29" t="n">
         <v>1.92</v>
@@ -6054,19 +6054,19 @@
         <v>1.43</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z29" t="n">
         <v>16.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AB29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
         <v>7.6</v>
@@ -6075,10 +6075,10 @@
         <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
@@ -6087,25 +6087,25 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AJ29" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AK29" t="n">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AM29" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AN29" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AO29" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="n">
         <v>9.199999999999999</v>
@@ -6117,7 +6117,7 @@
         <v>13</v>
       </c>
       <c r="AS29" t="n">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
         <v>9</v>
@@ -6129,7 +6129,7 @@
         <v>10.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
         <v>18</v>
@@ -6138,32 +6138,32 @@
         <v>12</v>
       </c>
       <c r="AZ29" t="n">
-        <v>6.2</v>
+        <v>16</v>
       </c>
       <c r="BA29" t="n">
-        <v>7.2</v>
+        <v>30</v>
       </c>
       <c r="BB29" t="n">
-        <v>7.4</v>
+        <v>28</v>
       </c>
       <c r="BC29" t="n">
-        <v>7.4</v>
+        <v>25</v>
       </c>
       <c r="BD29" t="n">
-        <v>7.4</v>
+        <v>50</v>
       </c>
       <c r="BE29" t="n">
-        <v>7.8</v>
+        <v>85</v>
       </c>
       <c r="BF29" t="n">
-        <v>7.2</v>
+        <v>27</v>
       </c>
       <c r="BG29" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6236,7 @@
         <v>6.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U30" t="n">
         <v>1.66</v>
@@ -6254,10 +6254,10 @@
         <v>7.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>46</v>
+        <v>420</v>
       </c>
       <c r="AB30" t="n">
         <v>8.800000000000001</v>
@@ -6269,7 +6269,7 @@
         <v>14.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AF30" t="n">
         <v>23</v>
@@ -6281,25 +6281,25 @@
         <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="AJ30" t="n">
         <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AL30" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AM30" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="AN30" t="n">
         <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AP30" t="n">
         <v>6.4</v>
@@ -6311,7 +6311,7 @@
         <v>12.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>7.8</v>
+        <v>18</v>
       </c>
       <c r="AT30" t="n">
         <v>7.6</v>
@@ -6323,7 +6323,7 @@
         <v>11.5</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.8</v>
+        <v>36</v>
       </c>
       <c r="AX30" t="n">
         <v>19</v>
@@ -6332,32 +6332,32 @@
         <v>14.5</v>
       </c>
       <c r="AZ30" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="BA30" t="n">
         <v>65</v>
       </c>
       <c r="BB30" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="BC30" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BD30" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE30" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="BF30" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="BG30" t="n">
         <v>38</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -6388,100 +6388,100 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="H31" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I31" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L31" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M31" t="n">
         <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P31" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="T31" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="U31" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="V31" t="n">
         <v>1.2</v>
       </c>
       <c r="W31" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="X31" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="Y31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z31" t="n">
         <v>90</v>
       </c>
       <c r="AA31" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI31" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK31" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
@@ -6490,68 +6490,68 @@
         <v>370</v>
       </c>
       <c r="AN31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
       </c>
       <c r="AP31" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AQ31" t="n">
         <v>11</v>
       </c>
       <c r="AR31" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AS31" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AT31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AW31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AX31" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="BA31" t="n">
         <v>46</v>
       </c>
       <c r="BB31" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BC31" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="BD31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BE31" t="n">
-        <v>13.5</v>
+        <v>70</v>
       </c>
       <c r="BF31" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BG31" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -6582,16 +6582,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H32" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J32" t="n">
         <v>3.6</v>
@@ -6606,19 +6606,19 @@
         <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O32" t="n">
         <v>1.38</v>
       </c>
       <c r="P32" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q32" t="n">
         <v>2.12</v>
       </c>
       <c r="R32" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S32" t="n">
         <v>3.95</v>
@@ -6633,7 +6633,7 @@
         <v>1.24</v>
       </c>
       <c r="W32" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X32" t="n">
         <v>15</v>
@@ -6648,7 +6648,7 @@
         <v>140</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC32" t="n">
         <v>8.4</v>
@@ -6660,7 +6660,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG32" t="n">
         <v>11</v>
@@ -6669,7 +6669,7 @@
         <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AJ32" t="n">
         <v>23</v>
@@ -6678,16 +6678,16 @@
         <v>23</v>
       </c>
       <c r="AL32" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO32" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AP32" t="n">
         <v>11</v>
@@ -6699,10 +6699,10 @@
         <v>29</v>
       </c>
       <c r="AS32" t="n">
-        <v>8.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AT32" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AU32" t="n">
         <v>7.2</v>
@@ -6732,20 +6732,20 @@
         <v>18.5</v>
       </c>
       <c r="BD32" t="n">
-        <v>7.2</v>
+        <v>20</v>
       </c>
       <c r="BE32" t="n">
-        <v>8.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="BF32" t="n">
         <v>11.5</v>
       </c>
       <c r="BG32" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -6776,46 +6776,46 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>2.18</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.23</v>
+        <v>2.74</v>
       </c>
       <c r="O33" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S33" t="n">
-        <v>1.26</v>
+        <v>2.46</v>
       </c>
       <c r="T33" t="n">
         <v>1.05</v>
@@ -6824,10 +6824,10 @@
         <v>1.05</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -6887,59 +6887,59 @@
         <v>1.01</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AU33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AV33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AW33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AX33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AY33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AZ33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BA33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BB33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BC33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BD33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BE33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BF33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BG33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -6970,22 +6970,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G34" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="I34" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.02</v>
+        <v>2.66</v>
       </c>
       <c r="K34" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -6994,34 +6994,34 @@
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>1.24</v>
+        <v>3.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.44</v>
+        <v>2.12</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>1.43</v>
+        <v>3.7</v>
       </c>
       <c r="T34" t="n">
         <v>1.05</v>
       </c>
       <c r="U34" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="V34" t="n">
         <v>1.28</v>
       </c>
       <c r="W34" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -7069,7 +7069,7 @@
         <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN34" t="n">
         <v>1000</v>
@@ -7078,62 +7078,62 @@
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AU34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AV34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AW34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AX34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AY34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AZ34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="BA34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="BB34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="BC34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="BD34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="BE34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="BF34" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BG34" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -7164,22 +7164,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -7188,34 +7188,34 @@
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>1.25</v>
+        <v>2.46</v>
       </c>
       <c r="O35" t="n">
         <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R35" t="n">
         <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="T35" t="n">
         <v>1.05</v>
       </c>
       <c r="U35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="V35" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W35" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -7373,16 +7373,16 @@
         <v>2.92</v>
       </c>
       <c r="K36" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L36" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O36" t="n">
         <v>1.38</v>
@@ -7415,13 +7415,13 @@
         <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AB36" t="n">
         <v>970</v>
@@ -7430,16 +7430,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AE36" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF36" t="n">
         <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH36" t="n">
         <v>1000</v>
@@ -7451,7 +7451,7 @@
         <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL36" t="n">
         <v>1000</v>
@@ -7466,10 +7466,10 @@
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AQ36" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AR36" t="n">
         <v>4.2</v>
@@ -7484,13 +7484,13 @@
         <v>6.6</v>
       </c>
       <c r="AV36" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AW36" t="n">
         <v>4.6</v>
       </c>
       <c r="AX36" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AY36" t="n">
         <v>4</v>
@@ -7502,7 +7502,7 @@
         <v>4.8</v>
       </c>
       <c r="BB36" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="BC36" t="n">
         <v>4.6</v>
@@ -7517,11 +7517,11 @@
         <v>4.7</v>
       </c>
       <c r="BG36" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -7558,7 +7558,7 @@
         <v>1.99</v>
       </c>
       <c r="H37" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I37" t="n">
         <v>4.9</v>
@@ -7582,10 +7582,10 @@
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R37" t="n">
         <v>1.32</v>
@@ -7600,7 +7600,7 @@
         <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W37" t="n">
         <v>2</v>
@@ -7612,7 +7612,7 @@
         <v>15</v>
       </c>
       <c r="Z37" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA37" t="n">
         <v>130</v>
@@ -7624,7 +7624,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE37" t="n">
         <v>65</v>
@@ -7636,19 +7636,19 @@
         <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI37" t="n">
         <v>70</v>
       </c>
       <c r="AJ37" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AK37" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL37" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM37" t="n">
         <v>150</v>
@@ -7678,7 +7678,7 @@
         <v>7.4</v>
       </c>
       <c r="AV37" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW37" t="n">
         <v>50</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -7773,25 +7773,25 @@
         <v>3.65</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P38" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R38" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S38" t="n">
         <v>3.6</v>
       </c>
       <c r="T38" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U38" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V38" t="n">
         <v>1.37</v>
@@ -7839,7 +7839,7 @@
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -748,114 +748,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Nakhon Ratchasima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -864,75 +864,75 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.03</v>
+        <v>8.4</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.03</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.03</v>
+        <v>6.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.03</v>
+        <v>9.6</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.03</v>
+        <v>11.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.03</v>
+        <v>11.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.03</v>
+        <v>12.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.03</v>
+        <v>32</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.03</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.03</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.03</v>
+        <v>9.4</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.03</v>
+        <v>10</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -942,191 +942,191 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima</t>
+          <t>ES Metlaoui</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S3" t="n">
         <v>3.45</v>
       </c>
-      <c r="G3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.55</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>2.36</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>2.72</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="X3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA3" t="n">
         <v>14</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AB3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
         <v>12</v>
       </c>
-      <c r="AE3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>230</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>36</v>
-      </c>
       <c r="AP3" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="AQ3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX3" t="n">
         <v>8.4</v>
       </c>
-      <c r="AR3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT3" t="n">
+      <c r="AY3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB3" t="n">
         <v>11</v>
       </c>
-      <c r="AU3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>32</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>9.4</v>
-      </c>
       <c r="BC3" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF3" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="BG3" t="n">
-        <v>16</v>
+        <v>5.2</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1136,191 +1136,191 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ES Metlaoui</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="n">
         <v>55</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>500</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.19</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.14</v>
+        <v>15.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.16</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.18</v>
+        <v>48</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.19</v>
+        <v>12</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.16</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.16</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.17</v>
+        <v>30</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.19</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.19</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.19</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.18</v>
+        <v>32</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.19</v>
+        <v>27</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.19</v>
+        <v>19.5</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.19</v>
+        <v>27</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.19</v>
+        <v>55</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.55</v>
+        <v>12</v>
       </c>
       <c r="BG4" t="n">
-        <v>3.6</v>
+        <v>23</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1330,191 +1330,191 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.22</v>
+        <v>2.98</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.25</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="V5" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="n">
         <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK5" t="n">
         <v>32</v>
       </c>
-      <c r="AF5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="AL5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AR5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BA5" t="n">
         <v>29</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="BB5" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>42</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>23</v>
+      </c>
+      <c r="BG5" t="n">
         <v>21</v>
       </c>
-      <c r="AL5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>32</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>27</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>27</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>55</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>12</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>22</v>
-      </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1529,55 +1529,55 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.94</v>
+        <v>7.6</v>
       </c>
       <c r="G6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P6" t="n">
         <v>3.05</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.99</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.81</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="T6" t="n">
         <v>1.71</v>
@@ -1586,129 +1586,129 @@
         <v>2.3</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>3.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.49</v>
+        <v>1.13</v>
       </c>
       <c r="X6" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC6" t="n">
         <v>14</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AD6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>420</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>290</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>12</v>
       </c>
-      <c r="Z6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AR6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS6" t="n">
         <v>12</v>
       </c>
-      <c r="AE6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AT6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>20</v>
       </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>14.5</v>
-      </c>
       <c r="BA6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BB6" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="BC6" t="n">
         <v>28</v>
       </c>
       <c r="BD6" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="BE6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BF6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="BG6" t="n">
-        <v>20</v>
+        <v>4.1</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1718,184 +1718,184 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="G7" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="I7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J7" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>2.3</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
         <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="AP7" t="n">
-        <v>27</v>
+        <v>4.7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>12</v>
+        <v>5.1</v>
       </c>
       <c r="AR7" t="n">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="AS7" t="n">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="AT7" t="n">
-        <v>32</v>
+        <v>4.9</v>
       </c>
       <c r="AU7" t="n">
-        <v>12.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV7" t="n">
-        <v>9.199999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="AW7" t="n">
-        <v>12</v>
+        <v>4.3</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19.5</v>
+        <v>4.8</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BB7" t="n">
-        <v>17.5</v>
+        <v>4.2</v>
       </c>
       <c r="BC7" t="n">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="BD7" t="n">
-        <v>28</v>
+        <v>4.2</v>
       </c>
       <c r="BE7" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="BF7" t="n">
-        <v>15</v>
+        <v>5.6</v>
       </c>
       <c r="BG7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -1917,73 +1917,73 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>2.12</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>2.36</v>
       </c>
       <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.8</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
         <v>4.4</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.74</v>
       </c>
       <c r="W8" t="n">
-        <v>2.16</v>
+        <v>1.35</v>
       </c>
       <c r="X8" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1992,34 +1992,34 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -2028,68 +2028,68 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AP8" t="n">
-        <v>7.6</v>
+        <v>3.05</v>
       </c>
       <c r="AQ8" t="n">
-        <v>9</v>
+        <v>3.65</v>
       </c>
       <c r="AR8" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>5.1</v>
+        <v>2.94</v>
       </c>
       <c r="AV8" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.9</v>
+        <v>3.15</v>
       </c>
       <c r="AX8" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="AY8" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="BA8" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="BC8" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="BD8" t="n">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="BE8" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="BF8" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="BG8" t="n">
-        <v>5.9</v>
+        <v>2.92</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
         <v>5.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2153,13 +2153,13 @@
         <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="T9" t="n">
         <v>1.8</v>
@@ -2207,7 +2207,7 @@
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>17.5</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -2305,186 +2305,186 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.6</v>
+        <v>1.71</v>
       </c>
       <c r="G10" t="n">
-        <v>13.5</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
-        <v>1.33</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.42</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X10" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AS10" t="n">
         <v>4.6</v>
       </c>
-      <c r="K10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="AT10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY10" t="n">
         <v>6.4</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AZ10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BB10" t="n">
         <v>9</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>4.2</v>
-      </c>
       <c r="BC10" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="BD10" t="n">
         <v>4.2</v>
       </c>
       <c r="BE10" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BF10" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="BG10" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2494,184 +2494,184 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>19.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.12</v>
+        <v>1.16</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>1.18</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>11.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.05</v>
       </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>85</v>
+        <v>2.92</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.05</v>
+        <v>12</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3.65</v>
+        <v>12.5</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.5</v>
+        <v>9.6</v>
       </c>
       <c r="AU11" t="n">
-        <v>3.5</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.15</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.2</v>
+        <v>10.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>3.6</v>
+        <v>50</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4.3</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>3.4</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>3.35</v>
+        <v>10.5</v>
       </c>
       <c r="BE11" t="n">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="BF11" t="n">
-        <v>3.25</v>
+        <v>10.5</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -2693,186 +2693,186 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>2.84</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.16</v>
+        <v>2.66</v>
       </c>
       <c r="I12" t="n">
-        <v>1.19</v>
+        <v>2.82</v>
       </c>
       <c r="J12" t="n">
-        <v>9.800000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>11.5</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8.6</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>3.6</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.35</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
-        <v>1.96</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>1.9</v>
+        <v>3.95</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>6.2</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
         <v>60</v>
       </c>
-      <c r="Y12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>220</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.05</v>
+        <v>38</v>
       </c>
       <c r="AP12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AR12" t="n">
-        <v>8.4</v>
+        <v>15.5</v>
       </c>
       <c r="AS12" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="AT12" t="n">
         <v>9.6</v>
       </c>
       <c r="AU12" t="n">
-        <v>19</v>
+        <v>6.8</v>
       </c>
       <c r="AV12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AW12" t="n">
-        <v>11</v>
+        <v>4.9</v>
       </c>
       <c r="AX12" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>50</v>
+        <v>11.5</v>
       </c>
       <c r="AZ12" t="n">
         <v>16</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>4.8</v>
       </c>
       <c r="BB12" t="n">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="BC12" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="BD12" t="n">
-        <v>10.5</v>
+        <v>4.8</v>
       </c>
       <c r="BE12" t="n">
-        <v>10.5</v>
+        <v>4.9</v>
       </c>
       <c r="BF12" t="n">
-        <v>10.5</v>
+        <v>4.9</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.72</v>
+        <v>4.9</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2882,184 +2882,184 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.84</v>
+        <v>2.34</v>
       </c>
       <c r="G13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="S13" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>2.26</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="X13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AV13" t="n">
         <v>15</v>
       </c>
-      <c r="Y13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AW13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BB13" t="n">
         <v>13</v>
       </c>
-      <c r="AC13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AT13" t="n">
+      <c r="BC13" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BE13" t="n">
         <v>9.6</v>
       </c>
-      <c r="AU13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>4.9</v>
-      </c>
       <c r="BF13" t="n">
-        <v>4.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG13" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -3081,179 +3081,179 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>1.63</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58</v>
+        <v>1.66</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="O14" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="P14" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="R14" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="S14" t="n">
         <v>5.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AA14" t="n">
-        <v>900</v>
+        <v>430</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>5.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF14" t="n">
-        <v>500</v>
+        <v>7.8</v>
       </c>
       <c r="AG14" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AJ14" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AN14" t="n">
         <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AP14" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>8.4</v>
+        <v>15.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AS14" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="AU14" t="n">
-        <v>4.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="AY14" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7.2</v>
+        <v>19.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="BB14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BC14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BD14" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="BE14" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="BF14" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="BG14" t="n">
-        <v>3.6</v>
+        <v>14</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -3275,186 +3275,186 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.61</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Q15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.44</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>2.44</v>
+        <v>1.71</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF15" t="n">
         <v>25</v>
       </c>
-      <c r="Z15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8</v>
-      </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AI15" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="AN15" t="n">
         <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AP15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AR15" t="n">
         <v>8.4</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AS15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AT15" t="n">
         <v>6.8</v>
       </c>
-      <c r="AT15" t="n">
-        <v>5.2</v>
-      </c>
       <c r="AU15" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>7.4</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AX15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>7</v>
       </c>
-      <c r="AY15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>19.5</v>
-      </c>
       <c r="BA15" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="BB15" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC15" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="BD15" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="BE15" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="BF15" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="BG15" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3464,184 +3464,184 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="G16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>1.6</v>
       </c>
-      <c r="Q16" t="n">
-        <v>2.48</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.6</v>
       </c>
       <c r="S16" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>2.12</v>
       </c>
       <c r="W16" t="n">
-        <v>1.68</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
-        <v>9.6</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA16" t="n">
         <v>22</v>
       </c>
-      <c r="Z16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE16" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV16" t="n">
+      <c r="BF16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BG16" t="n">
         <v>7</v>
       </c>
-      <c r="AW16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>22</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>7.2</v>
-      </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -3663,179 +3663,179 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>1.89</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>5.2</v>
+        <v>3.55</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>2.42</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>2.44</v>
+        <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>2.12</v>
+        <v>1.39</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>500</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="AK17" t="n">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AP17" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AR17" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="AS17" t="n">
-        <v>18</v>
+        <v>3.4</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>5.6</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AV17" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AW17" t="n">
-        <v>14.5</v>
+        <v>6.8</v>
       </c>
       <c r="AX17" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>5.8</v>
       </c>
       <c r="BB17" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="BC17" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BD17" t="n">
-        <v>36</v>
+        <v>5.6</v>
       </c>
       <c r="BE17" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BF17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BG17" t="n">
         <v>7.4</v>
       </c>
-      <c r="BG17" t="n">
-        <v>7</v>
-      </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -3857,73 +3857,73 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="G18" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>2.86</v>
       </c>
       <c r="I18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.6</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K18" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>3.55</v>
+        <v>2.56</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="V18" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="W18" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>500</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
         <v>980</v>
@@ -3932,34 +3932,34 @@
         <v>900</v>
       </c>
       <c r="AB18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC18" t="n">
         <v>19</v>
       </c>
-      <c r="AC18" t="n">
-        <v>14</v>
-      </c>
       <c r="AD18" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
         <v>980</v>
@@ -3974,62 +3974,62 @@
         <v>980</v>
       </c>
       <c r="AP18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
         <v>7</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AW18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF18" t="n">
         <v>7.2</v>
       </c>
-      <c r="AS18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>4.7</v>
-      </c>
       <c r="BG18" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -4051,179 +4051,179 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.42</v>
+        <v>3.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.62</v>
+        <v>3.55</v>
       </c>
       <c r="H19" t="n">
-        <v>2.74</v>
+        <v>2.24</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP19" t="n">
         <v>1.03</v>
       </c>
-      <c r="N19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X19" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>8.4</v>
+        <v>1.03</v>
       </c>
       <c r="AR19" t="n">
-        <v>10.5</v>
+        <v>1.03</v>
       </c>
       <c r="AS19" t="n">
-        <v>9</v>
+        <v>1.03</v>
       </c>
       <c r="AT19" t="n">
-        <v>8.4</v>
+        <v>1.03</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>1.03</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>1.03</v>
       </c>
       <c r="AW19" t="n">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AX19" t="n">
-        <v>10.5</v>
+        <v>1.03</v>
       </c>
       <c r="AY19" t="n">
-        <v>6.4</v>
+        <v>1.03</v>
       </c>
       <c r="AZ19" t="n">
-        <v>8.4</v>
+        <v>1.03</v>
       </c>
       <c r="BA19" t="n">
-        <v>8.4</v>
+        <v>1.03</v>
       </c>
       <c r="BB19" t="n">
-        <v>8.4</v>
+        <v>1.03</v>
       </c>
       <c r="BC19" t="n">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="BD19" t="n">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="BE19" t="n">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="BF19" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="BG19" t="n">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -4254,13 +4254,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G20" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I20" t="n">
         <v>3.35</v>
@@ -4272,31 +4272,31 @@
         <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U20" t="n">
         <v>2.18</v>
@@ -4305,7 +4305,7 @@
         <v>1.43</v>
       </c>
       <c r="W20" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X20" t="n">
         <v>16.5</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G21" t="n">
         <v>2.7</v>
@@ -4463,31 +4463,31 @@
         <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
         <v>1.72</v>
@@ -4598,7 +4598,7 @@
         <v>21</v>
       </c>
       <c r="BD21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE21" t="n">
         <v>8.4</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -4645,28 +4645,28 @@
         <v>3.55</v>
       </c>
       <c r="G22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I22" t="n">
         <v>2.68</v>
       </c>
       <c r="J22" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K22" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="L22" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.18</v>
       </c>
       <c r="N22" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.81</v>
@@ -4681,7 +4681,7 @@
         <v>1.12</v>
       </c>
       <c r="S22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="T22" t="n">
         <v>2.58</v>
@@ -4711,13 +4711,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
         <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF22" t="n">
         <v>30</v>
@@ -4735,7 +4735,7 @@
         <v>500</v>
       </c>
       <c r="AK22" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AL22" t="n">
         <v>500</v>
@@ -4795,7 +4795,7 @@
         <v>42</v>
       </c>
       <c r="BE22" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BF22" t="n">
         <v>40</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -4854,34 +4854,34 @@
         <v>2.94</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N23" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="O23" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P23" t="n">
         <v>1.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="R23" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S23" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T23" t="n">
         <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="V23" t="n">
         <v>1.5</v>
@@ -4890,28 +4890,28 @@
         <v>1.45</v>
       </c>
       <c r="X23" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA23" t="n">
         <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC23" t="n">
         <v>6.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
         <v>18</v>
@@ -4929,25 +4929,25 @@
         <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN23" t="n">
         <v>85</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>65</v>
       </c>
       <c r="AO23" t="n">
         <v>65</v>
       </c>
       <c r="AP23" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AQ23" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AR23" t="n">
         <v>14.5</v>
@@ -4956,25 +4956,25 @@
         <v>30</v>
       </c>
       <c r="AT23" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AU23" t="n">
         <v>6.4</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AW23" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AX23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY23" t="n">
         <v>12.5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="BA23" t="n">
         <v>36</v>
@@ -4983,23 +4983,23 @@
         <v>29</v>
       </c>
       <c r="BC23" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="BD23" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="BE23" t="n">
         <v>65</v>
       </c>
       <c r="BF23" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="BG23" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -5030,19 +5030,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H24" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I24" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K24" t="n">
         <v>5.5</v>
@@ -5054,7 +5054,7 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.14</v>
@@ -5063,25 +5063,25 @@
         <v>3.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R24" t="n">
         <v>1.87</v>
       </c>
       <c r="S24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="n">
         <v>1.6</v>
       </c>
       <c r="U24" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V24" t="n">
         <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X24" t="n">
         <v>38</v>
@@ -5102,7 +5102,7 @@
         <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>60</v>
@@ -5120,7 +5120,7 @@
         <v>50</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
         <v>13.5</v>
@@ -5144,10 +5144,10 @@
         <v>29</v>
       </c>
       <c r="AR24" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AS24" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AT24" t="n">
         <v>14</v>
@@ -5174,7 +5174,7 @@
         <v>44</v>
       </c>
       <c r="BB24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BC24" t="n">
         <v>12.5</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -5248,13 +5248,13 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q25" t="n">
         <v>1.57</v>
@@ -5263,13 +5263,13 @@
         <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T25" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U25" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V25" t="n">
         <v>1.19</v>
@@ -5281,7 +5281,7 @@
         <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z25" t="n">
         <v>55</v>
@@ -5299,13 +5299,13 @@
         <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="n">
         <v>11.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>18</v>
@@ -5326,7 +5326,7 @@
         <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>60</v>
@@ -5341,7 +5341,7 @@
         <v>48</v>
       </c>
       <c r="AS25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AT25" t="n">
         <v>11.5</v>
@@ -5368,16 +5368,16 @@
         <v>50</v>
       </c>
       <c r="BB25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BC25" t="n">
         <v>13.5</v>
       </c>
       <c r="BD25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BE25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BF25" t="n">
         <v>5.7</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -5442,7 +5442,7 @@
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O26" t="n">
         <v>1.1</v>
@@ -5457,7 +5457,7 @@
         <v>2.14</v>
       </c>
       <c r="S26" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T26" t="n">
         <v>1.7</v>
@@ -5475,7 +5475,7 @@
         <v>50</v>
       </c>
       <c r="Y26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z26" t="n">
         <v>120</v>
@@ -5484,7 +5484,7 @@
         <v>380</v>
       </c>
       <c r="AB26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
         <v>17.5</v>
@@ -5493,7 +5493,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF26" t="n">
         <v>11.5</v>
@@ -5505,7 +5505,7 @@
         <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
@@ -5517,13 +5517,13 @@
         <v>26</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AP26" t="n">
         <v>44</v>
@@ -5547,7 +5547,7 @@
         <v>36</v>
       </c>
       <c r="AW26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AX26" t="n">
         <v>11</v>
@@ -5565,7 +5565,7 @@
         <v>11</v>
       </c>
       <c r="BC26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BD26" t="n">
         <v>24</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -5618,25 +5618,25 @@
         <v>4.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
         <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
         <v>1.45</v>
@@ -5645,61 +5645,61 @@
         <v>1.65</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="V27" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W27" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X27" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
-        <v>500</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>500</v>
+        <v>11.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG27" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ27" t="n">
         <v>900</v>
@@ -5717,65 +5717,65 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="AR27" t="n">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.73</v>
+        <v>19</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.64</v>
+        <v>10.5</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="AV27" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.71</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.72</v>
+        <v>13</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.69</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1.7</v>
+        <v>11.5</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.74</v>
+        <v>7.6</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.74</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="n">
-        <v>1.74</v>
+        <v>7.8</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.74</v>
+        <v>8</v>
       </c>
       <c r="BE27" t="n">
-        <v>1.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.74</v>
+        <v>8</v>
       </c>
       <c r="BG27" t="n">
-        <v>4.6</v>
+        <v>19</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -5797,179 +5797,179 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.45</v>
+        <v>1.8</v>
       </c>
       <c r="G28" t="n">
-        <v>3.55</v>
+        <v>1.84</v>
       </c>
       <c r="H28" t="n">
-        <v>2.32</v>
+        <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.36</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="P28" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="R28" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="U28" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W28" t="n">
         <v>2.18</v>
       </c>
-      <c r="V28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>700</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>480</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>700</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y28" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC28" t="n">
+      <c r="AR28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU28" t="n">
         <v>7.6</v>
       </c>
-      <c r="AD28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="n">
+      <c r="AV28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AW28" t="n">
         <v>65</v>
       </c>
-      <c r="AK28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AR28" t="n">
+      <c r="AX28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>27</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF28" t="n">
         <v>13.5</v>
       </c>
-      <c r="AS28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>30</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>36</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>44</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>60</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>34</v>
-      </c>
       <c r="BG28" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -5991,186 +5991,186 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.81</v>
+        <v>3.45</v>
       </c>
       <c r="G29" t="n">
-        <v>1.85</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
-        <v>5.3</v>
+        <v>2.32</v>
       </c>
       <c r="I29" t="n">
-        <v>5.6</v>
+        <v>2.36</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="R29" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="S29" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="T29" t="n">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>1.86</v>
+        <v>2.18</v>
       </c>
       <c r="V29" t="n">
-        <v>1.21</v>
+        <v>1.73</v>
       </c>
       <c r="W29" t="n">
-        <v>2.16</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP29" t="n">
         <v>12</v>
       </c>
-      <c r="Y29" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>700</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG29" t="n">
+      <c r="AQ29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV29" t="n">
         <v>10</v>
       </c>
-      <c r="AH29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK29" t="n">
+      <c r="AW29" t="n">
         <v>23</v>
       </c>
-      <c r="AL29" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>700</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AR29" t="n">
+      <c r="AX29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB29" t="n">
         <v>30</v>
       </c>
-      <c r="AS29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>65</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>16.5</v>
-      </c>
       <c r="BC29" t="n">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="BD29" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="BE29" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BF29" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="BG29" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6185,179 +6185,179 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.15</v>
       </c>
-      <c r="G30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="N30" t="n">
-        <v>2.98</v>
+        <v>2.38</v>
       </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="P30" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.42</v>
+        <v>3.15</v>
       </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="S30" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="T30" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="U30" t="n">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="W30" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="X30" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE30" t="n">
         <v>100</v>
       </c>
-      <c r="AB30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>60</v>
-      </c>
       <c r="AF30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>230</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>330</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>48</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>110</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>36</v>
+      </c>
+      <c r="BG30" t="n">
         <v>26</v>
       </c>
-      <c r="AG30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>44</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>28</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>25</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>85</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>27</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>22</v>
-      </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -6379,186 +6379,186 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.3</v>
+        <v>1.92</v>
       </c>
       <c r="G31" t="n">
-        <v>3.6</v>
+        <v>1.98</v>
       </c>
       <c r="H31" t="n">
-        <v>2.54</v>
+        <v>5.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.68</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L31" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="M31" t="n">
         <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="O31" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="P31" t="n">
         <v>1.43</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="R31" t="n">
         <v>1.14</v>
       </c>
       <c r="S31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2</v>
+      </c>
+      <c r="X31" t="n">
         <v>7</v>
       </c>
-      <c r="T31" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X31" t="n">
-        <v>7.6</v>
-      </c>
       <c r="Y31" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>15.5</v>
+        <v>180</v>
       </c>
       <c r="AA31" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.6</v>
+        <v>5.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>14.5</v>
+        <v>50</v>
       </c>
       <c r="AE31" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>420</v>
+      </c>
+      <c r="AN31" t="n">
         <v>30</v>
       </c>
-      <c r="AI31" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>230</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>330</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO31" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AP31" t="n">
         <v>6.4</v>
       </c>
       <c r="AQ31" t="n">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="AR31" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AS31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>46</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD31" t="n">
         <v>36</v>
       </c>
-      <c r="AT31" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>32</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>48</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>40</v>
-      </c>
       <c r="BE31" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="BF31" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="BG31" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6573,179 +6573,179 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.92</v>
       </c>
-      <c r="G32" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S32" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.56</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="W32" t="n">
-        <v>1.99</v>
+        <v>1.44</v>
       </c>
       <c r="X32" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z32" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AB32" t="n">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>500</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AR32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>29</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>34</v>
+      </c>
+      <c r="BD32" t="n">
         <v>50</v>
       </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>420</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>36</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>46</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>42</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>27</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>46</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>25</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>36</v>
-      </c>
       <c r="BE32" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="BF32" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="BG32" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -6779,13 +6779,13 @@
         <v>1.91</v>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H33" t="n">
         <v>4.8</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
@@ -6794,19 +6794,19 @@
         <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.38</v>
       </c>
       <c r="P33" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" t="n">
         <v>2.14</v>
@@ -6827,7 +6827,7 @@
         <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X33" t="n">
         <v>12.5</v>
@@ -6851,7 +6851,7 @@
         <v>19</v>
       </c>
       <c r="AE33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF33" t="n">
         <v>11</v>
@@ -6860,7 +6860,7 @@
         <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
         <v>80</v>
@@ -6869,7 +6869,7 @@
         <v>21</v>
       </c>
       <c r="AK33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL33" t="n">
         <v>42</v>
@@ -6893,10 +6893,10 @@
         <v>30</v>
       </c>
       <c r="AS33" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AT33" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU33" t="n">
         <v>7.6</v>
@@ -6905,7 +6905,7 @@
         <v>17.5</v>
       </c>
       <c r="AW33" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AX33" t="n">
         <v>10</v>
@@ -6917,7 +6917,7 @@
         <v>19</v>
       </c>
       <c r="BA33" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB33" t="n">
         <v>19.5</v>
@@ -6935,11 +6935,11 @@
         <v>13.5</v>
       </c>
       <c r="BG33" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -6988,10 +6988,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
         <v>2.74</v>
@@ -7078,62 +7078,62 @@
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV34" t="n">
         <v>1.21</v>
       </c>
-      <c r="AQ34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>1.19</v>
-      </c>
       <c r="AW34" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AX34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AY34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AZ34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BA34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BB34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BC34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BD34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BE34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BF34" t="n">
         <v>1.55</v>
       </c>
       <c r="BG34" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G35" t="n">
         <v>2.64</v>
       </c>
       <c r="H35" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
         <v>3.65</v>
@@ -7182,28 +7182,28 @@
         <v>3.4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
         <v>1.44</v>
       </c>
       <c r="P35" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="R35" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S35" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="T35" t="n">
         <v>1.79</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -7364,10 +7364,10 @@
         <v>2.46</v>
       </c>
       <c r="H36" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J36" t="n">
         <v>3.1</v>
@@ -7376,37 +7376,37 @@
         <v>3.45</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
         <v>1.45</v>
       </c>
       <c r="P36" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="R36" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S36" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T36" t="n">
         <v>1.05</v>
       </c>
       <c r="U36" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V36" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W36" t="n">
         <v>1.68</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -7552,46 +7552,46 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I37" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="J37" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R37" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="S37" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
         <v>1.81</v>
@@ -7600,10 +7600,10 @@
         <v>2.1</v>
       </c>
       <c r="V37" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W37" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -7746,37 +7746,37 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G38" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H38" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J38" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K38" t="n">
         <v>3.8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P38" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q38" t="n">
         <v>2.1</v>
@@ -7785,19 +7785,19 @@
         <v>1.32</v>
       </c>
       <c r="S38" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T38" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U38" t="n">
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W38" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X38" t="n">
         <v>16</v>
@@ -7815,7 +7815,7 @@
         <v>9.4</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD38" t="n">
         <v>980</v>
@@ -7830,7 +7830,7 @@
         <v>12</v>
       </c>
       <c r="AH38" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI38" t="n">
         <v>70</v>
@@ -7860,10 +7860,10 @@
         <v>13</v>
       </c>
       <c r="AR38" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AS38" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AT38" t="n">
         <v>7.4</v>
@@ -7875,7 +7875,7 @@
         <v>16</v>
       </c>
       <c r="AW38" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AX38" t="n">
         <v>10</v>
@@ -7887,7 +7887,7 @@
         <v>17.5</v>
       </c>
       <c r="BA38" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BB38" t="n">
         <v>19.5</v>
@@ -7899,7 +7899,7 @@
         <v>34</v>
       </c>
       <c r="BE38" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="BF38" t="n">
         <v>13.5</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -7943,40 +7943,40 @@
         <v>2.22</v>
       </c>
       <c r="G39" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J39" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
         <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O39" t="n">
         <v>1.35</v>
       </c>
       <c r="P39" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q39" t="n">
         <v>2.04</v>
       </c>
       <c r="R39" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S39" t="n">
         <v>3.65</v>
@@ -7985,16 +7985,16 @@
         <v>1.81</v>
       </c>
       <c r="U39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V39" t="n">
         <v>1.37</v>
       </c>
       <c r="W39" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y39" t="n">
         <v>14</v>
@@ -8024,7 +8024,7 @@
         <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
@@ -8084,7 +8084,7 @@
         <v>42</v>
       </c>
       <c r="BB39" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BC39" t="n">
         <v>20</v>
@@ -8093,7 +8093,7 @@
         <v>32</v>
       </c>
       <c r="BE39" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF39" t="n">
         <v>16</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -762,58 +762,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H2" t="n">
         <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W2" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
@@ -822,52 +822,52 @@
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="n">
         <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>440</v>
+        <v>230</v>
       </c>
       <c r="AK2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>500</v>
       </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>980</v>
-      </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AP2" t="n">
         <v>11</v>
@@ -879,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AT2" t="n">
         <v>11</v>
@@ -888,13 +888,13 @@
         <v>6.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AW2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>12.5</v>
@@ -903,29 +903,29 @@
         <v>10.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>9.4</v>
       </c>
       <c r="BE2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="BF2" t="n">
         <v>10</v>
       </c>
       <c r="BG2" t="n">
-        <v>16</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -956,34 +956,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
         <v>1.64</v>
@@ -992,25 +992,25 @@
         <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
         <v>2.36</v>
       </c>
       <c r="U3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="W3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
         <v>6.2</v>
@@ -1022,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1040,10 +1040,10 @@
         <v>100</v>
       </c>
       <c r="AH3" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -1061,65 +1061,65 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AS3" t="n">
         <v>12</v>
       </c>
-      <c r="AP3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AT3" t="n">
-        <v>6.6</v>
+        <v>17.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AV3" t="n">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.4</v>
+        <v>17</v>
       </c>
       <c r="AX3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>8.4</v>
       </c>
-      <c r="AY3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>7.4</v>
-      </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="BC3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD3" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BE3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF3" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="BG3" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1180,22 +1180,22 @@
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
         <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
         <v>1.43</v>
@@ -1219,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>14</v>
@@ -1237,7 +1237,7 @@
         <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1255,16 +1255,16 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>15.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>48</v>
@@ -1273,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV4" t="n">
         <v>13</v>
@@ -1303,17 +1303,17 @@
         <v>27</v>
       </c>
       <c r="BE4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BF4" t="n">
         <v>12</v>
       </c>
       <c r="BG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1344,76 +1344,76 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I5" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U5" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V5" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
         <v>12</v>
@@ -1422,49 +1422,49 @@
         <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
         <v>48</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AR5" t="n">
         <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AT5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
         <v>6.8</v>
@@ -1473,41 +1473,41 @@
         <v>11</v>
       </c>
       <c r="AW5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AZ5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>42</v>
+      </c>
+      <c r="BC5" t="n">
         <v>14.5</v>
       </c>
-      <c r="BA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>25</v>
-      </c>
       <c r="BD5" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="BE5" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="BF5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BG5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1538,130 +1538,130 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="I6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="J6" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="S6" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="W6" t="n">
         <v>1.13</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH6" t="n">
         <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="AK6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM6" t="n">
         <v>95</v>
       </c>
-      <c r="AL6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>85</v>
-      </c>
       <c r="AN6" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AP6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AU6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AV6" t="n">
         <v>9.199999999999999</v>
@@ -1679,29 +1679,29 @@
         <v>20</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC6" t="n">
         <v>16.5</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
+        <v>32</v>
+      </c>
+      <c r="BE6" t="n">
         <v>28</v>
       </c>
-      <c r="BD6" t="n">
-        <v>28</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>44</v>
-      </c>
       <c r="BF6" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="BG6" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1735,16 +1735,16 @@
         <v>8.6</v>
       </c>
       <c r="G7" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="I7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="J7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
         <v>6.2</v>
@@ -1756,40 +1756,40 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
         <v>3.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>11</v>
@@ -1801,13 +1801,13 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1840,40 +1840,40 @@
         <v>6.4</v>
       </c>
       <c r="AP7" t="n">
-        <v>4.7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>5.1</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="AU7" t="n">
         <v>6.4</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="AX7" t="n">
         <v>4.2</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="BA7" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="BB7" t="n">
         <v>4.2</v>
@@ -1885,17 +1885,17 @@
         <v>4.2</v>
       </c>
       <c r="BE7" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="BF7" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="BG7" t="n">
         <v>4.1</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1926,16 +1926,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="I8" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1950,34 +1950,34 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X8" t="n">
         <v>40</v>
@@ -2001,7 +2001,7 @@
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
@@ -2034,62 +2034,62 @@
         <v>85</v>
       </c>
       <c r="AP8" t="n">
-        <v>3.05</v>
+        <v>2.32</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="AS8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AV8" t="n">
         <v>3.2</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>3.5</v>
       </c>
       <c r="AW8" t="n">
         <v>3.15</v>
       </c>
       <c r="AX8" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AY8" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="AZ8" t="n">
         <v>4.3</v>
       </c>
       <c r="BA8" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="BB8" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
       <c r="BC8" t="n">
-        <v>3.45</v>
+        <v>2.54</v>
       </c>
       <c r="BD8" t="n">
-        <v>3.35</v>
+        <v>2.46</v>
       </c>
       <c r="BE8" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
       <c r="BF8" t="n">
-        <v>3.25</v>
+        <v>2.42</v>
       </c>
       <c r="BG8" t="n">
-        <v>2.92</v>
+        <v>2.46</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -2120,52 +2120,52 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
         <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
         <v>5.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
         <v>1.12</v>
@@ -2174,7 +2174,7 @@
         <v>2.66</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y9" t="n">
         <v>32</v>
@@ -2186,19 +2186,19 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
         <v>12.5</v>
@@ -2213,10 +2213,10 @@
         <v>17.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -2228,62 +2228,62 @@
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="AT9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV9" t="n">
         <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
         <v>8.6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="BB9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BC9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BD9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BE9" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="BF9" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="BG9" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -2314,46 +2314,46 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H10" t="n">
         <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
         <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
         <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
         <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
         <v>1.78</v>
@@ -2362,10 +2362,10 @@
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X10" t="n">
         <v>90</v>
@@ -2416,7 +2416,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -2428,10 +2428,10 @@
         <v>9</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="AS10" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="AT10" t="n">
         <v>5.6</v>
@@ -2440,10 +2440,10 @@
         <v>5.1</v>
       </c>
       <c r="AV10" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>5.8</v>
@@ -2452,32 +2452,32 @@
         <v>6.4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="BA10" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BB10" t="n">
         <v>9</v>
       </c>
       <c r="BC10" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="BD10" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="BE10" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="BF10" t="n">
         <v>8</v>
       </c>
       <c r="BG10" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="H11" t="n">
         <v>1.16</v>
@@ -2532,28 +2532,28 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.87</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.85</v>
       </c>
       <c r="V11" t="n">
         <v>6.4</v>
@@ -2565,10 +2565,10 @@
         <v>60</v>
       </c>
       <c r="Y11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>10.5</v>
@@ -2577,10 +2577,10 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2592,10 +2592,10 @@
         <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -2613,10 +2613,10 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="AP11" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>12.5</v>
@@ -2625,7 +2625,7 @@
         <v>8.4</v>
       </c>
       <c r="AS11" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AT11" t="n">
         <v>9.6</v>
@@ -2637,13 +2637,13 @@
         <v>10.5</v>
       </c>
       <c r="AW11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AZ11" t="n">
         <v>34</v>
@@ -2652,26 +2652,26 @@
         <v>16</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BC11" t="n">
         <v>10.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BE11" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BF11" t="n">
-        <v>10.5</v>
+        <v>30</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -2702,70 +2702,70 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.66</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.82</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
         <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
@@ -2777,10 +2777,10 @@
         <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
         <v>15.5</v>
@@ -2789,49 +2789,49 @@
         <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="n">
         <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AR12" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AS12" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="AT12" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="AX12" t="n">
         <v>16.5</v>
@@ -2840,32 +2840,32 @@
         <v>11.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="BB12" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="BC12" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="BD12" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="BF12" t="n">
-        <v>4.9</v>
+        <v>24</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.9</v>
+        <v>22</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -2896,85 +2896,85 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="G13" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M13" t="n">
         <v>1.15</v>
       </c>
       <c r="N13" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="O13" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="R13" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S13" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AA13" t="n">
         <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC13" t="n">
         <v>13.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
         <v>34</v>
@@ -3004,7 +3004,7 @@
         <v>500</v>
       </c>
       <c r="AP13" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AQ13" t="n">
         <v>8.4</v>
@@ -3013,19 +3013,19 @@
         <v>10.5</v>
       </c>
       <c r="AS13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT13" t="n">
         <v>5.9</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AV13" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AX13" t="n">
         <v>11</v>
@@ -3034,32 +3034,32 @@
         <v>10.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD13" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="BB13" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>8.6</v>
-      </c>
       <c r="BE13" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BF13" t="n">
-        <v>8.199999999999999</v>
+        <v>30</v>
       </c>
       <c r="BG13" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -3093,22 +3093,22 @@
         <v>1.63</v>
       </c>
       <c r="G14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M14" t="n">
         <v>1.12</v>
@@ -3120,10 +3120,10 @@
         <v>1.54</v>
       </c>
       <c r="P14" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R14" t="n">
         <v>1.19</v>
@@ -3132,37 +3132,37 @@
         <v>5.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V14" t="n">
         <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="X14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y14" t="n">
         <v>36</v>
       </c>
       <c r="Z14" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AA14" t="n">
-        <v>430</v>
+        <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AC14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AE14" t="n">
         <v>240</v>
@@ -3174,7 +3174,7 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="n">
         <v>240</v>
@@ -3204,10 +3204,10 @@
         <v>15.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AS14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AT14" t="n">
         <v>5.1</v>
@@ -3219,7 +3219,7 @@
         <v>16</v>
       </c>
       <c r="AW14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AX14" t="n">
         <v>6.8</v>
@@ -3228,32 +3228,32 @@
         <v>9.6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BB14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BC14" t="n">
         <v>20</v>
       </c>
       <c r="BD14" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BE14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BF14" t="n">
         <v>13.5</v>
       </c>
       <c r="BG14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -3284,52 +3284,52 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.54</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.48</v>
-      </c>
       <c r="P15" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="V15" t="n">
         <v>1.32</v>
@@ -3338,7 +3338,7 @@
         <v>1.71</v>
       </c>
       <c r="X15" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y15" t="n">
         <v>22</v>
@@ -3350,7 +3350,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
         <v>7.2</v>
@@ -3368,16 +3368,16 @@
         <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK15" t="n">
         <v>160</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>80</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -3392,7 +3392,7 @@
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AQ15" t="n">
         <v>9.800000000000001</v>
@@ -3401,10 +3401,10 @@
         <v>8.4</v>
       </c>
       <c r="AS15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AT15" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AU15" t="n">
         <v>6.2</v>
@@ -3422,19 +3422,19 @@
         <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BA15" t="n">
         <v>9.4</v>
       </c>
       <c r="BB15" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="n">
         <v>8</v>
       </c>
       <c r="BD15" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE15" t="n">
         <v>10</v>
@@ -3443,11 +3443,11 @@
         <v>22</v>
       </c>
       <c r="BG15" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -3484,13 +3484,13 @@
         <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I16" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
         <v>4.6</v>
@@ -3526,7 +3526,7 @@
         <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W16" t="n">
         <v>1.28</v>
@@ -3625,13 +3625,13 @@
         <v>8.4</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD16" t="n">
         <v>36</v>
       </c>
       <c r="BE16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BF16" t="n">
         <v>7.4</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -3729,10 +3729,10 @@
         <v>26</v>
       </c>
       <c r="Y17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="n">
         <v>500</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>980</v>
       </c>
       <c r="AA17" t="n">
         <v>900</v>
@@ -3741,7 +3741,7 @@
         <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
         <v>500</v>
@@ -3753,10 +3753,10 @@
         <v>500</v>
       </c>
       <c r="AG17" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="n">
         <v>500</v>
@@ -3765,7 +3765,7 @@
         <v>900</v>
       </c>
       <c r="AK17" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
         <v>980</v>
@@ -3786,56 +3786,56 @@
         <v>7</v>
       </c>
       <c r="AR17" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AS17" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AT17" t="n">
         <v>5.6</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="AV17" t="n">
         <v>8.4</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AX17" t="n">
-        <v>12.5</v>
+        <v>7.6</v>
       </c>
       <c r="AY17" t="n">
         <v>6.2</v>
       </c>
       <c r="AZ17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB17" t="n">
         <v>7.2</v>
       </c>
-      <c r="BA17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>7.8</v>
-      </c>
       <c r="BC17" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="BD17" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="BE17" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF17" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="BG17" t="n">
         <v>7.4</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -3866,16 +3866,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G18" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H18" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J18" t="n">
         <v>3.6</v>
@@ -3911,13 +3911,13 @@
         <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>
@@ -3962,7 +3962,7 @@
         <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
@@ -3974,7 +3974,7 @@
         <v>980</v>
       </c>
       <c r="AP18" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ18" t="n">
         <v>8.4</v>
@@ -3983,7 +3983,7 @@
         <v>10.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AT18" t="n">
         <v>8.4</v>
@@ -3995,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>10.5</v>
@@ -4007,29 +4007,29 @@
         <v>8.4</v>
       </c>
       <c r="BA18" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="BB18" t="n">
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BD18" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE18" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="BF18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BG18" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4102,10 @@
         <v>2.96</v>
       </c>
       <c r="T19" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
         <v>1.73</v>
@@ -4114,116 +4114,116 @@
         <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.03</v>
+        <v>3.8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.03</v>
+        <v>3.7</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.03</v>
+        <v>3.65</v>
       </c>
       <c r="AU19" t="n">
-        <v>1.03</v>
+        <v>3.2</v>
       </c>
       <c r="AV19" t="n">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.03</v>
+        <v>3.95</v>
       </c>
       <c r="AX19" t="n">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AY19" t="n">
-        <v>1.03</v>
+        <v>3.65</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1.03</v>
+        <v>3.7</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="BB19" t="n">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="BC19" t="n">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="BD19" t="n">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="BE19" t="n">
-        <v>1.03</v>
+        <v>4.4</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BG19" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -4266,52 +4266,52 @@
         <v>3.35</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
         <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W20" t="n">
         <v>1.66</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z20" t="n">
         <v>24</v>
@@ -4320,19 +4320,19 @@
         <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
         <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -4356,13 +4356,13 @@
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AP20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
@@ -4371,10 +4371,10 @@
         <v>18.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AT20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AU20" t="n">
         <v>7.2</v>
@@ -4395,7 +4395,7 @@
         <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="BB20" t="n">
         <v>14.5</v>
@@ -4404,20 +4404,20 @@
         <v>21</v>
       </c>
       <c r="BD20" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BE20" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BF20" t="n">
         <v>15.5</v>
       </c>
       <c r="BG20" t="n">
-        <v>7.6</v>
+        <v>25</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H21" t="n">
         <v>2.86</v>
@@ -4463,7 +4463,7 @@
         <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
         <v>1.41</v>
@@ -4490,7 +4490,7 @@
         <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
         <v>2.12</v>
@@ -4598,7 +4598,7 @@
         <v>21</v>
       </c>
       <c r="BD21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="BE21" t="n">
         <v>8.4</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -4642,55 +4642,55 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G22" t="n">
         <v>3.7</v>
       </c>
       <c r="H22" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J22" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K22" t="n">
         <v>2.88</v>
       </c>
       <c r="L22" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="M22" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N22" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="O22" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="P22" t="n">
         <v>1.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="R22" t="n">
         <v>1.12</v>
       </c>
       <c r="S22" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T22" t="n">
         <v>2.58</v>
       </c>
       <c r="U22" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W22" t="n">
         <v>1.37</v>
@@ -4702,31 +4702,31 @@
         <v>6.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC22" t="n">
         <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AI22" t="n">
         <v>260</v>
@@ -4735,7 +4735,7 @@
         <v>500</v>
       </c>
       <c r="AK22" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="n">
         <v>500</v>
@@ -4747,10 +4747,10 @@
         <v>500</v>
       </c>
       <c r="AO22" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AP22" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AQ22" t="n">
         <v>5.8</v>
@@ -4759,7 +4759,7 @@
         <v>12.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AT22" t="n">
         <v>7.4</v>
@@ -4771,41 +4771,41 @@
         <v>13</v>
       </c>
       <c r="AW22" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
         <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ22" t="n">
         <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BB22" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="BC22" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="BD22" t="n">
         <v>42</v>
       </c>
       <c r="BE22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BF22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BG22" t="n">
         <v>30</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -4836,64 +4836,64 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H23" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I23" t="n">
         <v>2.9</v>
       </c>
-      <c r="I23" t="n">
-        <v>2.98</v>
-      </c>
       <c r="J23" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="L23" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="M23" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N23" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="O23" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="P23" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S23" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="U23" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="V23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W23" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y23" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Z23" t="n">
         <v>19.5</v>
@@ -4902,31 +4902,31 @@
         <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI23" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AK23" t="n">
         <v>60</v>
@@ -4938,22 +4938,22 @@
         <v>270</v>
       </c>
       <c r="AN23" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AO23" t="n">
         <v>65</v>
       </c>
       <c r="AP23" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AQ23" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AR23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AS23" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AT23" t="n">
         <v>7.4</v>
@@ -4962,44 +4962,44 @@
         <v>6.4</v>
       </c>
       <c r="AV23" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AW23" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AX23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY23" t="n">
         <v>14.5</v>
       </c>
-      <c r="AY23" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="BA23" t="n">
         <v>36</v>
       </c>
       <c r="BB23" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="BC23" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BD23" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BE23" t="n">
         <v>65</v>
       </c>
       <c r="BF23" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="BG23" t="n">
         <v>46</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -5039,13 +5039,13 @@
         <v>5.8</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J24" t="n">
         <v>5.3</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.25</v>
@@ -5054,25 +5054,25 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R24" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S24" t="n">
         <v>2.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U24" t="n">
         <v>2.58</v>
@@ -5084,16 +5084,16 @@
         <v>2.78</v>
       </c>
       <c r="X24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y24" t="n">
         <v>32</v>
       </c>
       <c r="Z24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA24" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB24" t="n">
         <v>15</v>
@@ -5114,13 +5114,13 @@
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>50</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK24" t="n">
         <v>13.5</v>
@@ -5135,22 +5135,22 @@
         <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AP24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR24" t="n">
         <v>50</v>
       </c>
       <c r="AS24" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AT24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AU24" t="n">
         <v>12</v>
@@ -5189,11 +5189,11 @@
         <v>4.8</v>
       </c>
       <c r="BG24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -5224,154 +5224,154 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="G25" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="I25" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="J25" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="S25" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="T25" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U25" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="V25" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE25" t="n">
         <v>55</v>
       </c>
-      <c r="AA25" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB25" t="n">
+      <c r="AF25" t="n">
         <v>12</v>
       </c>
-      <c r="AC25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
       </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AO25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP25" t="n">
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AS25" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX25" t="n">
         <v>11.5</v>
       </c>
-      <c r="AU25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AY25" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BA25" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="BB25" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="BC25" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>24</v>
@@ -5380,14 +5380,14 @@
         <v>60</v>
       </c>
       <c r="BF25" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="BG25" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
         <v>11</v>
       </c>
       <c r="I26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
         <v>7</v>
@@ -5436,34 +5436,34 @@
         <v>7.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P26" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R26" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T26" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U26" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V26" t="n">
         <v>1.09</v>
@@ -5472,7 +5472,7 @@
         <v>4.3</v>
       </c>
       <c r="X26" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Y26" t="n">
         <v>60</v>
@@ -5481,31 +5481,31 @@
         <v>120</v>
       </c>
       <c r="AA26" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC26" t="n">
         <v>17</v>
       </c>
-      <c r="AC26" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AD26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="n">
         <v>130</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
@@ -5517,16 +5517,16 @@
         <v>26</v>
       </c>
       <c r="AM26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN26" t="n">
         <v>3.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AP26" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AQ26" t="n">
         <v>50</v>
@@ -5550,7 +5550,7 @@
         <v>110</v>
       </c>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY26" t="n">
         <v>11.5</v>
@@ -5571,17 +5571,17 @@
         <v>24</v>
       </c>
       <c r="BE26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BF26" t="n">
         <v>3.1</v>
       </c>
       <c r="BG26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -5612,52 +5612,52 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G27" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H27" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I27" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J27" t="n">
         <v>3.25</v>
       </c>
       <c r="K27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.51</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O27" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P27" t="n">
         <v>1.65</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V27" t="n">
         <v>1.86</v>
@@ -5669,10 +5669,10 @@
         <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA27" t="n">
         <v>120</v>
@@ -5690,7 +5690,7 @@
         <v>65</v>
       </c>
       <c r="AF27" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="n">
         <v>19</v>
@@ -5699,16 +5699,16 @@
         <v>60</v>
       </c>
       <c r="AI27" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="AJ27" t="n">
         <v>900</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
@@ -5741,7 +5741,7 @@
         <v>9.6</v>
       </c>
       <c r="AW27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX27" t="n">
         <v>13</v>
@@ -5753,29 +5753,29 @@
         <v>11.5</v>
       </c>
       <c r="BA27" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BB27" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="BC27" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD27" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BE27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF27" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BG27" t="n">
         <v>19</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -5806,40 +5806,40 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="G28" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="H28" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="I28" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R28" t="n">
         <v>1.27</v>
@@ -5848,128 +5848,128 @@
         <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V28" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="W28" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AA28" t="n">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="AF28" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG28" t="n">
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>700</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="n">
         <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AM28" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>700</v>
+        <v>95</v>
       </c>
       <c r="AP28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX28" t="n">
         <v>10</v>
       </c>
-      <c r="AQ28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>42</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AY28" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>38</v>
+      </c>
+      <c r="BB28" t="n">
         <v>20</v>
       </c>
-      <c r="BA28" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>16.5</v>
-      </c>
       <c r="BC28" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="BD28" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="BE28" t="n">
         <v>70</v>
       </c>
       <c r="BF28" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="BG28" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -6000,139 +6000,139 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S29" t="n">
         <v>3.45</v>
       </c>
-      <c r="G29" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.65</v>
-      </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U29" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V29" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X29" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA29" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
         <v>11</v>
       </c>
       <c r="AE29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF29" t="n">
         <v>25</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>23</v>
       </c>
       <c r="AG29" t="n">
         <v>14.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK29" t="n">
         <v>40</v>
       </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN29" t="n">
         <v>40</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ29" t="n">
         <v>9.4</v>
       </c>
       <c r="AR29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AS29" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AT29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
       </c>
       <c r="AW29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX29" t="n">
         <v>23</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>21</v>
       </c>
       <c r="AY29" t="n">
         <v>13</v>
@@ -6141,10 +6141,10 @@
         <v>16</v>
       </c>
       <c r="BA29" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BB29" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="BC29" t="n">
         <v>36</v>
@@ -6159,11 +6159,11 @@
         <v>34</v>
       </c>
       <c r="BG29" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G30" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H30" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="I30" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.68</v>
@@ -6221,7 +6221,7 @@
         <v>2.38</v>
       </c>
       <c r="O30" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="P30" t="n">
         <v>1.44</v>
@@ -6233,7 +6233,7 @@
         <v>1.15</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T30" t="n">
         <v>2.34</v>
@@ -6242,7 +6242,7 @@
         <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="W30" t="n">
         <v>1.37</v>
@@ -6254,10 +6254,10 @@
         <v>6.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AB30" t="n">
         <v>9.199999999999999</v>
@@ -6269,7 +6269,7 @@
         <v>13.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="n">
         <v>24</v>
@@ -6281,7 +6281,7 @@
         <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AJ30" t="n">
         <v>230</v>
@@ -6299,10 +6299,10 @@
         <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AQ30" t="n">
         <v>6</v>
@@ -6320,7 +6320,7 @@
         <v>6.4</v>
       </c>
       <c r="AV30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AW30" t="n">
         <v>32</v>
@@ -6335,7 +6335,7 @@
         <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BB30" t="n">
         <v>50</v>
@@ -6353,11 +6353,11 @@
         <v>36</v>
       </c>
       <c r="BG30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -6388,73 +6388,73 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="G31" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H31" t="n">
         <v>5.5</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="M31" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="N31" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="O31" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="P31" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R31" t="n">
         <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="T31" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="U31" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="V31" t="n">
         <v>1.2</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y31" t="n">
         <v>12.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="AA31" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="AB31" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AC31" t="n">
         <v>7.8</v>
@@ -6463,79 +6463,79 @@
         <v>50</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AF31" t="n">
         <v>10.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="n">
-        <v>220</v>
+        <v>700</v>
       </c>
       <c r="AJ31" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AK31" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AM31" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
       </c>
       <c r="AP31" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AQ31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AR31" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
         <v>46</v>
       </c>
       <c r="AT31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AX31" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA31" t="n">
         <v>46</v>
       </c>
       <c r="BB31" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="BC31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD31" t="n">
         <v>36</v>
@@ -6544,14 +6544,14 @@
         <v>65</v>
       </c>
       <c r="BF31" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="BG31" t="n">
         <v>50</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
         <v>1.48</v>
       </c>
       <c r="P32" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q32" t="n">
         <v>2.44</v>
@@ -6636,7 +6636,7 @@
         <v>1.44</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
         <v>8.800000000000001</v>
@@ -6660,7 +6660,7 @@
         <v>60</v>
       </c>
       <c r="AF32" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AG32" t="n">
         <v>14.5</v>
@@ -6729,7 +6729,7 @@
         <v>29</v>
       </c>
       <c r="BC32" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BD32" t="n">
         <v>50</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -6776,31 +6776,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="G33" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="H33" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O33" t="n">
         <v>1.38</v>
@@ -6818,25 +6818,25 @@
         <v>4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U33" t="n">
         <v>1.97</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W33" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X33" t="n">
         <v>12.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z33" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA33" t="n">
         <v>120</v>
@@ -6845,10 +6845,10 @@
         <v>7.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE33" t="n">
         <v>70</v>
@@ -6857,7 +6857,7 @@
         <v>11</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
         <v>21</v>
@@ -6878,7 +6878,7 @@
         <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO33" t="n">
         <v>85</v>
@@ -6908,7 +6908,7 @@
         <v>60</v>
       </c>
       <c r="AX33" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY33" t="n">
         <v>9.6</v>
@@ -6920,7 +6920,7 @@
         <v>65</v>
       </c>
       <c r="BB33" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BC33" t="n">
         <v>19.5</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -6970,59 +6970,59 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
         <v>3.6</v>
       </c>
-      <c r="G34" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K34" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.74</v>
-      </c>
       <c r="O34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2</v>
+      </c>
+      <c r="W34" t="n">
         <v>1.25</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.2</v>
-      </c>
       <c r="X34" t="n">
         <v>1000</v>
       </c>
@@ -7030,13 +7030,13 @@
         <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC34" t="n">
         <v>42</v>
@@ -7054,7 +7054,7 @@
         <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
@@ -7075,65 +7075,65 @@
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.23</v>
+        <v>4.8</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.19</v>
+        <v>3.85</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.24</v>
+        <v>4.3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.24</v>
+        <v>4.8</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.24</v>
+        <v>4.8</v>
       </c>
       <c r="AU34" t="n">
-        <v>1.14</v>
+        <v>3.75</v>
       </c>
       <c r="AV34" t="n">
-        <v>1.21</v>
+        <v>3.95</v>
       </c>
       <c r="AW34" t="n">
-        <v>1.22</v>
+        <v>4.7</v>
       </c>
       <c r="AX34" t="n">
-        <v>1.24</v>
+        <v>5.3</v>
       </c>
       <c r="AY34" t="n">
-        <v>1.24</v>
+        <v>4.8</v>
       </c>
       <c r="AZ34" t="n">
-        <v>1.24</v>
+        <v>4.8</v>
       </c>
       <c r="BA34" t="n">
-        <v>1.24</v>
+        <v>5.3</v>
       </c>
       <c r="BB34" t="n">
-        <v>1.24</v>
+        <v>4.3</v>
       </c>
       <c r="BC34" t="n">
-        <v>1.24</v>
+        <v>4.1</v>
       </c>
       <c r="BD34" t="n">
-        <v>1.24</v>
+        <v>4.1</v>
       </c>
       <c r="BE34" t="n">
-        <v>1.24</v>
+        <v>5.7</v>
       </c>
       <c r="BF34" t="n">
-        <v>1.55</v>
+        <v>3.45</v>
       </c>
       <c r="BG34" t="n">
-        <v>1.22</v>
+        <v>4</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -7164,64 +7164,64 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="G35" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I35" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V35" t="n">
         <v>1.44</v>
       </c>
-      <c r="P35" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W35" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z35" t="n">
         <v>170</v>
@@ -7233,7 +7233,7 @@
         <v>9</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD35" t="n">
         <v>28</v>
@@ -7248,7 +7248,7 @@
         <v>23</v>
       </c>
       <c r="AH35" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
@@ -7257,31 +7257,31 @@
         <v>500</v>
       </c>
       <c r="AK35" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AL35" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AQ35" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AR35" t="n">
-        <v>6.2</v>
+        <v>16</v>
       </c>
       <c r="AS35" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AT35" t="n">
         <v>7.4</v>
@@ -7293,7 +7293,7 @@
         <v>11</v>
       </c>
       <c r="AW35" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AX35" t="n">
         <v>12</v>
@@ -7302,32 +7302,32 @@
         <v>10</v>
       </c>
       <c r="AZ35" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="BA35" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB35" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="BC35" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="BD35" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="BE35" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="BF35" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="BG35" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -7358,170 +7358,170 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G36" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K36" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P36" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R36" t="n">
         <v>1.24</v>
       </c>
       <c r="S36" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T36" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="U36" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="V36" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W36" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="n">
         <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AR36" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AU36" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AV36" t="n">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="AW36" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AX36" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AY36" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AZ36" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="BA36" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BB36" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BC36" t="n">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="BD36" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BE36" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BF36" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BG36" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
         <v>3.25</v>
@@ -7561,28 +7561,28 @@
         <v>2.58</v>
       </c>
       <c r="I37" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J37" t="n">
         <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L37" t="n">
         <v>1.45</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P37" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q37" t="n">
         <v>2.16</v>
@@ -7594,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U37" t="n">
         <v>2.1</v>
@@ -7606,10 +7606,10 @@
         <v>1.45</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
@@ -7618,13 +7618,13 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
@@ -7633,7 +7633,7 @@
         <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH37" t="n">
         <v>1000</v>
@@ -7651,7 +7651,7 @@
         <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN37" t="n">
         <v>1000</v>
@@ -7660,62 +7660,62 @@
         <v>1000</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.04</v>
+        <v>3.95</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.04</v>
+        <v>4.6</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.04</v>
+        <v>5.2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.04</v>
+        <v>4.1</v>
       </c>
       <c r="AU37" t="n">
-        <v>1.04</v>
+        <v>6.4</v>
       </c>
       <c r="AV37" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="AW37" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="AX37" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="AY37" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="AZ37" t="n">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="BA37" t="n">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="BB37" t="n">
-        <v>1.04</v>
+        <v>5.4</v>
       </c>
       <c r="BC37" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="BD37" t="n">
-        <v>1.04</v>
+        <v>5.4</v>
       </c>
       <c r="BE37" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="BF37" t="n">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="BG37" t="n">
-        <v>1.04</v>
+        <v>5</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -7746,37 +7746,37 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="G38" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I38" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K38" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O38" t="n">
         <v>1.36</v>
       </c>
       <c r="P38" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q38" t="n">
         <v>2.1</v>
@@ -7788,25 +7788,25 @@
         <v>3.85</v>
       </c>
       <c r="T38" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V38" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="X38" t="n">
         <v>16</v>
       </c>
       <c r="Y38" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA38" t="n">
         <v>140</v>
@@ -7815,25 +7815,25 @@
         <v>9.4</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD38" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AE38" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AF38" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH38" t="n">
         <v>25</v>
       </c>
       <c r="AI38" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ38" t="n">
         <v>980</v>
@@ -7851,65 +7851,65 @@
         <v>15.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AP38" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AQ38" t="n">
         <v>13</v>
       </c>
       <c r="AR38" t="n">
-        <v>5.9</v>
+        <v>30</v>
       </c>
       <c r="AS38" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AT38" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AU38" t="n">
         <v>7.4</v>
       </c>
       <c r="AV38" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW38" t="n">
-        <v>6.4</v>
+        <v>55</v>
       </c>
       <c r="AX38" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AY38" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ38" t="n">
         <v>17.5</v>
       </c>
       <c r="BA38" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="BB38" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BC38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD38" t="n">
-        <v>34</v>
+        <v>5.1</v>
       </c>
       <c r="BE38" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="BF38" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="BG38" t="n">
-        <v>60</v>
+        <v>5.5</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -7940,16 +7940,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I39" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J39" t="n">
         <v>3.5</v>
@@ -7958,34 +7958,34 @@
         <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P39" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="Q39" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U39" t="n">
         <v>2.04</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.1</v>
       </c>
       <c r="V39" t="n">
         <v>1.37</v>
@@ -7994,19 +7994,19 @@
         <v>1.76</v>
       </c>
       <c r="X39" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z39" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC39" t="n">
         <v>8</v>
@@ -8018,16 +8018,16 @@
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG39" t="n">
         <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="n">
         <v>32</v>
@@ -8036,19 +8036,19 @@
         <v>26</v>
       </c>
       <c r="AL39" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
         <v>120</v>
       </c>
       <c r="AN39" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
       </c>
       <c r="AP39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ39" t="n">
         <v>11</v>
@@ -8060,10 +8060,10 @@
         <v>55</v>
       </c>
       <c r="AT39" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AU39" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV39" t="n">
         <v>13</v>
@@ -8075,25 +8075,25 @@
         <v>12</v>
       </c>
       <c r="AY39" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AZ39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA39" t="n">
         <v>42</v>
       </c>
       <c r="BB39" t="n">
-        <v>7.2</v>
+        <v>26</v>
       </c>
       <c r="BC39" t="n">
         <v>20</v>
       </c>
       <c r="BD39" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BE39" t="n">
-        <v>8.6</v>
+        <v>75</v>
       </c>
       <c r="BF39" t="n">
         <v>16</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -8167,13 +8167,13 @@
         <v>1.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.1</v>
+        <v>1.41</v>
       </c>
       <c r="R40" t="n">
         <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="T40" t="n">
         <v>1.05</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-25.xlsx
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="I2" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -786,46 +786,46 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="n">
         <v>13</v>
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="n">
         <v>24</v>
@@ -852,10 +852,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -864,10 +864,10 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>11</v>
@@ -879,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="AS2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
         <v>11</v>
@@ -894,38 +894,38 @@
         <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
         <v>12.5</v>
       </c>
       <c r="AZ2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA2" t="n">
         <v>10.5</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BG2" t="n">
         <v>17.5</v>
       </c>
-      <c r="BB2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>18</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>30</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -956,91 +956,91 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="G3" t="n">
-        <v>9.6</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="R3" t="n">
         <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2.66</v>
+        <v>2.12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>160</v>
@@ -1061,65 +1061,65 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT3" t="n">
         <v>13</v>
       </c>
-      <c r="AP3" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AU3" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="AV3" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AW3" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AZ3" t="n">
-        <v>8.4</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB3" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="BC3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE3" t="n">
         <v>10</v>
       </c>
       <c r="BF3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BG3" t="n">
-        <v>5.9</v>
+        <v>14</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G4" t="n">
         <v>2.22</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.24</v>
-      </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1174,34 +1174,34 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q4" t="n">
         <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
         <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1231,19 +1231,19 @@
         <v>15.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>28</v>
@@ -1255,16 +1255,16 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>15.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
         <v>48</v>
@@ -1276,22 +1276,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AW4" t="n">
         <v>30</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BB4" t="n">
         <v>27</v>
@@ -1309,11 +1309,11 @@
         <v>12</v>
       </c>
       <c r="BG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1347,22 +1347,22 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I5" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1374,31 +1374,31 @@
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
         <v>3.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
         <v>12.5</v>
@@ -1413,13 +1413,13 @@
         <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
         <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
@@ -1437,16 +1437,16 @@
         <v>48</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
         <v>22</v>
@@ -1455,28 +1455,28 @@
         <v>13.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AV5" t="n">
         <v>11</v>
       </c>
       <c r="AW5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY5" t="n">
         <v>11.5</v>
@@ -1485,29 +1485,29 @@
         <v>13.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BB5" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="BC5" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="BD5" t="n">
         <v>34</v>
       </c>
       <c r="BE5" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="BF5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BG5" t="n">
         <v>19</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="G6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H6" t="n">
         <v>1.42</v>
@@ -1550,7 +1550,7 @@
         <v>1.43</v>
       </c>
       <c r="J6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K6" t="n">
         <v>5.9</v>
@@ -1562,40 +1562,40 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="S6" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W6" t="n">
         <v>1.13</v>
       </c>
       <c r="X6" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
         <v>10.5</v>
@@ -1604,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
@@ -1616,43 +1616,43 @@
         <v>13.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH6" t="n">
         <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AK6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN6" t="n">
         <v>95</v>
       </c>
-      <c r="AN6" t="n">
-        <v>180</v>
-      </c>
       <c r="AO6" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AP6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AR6" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS6" t="n">
         <v>11.5</v>
@@ -1661,10 +1661,10 @@
         <v>30</v>
       </c>
       <c r="AU6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AW6" t="n">
         <v>12</v>
@@ -1673,35 +1673,35 @@
         <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA6" t="n">
         <v>24</v>
       </c>
       <c r="BB6" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BC6" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="BD6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BE6" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="BF6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BG6" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1741,10 +1741,10 @@
         <v>1.38</v>
       </c>
       <c r="I7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>6.2</v>
@@ -1762,25 +1762,25 @@
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
         <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W7" t="n">
         <v>1.1</v>
@@ -1846,34 +1846,34 @@
         <v>5.1</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="AU7" t="n">
         <v>6.4</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
         <v>4.2</v>
       </c>
       <c r="AY7" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="BA7" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="BB7" t="n">
         <v>4.2</v>
@@ -1885,17 +1885,17 @@
         <v>4.2</v>
       </c>
       <c r="BE7" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="BF7" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="BG7" t="n">
         <v>4.1</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1926,61 +1926,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
         <v>2.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="W8" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1989,7 +1989,7 @@
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
         <v>1000</v>
@@ -2001,7 +2001,7 @@
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
@@ -2010,7 +2010,7 @@
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -2034,62 +2034,62 @@
         <v>85</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.92</v>
+        <v>2.44</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.15</v>
+        <v>2.42</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.78</v>
+        <v>4.7</v>
       </c>
       <c r="AV8" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.15</v>
+        <v>2.42</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.4</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>2.92</v>
+        <v>2.3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="BA8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BG8" t="n">
         <v>2.52</v>
       </c>
-      <c r="BB8" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>2.46</v>
-      </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
         <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J9" t="n">
         <v>4.4</v>
@@ -2153,22 +2153,22 @@
         <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
         <v>2.92</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
         <v>2.66</v>
@@ -2198,7 +2198,7 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>12.5</v>
@@ -2216,7 +2216,7 @@
         <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -2237,10 +2237,10 @@
         <v>6</v>
       </c>
       <c r="AS9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AT9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU9" t="n">
         <v>8.800000000000001</v>
@@ -2249,7 +2249,7 @@
         <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AX9" t="n">
         <v>8</v>
@@ -2264,7 +2264,7 @@
         <v>6</v>
       </c>
       <c r="BB9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BC9" t="n">
         <v>13.5</v>
@@ -2276,14 +2276,14 @@
         <v>6.2</v>
       </c>
       <c r="BF9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BG9" t="n">
         <v>6.2</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2314,58 +2314,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="G10" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="H10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.7</v>
       </c>
-      <c r="I10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.81</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.78</v>
-      </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="X10" t="n">
         <v>90</v>
@@ -2380,13 +2380,13 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -2395,16 +2395,16 @@
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AK10" t="n">
         <v>65</v>
@@ -2416,68 +2416,68 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
       </c>
       <c r="AP10" t="n">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="AQ10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AR10" t="n">
         <v>9</v>
       </c>
-      <c r="AR10" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AS10" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="AT10" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>5.1</v>
+        <v>8.6</v>
       </c>
       <c r="AV10" t="n">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY10" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="AZ10" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="BA10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BB10" t="n">
         <v>9</v>
       </c>
       <c r="BC10" t="n">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="BD10" t="n">
-        <v>5.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE10" t="n">
-        <v>6.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF10" t="n">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="BG10" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2508,16 +2508,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
         <v>22</v>
       </c>
       <c r="H11" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="I11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J11" t="n">
         <v>10</v>
@@ -2526,7 +2526,7 @@
         <v>11.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -2538,40 +2538,40 @@
         <v>1.1</v>
       </c>
       <c r="P11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q11" t="n">
         <v>1.33</v>
       </c>
       <c r="R11" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="S11" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V11" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="W11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="X11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
@@ -2580,98 +2580,98 @@
         <v>26</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AG11" t="n">
         <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AL11" t="n">
-        <v>470</v>
+        <v>210</v>
       </c>
       <c r="AM11" t="n">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AR11" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AS11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AT11" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AW11" t="n">
         <v>11.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>11.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="BB11" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="BC11" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="BD11" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="BE11" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="BF11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2708,118 +2708,118 @@
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
         <v>1.6</v>
       </c>
       <c r="W12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI12" t="n">
         <v>50</v>
       </c>
-      <c r="AB12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>150</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
         <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AR12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.7</v>
+        <v>14.5</v>
       </c>
       <c r="AT12" t="n">
         <v>9.199999999999999</v>
@@ -2828,44 +2828,44 @@
         <v>6.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.4</v>
+        <v>12.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY12" t="n">
         <v>11.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB12" t="n">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="BC12" t="n">
         <v>30</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
       <c r="BE12" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="BF12" t="n">
-        <v>24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BG12" t="n">
         <v>22</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G13" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H13" t="n">
         <v>3.55</v>
@@ -2908,31 +2908,31 @@
         <v>3.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K13" t="n">
         <v>3.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="M13" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
         <v>6.2</v>
@@ -2941,16 +2941,16 @@
         <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
         <v>1.36</v>
       </c>
       <c r="W13" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y13" t="n">
         <v>9.800000000000001</v>
@@ -2986,7 +2986,7 @@
         <v>500</v>
       </c>
       <c r="AJ13" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK13" t="n">
         <v>980</v>
@@ -3001,10 +3001,10 @@
         <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP13" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="AQ13" t="n">
         <v>8.4</v>
@@ -3013,19 +3013,19 @@
         <v>10.5</v>
       </c>
       <c r="AS13" t="n">
-        <v>9.199999999999999</v>
+        <v>55</v>
       </c>
       <c r="AT13" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="AV13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW13" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>9</v>
       </c>
       <c r="AX13" t="n">
         <v>11</v>
@@ -3034,10 +3034,10 @@
         <v>10.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="BA13" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
         <v>30</v>
@@ -3046,20 +3046,20 @@
         <v>30</v>
       </c>
       <c r="BD13" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="BE13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BF13" t="n">
         <v>30</v>
       </c>
       <c r="BG13" t="n">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I14" t="n">
         <v>8.6</v>
@@ -3105,46 +3105,46 @@
         <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.59</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="X14" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
         <v>36</v>
@@ -3156,16 +3156,16 @@
         <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF14" t="n">
         <v>7.8</v>
@@ -3174,13 +3174,13 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
         <v>44</v>
@@ -3192,25 +3192,25 @@
         <v>700</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AO14" t="n">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ14" t="n">
         <v>15.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AS14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AT14" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AU14" t="n">
         <v>7.8</v>
@@ -3228,32 +3228,32 @@
         <v>9.6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
         <v>14</v>
       </c>
       <c r="BB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BC14" t="n">
         <v>12</v>
       </c>
-      <c r="BC14" t="n">
-        <v>20</v>
-      </c>
       <c r="BD14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BF14" t="n">
         <v>12.5</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BG14" t="n">
         <v>14</v>
       </c>
-      <c r="BF14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>14.5</v>
-      </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -3290,76 +3290,76 @@
         <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="P15" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="U15" t="n">
         <v>1.79</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
         <v>1.71</v>
       </c>
       <c r="X15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
         <v>95</v>
       </c>
       <c r="AE15" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AF15" t="n">
         <v>25</v>
@@ -3368,13 +3368,13 @@
         <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK15" t="n">
         <v>160</v>
@@ -3395,25 +3395,25 @@
         <v>7.4</v>
       </c>
       <c r="AQ15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AR15" t="n">
-        <v>8.4</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AV15" t="n">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AX15" t="n">
         <v>11.5</v>
@@ -3422,32 +3422,32 @@
         <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>7.2</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BB15" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BC15" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BD15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="BE15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BG15" t="n">
         <v>10</v>
       </c>
-      <c r="BF15" t="n">
-        <v>22</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -3478,19 +3478,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
         <v>4.6</v>
@@ -3511,25 +3511,25 @@
         <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
         <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W16" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X16" t="n">
         <v>25</v>
@@ -3610,7 +3610,7 @@
         <v>14.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.6</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>15</v>
@@ -3619,29 +3619,29 @@
         <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BB16" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC16" t="n">
-        <v>8.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="BD16" t="n">
         <v>36</v>
       </c>
       <c r="BE16" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="BF16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BG16" t="n">
         <v>7.4</v>
       </c>
-      <c r="BG16" t="n">
-        <v>7</v>
-      </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -3672,10 +3672,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
@@ -3684,7 +3684,7 @@
         <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
         <v>3.85</v>
@@ -3696,34 +3696,34 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
         <v>1.39</v>
       </c>
       <c r="W17" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X17" t="n">
         <v>26</v>
@@ -3765,7 +3765,7 @@
         <v>900</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AL17" t="n">
         <v>980</v>
@@ -3786,22 +3786,22 @@
         <v>7</v>
       </c>
       <c r="AR17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AT17" t="n">
         <v>5.6</v>
       </c>
       <c r="AU17" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="AV17" t="n">
         <v>8.4</v>
       </c>
       <c r="AW17" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AX17" t="n">
         <v>7.6</v>
@@ -3810,32 +3810,32 @@
         <v>6.2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="BA17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BD17" t="n">
         <v>7</v>
       </c>
-      <c r="BB17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>6.8</v>
-      </c>
       <c r="BE17" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="BF17" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BG17" t="n">
         <v>7.4</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -3869,16 +3869,16 @@
         <v>2.46</v>
       </c>
       <c r="G18" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -3896,34 +3896,34 @@
         <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q18" t="n">
         <v>1.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S18" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U18" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V18" t="n">
         <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
         <v>980</v>
@@ -3971,10 +3971,10 @@
         <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AP18" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>8.4</v>
@@ -3983,7 +3983,7 @@
         <v>10.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AT18" t="n">
         <v>8.4</v>
@@ -3992,44 +3992,44 @@
         <v>8</v>
       </c>
       <c r="AV18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY18" t="n">
         <v>7</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>6.8</v>
       </c>
       <c r="AZ18" t="n">
         <v>8.4</v>
       </c>
       <c r="BA18" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="BB18" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="BC18" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="BE18" t="n">
-        <v>5.2</v>
+        <v>11.5</v>
       </c>
       <c r="BF18" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BG18" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
         <v>3.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
         <v>2.24</v>
@@ -4072,7 +4072,7 @@
         <v>2.38</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -4084,25 +4084,25 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R19" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
         <v>2.26</v>
@@ -4111,7 +4111,7 @@
         <v>1.73</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
@@ -4120,19 +4120,19 @@
         <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
         <v>32</v>
       </c>
       <c r="AB19" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
         <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -4141,7 +4141,7 @@
         <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>19.5</v>
@@ -4165,65 +4165,65 @@
         <v>36</v>
       </c>
       <c r="AO19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AU19" t="n">
         <v>3.8</v>
       </c>
-      <c r="AQ19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AV19" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="AX19" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AY19" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="AZ19" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="BA19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BG19" t="n">
         <v>4.1</v>
       </c>
-      <c r="BB19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>11</v>
-      </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G20" t="n">
         <v>2.52</v>
@@ -4266,10 +4266,10 @@
         <v>3.35</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
         <v>1.39</v>
@@ -4287,7 +4287,7 @@
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R20" t="n">
         <v>1.38</v>
@@ -4323,7 +4323,7 @@
         <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
         <v>14.5</v>
@@ -4371,7 +4371,7 @@
         <v>18.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT20" t="n">
         <v>9.4</v>
@@ -4383,7 +4383,7 @@
         <v>11.5</v>
       </c>
       <c r="AW20" t="n">
-   